--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -676,7 +676,7 @@
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -697,7 +697,7 @@
         <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q2" t="n">
         <v>1.69</v>
@@ -769,7 +769,7 @@
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AO2" t="n">
         <v>980</v>
@@ -838,10 +838,10 @@
         <v>1.68</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.44</v>
+        <v>2.72</v>
       </c>
       <c r="T3" t="n">
         <v>1.75</v>
@@ -901,7 +901,7 @@
         <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
         <v>8</v>
@@ -943,13 +943,13 @@
         <v>1.31</v>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
         <v>6.8</v>
@@ -1105,7 +1105,7 @@
         <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,13 +1642,13 @@
         <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
         <v>1.66</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
         <v>2.66</v>
@@ -1681,22 +1681,22 @@
         <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AE9" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,19 +1750,19 @@
         <v>1.58</v>
       </c>
       <c r="G10" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.14</v>
@@ -1780,13 +1780,13 @@
         <v>3.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R10" t="n">
         <v>1.87</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
         <v>1.55</v>
@@ -1801,16 +1801,16 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="n">
         <v>75</v>
       </c>
       <c r="AA10" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB10" t="n">
         <v>15.5</v>
@@ -1819,13 +1819,13 @@
         <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
@@ -1846,13 +1846,13 @@
         <v>24</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN10" t="n">
         <v>5.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -2290,7 +2290,7 @@
         <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
@@ -2311,7 +2311,7 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
@@ -2341,16 +2341,16 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
         <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
         <v>13</v>
@@ -2365,7 +2365,7 @@
         <v>36</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
@@ -2374,7 +2374,7 @@
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
         <v>29</v>
@@ -2386,7 +2386,7 @@
         <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
         <v>13</v>
@@ -2422,28 +2422,28 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I15" t="n">
         <v>2.46</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.48</v>
       </c>
       <c r="J15" t="n">
         <v>3.7</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
         <v>5.2</v>
@@ -2458,7 +2458,7 @@
         <v>1.68</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S15" t="n">
         <v>2.66</v>
@@ -2482,10 +2482,10 @@
         <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB15" t="n">
         <v>18</v>
@@ -2506,10 +2506,10 @@
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
         <v>60</v>
@@ -2521,7 +2521,7 @@
         <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="n">
         <v>21</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.52</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.53</v>
-      </c>
       <c r="H16" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J16" t="n">
         <v>5</v>
@@ -2590,10 +2590,10 @@
         <v>2.66</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S16" t="n">
         <v>2.42</v>
@@ -2602,7 +2602,7 @@
         <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y16" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z16" t="n">
         <v>65</v>
@@ -2623,19 +2623,19 @@
         <v>200</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
         <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE16" t="n">
         <v>85</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
         <v>9.800000000000001</v>
@@ -2644,7 +2644,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
@@ -2656,7 +2656,7 @@
         <v>29</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
         <v>5.7</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G17" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H17" t="n">
         <v>15.5</v>
       </c>
       <c r="I17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K17" t="n">
         <v>8.199999999999999</v>
@@ -2725,7 +2725,7 @@
         <v>3.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="R17" t="n">
         <v>2.2</v>
@@ -2752,7 +2752,7 @@
         <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AA17" t="n">
         <v>600</v>
@@ -2767,7 +2767,7 @@
         <v>330</v>
       </c>
       <c r="AE17" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AF17" t="n">
         <v>11.5</v>
@@ -2833,7 +2833,7 @@
         <v>1.27</v>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I18" t="n">
         <v>13.5</v>
@@ -2842,7 +2842,7 @@
         <v>7.4</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Y18" t="n">
         <v>55</v>
@@ -2893,10 +2893,10 @@
         <v>480</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AD18" t="n">
         <v>46</v>
@@ -2965,7 +2965,7 @@
         <v>5.4</v>
       </c>
       <c r="G19" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H19" t="n">
         <v>1.61</v>
@@ -2998,7 +2998,7 @@
         <v>1.43</v>
       </c>
       <c r="R19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S19" t="n">
         <v>2.06</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="n">
         <v>16.5</v>
@@ -3064,7 +3064,7 @@
         <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="G20" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H20" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
         <v>4.7</v>
@@ -3151,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z20" t="n">
         <v>60</v>
@@ -3169,7 +3169,7 @@
         <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3181,7 +3181,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
         <v>75</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="G21" t="n">
         <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J21" t="n">
         <v>3.05</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G22" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H22" t="n">
         <v>5.3</v>
@@ -3382,7 +3382,7 @@
         <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3394,13 +3394,13 @@
         <v>2.28</v>
       </c>
       <c r="O22" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="P22" t="n">
         <v>1.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
         <v>1.14</v>
@@ -3409,16 +3409,16 @@
         <v>6.8</v>
       </c>
       <c r="T22" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V22" t="n">
         <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X22" t="n">
         <v>8.4</v>
@@ -3469,7 +3469,7 @@
         <v>410</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
         <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -697,10 +697,10 @@
         <v>1.23</v>
       </c>
       <c r="P2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="R2" t="n">
         <v>1.49</v>
@@ -709,7 +709,7 @@
         <v>2.74</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
         <v>2.32</v>
@@ -718,61 +718,61 @@
         <v>1.31</v>
       </c>
       <c r="W2" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
         <v>13.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
         <v>6.4</v>
@@ -820,10 +820,10 @@
         <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>4.6</v>
@@ -835,16 +835,16 @@
         <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>2.72</v>
+        <v>2.46</v>
       </c>
       <c r="T3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U3" t="n">
         <v>2.12</v>
@@ -853,58 +853,58 @@
         <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA3" t="n">
         <v>180</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,7 +940,7 @@
         <v>1.26</v>
       </c>
       <c r="G4" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="H4" t="n">
         <v>17</v>
@@ -949,7 +949,7 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
         <v>6.8</v>
@@ -1624,7 +1624,7 @@
         <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K9" t="n">
         <v>5.9</v>
@@ -1645,7 +1645,7 @@
         <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
         <v>1.58</v>
@@ -1669,13 +1669,13 @@
         <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="AB9" t="n">
         <v>9.6</v>
@@ -1684,10 +1684,10 @@
         <v>13</v>
       </c>
       <c r="AD9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="n">
-        <v>250</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
         <v>8.199999999999999</v>
@@ -1696,7 +1696,7 @@
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1714,7 +1714,7 @@
         <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1753,13 +1753,13 @@
         <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
@@ -1780,13 +1780,13 @@
         <v>3.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="R10" t="n">
         <v>1.87</v>
       </c>
       <c r="S10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
         <v>1.55</v>
@@ -1807,7 +1807,7 @@
         <v>36</v>
       </c>
       <c r="Z10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>170</v>
@@ -1819,13 +1819,13 @@
         <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE10" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
@@ -1834,10 +1834,10 @@
         <v>16.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK10" t="n">
         <v>14.5</v>
@@ -1846,10 +1846,10 @@
         <v>24</v>
       </c>
       <c r="AM10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G11" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>3.45</v>
       </c>
       <c r="H12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I12" t="n">
         <v>2.42</v>
@@ -2032,7 +2032,7 @@
         <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.99</v>
+        <v>1.17</v>
       </c>
       <c r="G13" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>4.3</v>
@@ -2164,10 +2164,10 @@
         <v>6.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="K13" t="n">
-        <v>3.85</v>
+        <v>980</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.28</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.34</v>
-      </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2311,25 +2311,25 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R14" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S14" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="n">
         <v>2.58</v>
@@ -2341,16 +2341,16 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
         <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
         <v>13</v>
@@ -2362,7 +2362,7 @@
         <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
         <v>17</v>
@@ -2374,25 +2374,25 @@
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK14" t="n">
         <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
         <v>2.42</v>
       </c>
       <c r="I15" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J15" t="n">
         <v>3.7</v>
@@ -2476,52 +2476,52 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
         <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD15" t="n">
         <v>12</v>
       </c>
       <c r="AE15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF15" t="n">
         <v>25</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>24</v>
       </c>
       <c r="AG15" t="n">
         <v>14</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ15" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
         <v>21</v>
@@ -2569,10 +2569,10 @@
         <v>7.2</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2593,16 +2593,16 @@
         <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
         <v>2.42</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U16" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2620,22 +2620,22 @@
         <v>65</v>
       </c>
       <c r="AA16" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD16" t="n">
         <v>27</v>
       </c>
       <c r="AE16" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AF16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>9.800000000000001</v>
@@ -2644,19 +2644,19 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
         <v>5.7</v>
@@ -2701,10 +2701,10 @@
         <v>15.5</v>
       </c>
       <c r="I17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>8.199999999999999</v>
@@ -2719,25 +2719,25 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q17" t="n">
         <v>1.31</v>
       </c>
       <c r="R17" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.22</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2749,34 +2749,34 @@
         <v>55</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Z17" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AA17" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="AB17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD17" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="AE17" t="n">
         <v>230</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
         <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2788,7 +2788,7 @@
         <v>12.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
@@ -2860,7 +2860,7 @@
         <v>3.15</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R18" t="n">
         <v>1.87</v>
@@ -2872,7 +2872,7 @@
         <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,16 +2881,16 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Y18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
@@ -2902,16 +2902,16 @@
         <v>46</v>
       </c>
       <c r="AE18" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG18" t="n">
         <v>11</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2926,7 +2926,7 @@
         <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
         <v>3.55</v>
@@ -2965,19 +2965,19 @@
         <v>5.4</v>
       </c>
       <c r="G19" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="I19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K19" t="n">
         <v>4.9</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2986,28 +2986,28 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O19" t="n">
         <v>1.13</v>
       </c>
       <c r="P19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="S19" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="T19" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="U19" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3025,19 +3025,19 @@
         <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
         <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF19" t="n">
         <v>55</v>
@@ -3046,13 +3046,13 @@
         <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AK19" t="n">
         <v>55</v>
@@ -3061,10 +3061,10 @@
         <v>46</v>
       </c>
       <c r="AM19" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
         <v>5</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.54</v>
       </c>
-      <c r="G20" t="n">
-        <v>1.55</v>
-      </c>
       <c r="H20" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K20" t="n">
         <v>4.9</v>
@@ -3124,25 +3124,25 @@
         <v>5.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
         <v>2.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
         <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T20" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3160,19 +3160,19 @@
         <v>60</v>
       </c>
       <c r="AA20" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AB20" t="n">
         <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD20" t="n">
         <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF20" t="n">
         <v>10.5</v>
@@ -3181,28 +3181,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>75</v>
       </c>
       <c r="AJ20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK20" t="n">
         <v>15</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>15.5</v>
       </c>
       <c r="AL20" t="n">
         <v>30</v>
       </c>
       <c r="AM20" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="H21" t="n">
-        <v>1.33</v>
+        <v>4.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,109 +3367,109 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="G22" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M22" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="P22" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="R22" t="n">
         <v>1.14</v>
       </c>
       <c r="S22" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="T22" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="U22" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="V22" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W22" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="X22" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG22" t="n">
         <v>12</v>
       </c>
-      <c r="AG22" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>450</v>
+      </c>
+      <c r="AN22" t="n">
         <v>1000</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>410</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>36</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>1.95</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
@@ -685,7 +685,7 @@
         <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -700,7 +700,7 @@
         <v>2.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R2" t="n">
         <v>1.49</v>
@@ -709,19 +709,19 @@
         <v>2.74</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
         <v>2.32</v>
       </c>
       <c r="V2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>22</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G3" t="n">
         <v>1.68</v>
       </c>
       <c r="H3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="J3" t="n">
         <v>4.2</v>
@@ -820,7 +820,7 @@
         <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -838,10 +838,10 @@
         <v>1.69</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
         <v>1.76</v>
@@ -850,7 +850,7 @@
         <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
         <v>2.46</v>
@@ -868,7 +868,7 @@
         <v>180</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
         <v>12.5</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G4" t="n">
         <v>1.28</v>
@@ -946,103 +946,103 @@
         <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" t="n">
         <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1084,100 +1084,100 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.01</v>
       </c>
-      <c r="K5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1219,100 +1219,100 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.01</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,118 +1342,118 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>6.4</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>1.31</v>
       </c>
       <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>500</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.01</v>
       </c>
-      <c r="K7" t="n">
-        <v>950</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>2.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FCI Tallinn</t>
+          <t>FC Inter</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Paide Linnameeskond</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>1.39</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>1.45</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>7.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.01</v>
       </c>
-      <c r="K8" t="n">
-        <v>950</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>2.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,123 +1598,123 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Fk Siauliai</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>FK Banga Gargzdu</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.34</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>2.34</v>
       </c>
       <c r="I9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>5.7</v>
+        <v>2.34</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>1.27</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>1.27</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>2.66</v>
+        <v>1.28</v>
       </c>
       <c r="T9" t="n">
-        <v>2.08</v>
+        <v>1.03</v>
       </c>
       <c r="U9" t="n">
-        <v>1.87</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>560</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,123 +1733,123 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="H10" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>7.2</v>
+        <v>2.52</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="X10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.32</v>
+        <v>1.25</v>
       </c>
       <c r="G11" t="n">
-        <v>2.48</v>
+        <v>1.31</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>11.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>14.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>6.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>1.96</v>
+        <v>2.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.89</v>
+        <v>1.41</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4</v>
+        <v>1.71</v>
       </c>
       <c r="G12" t="n">
-        <v>3.45</v>
+        <v>1.97</v>
       </c>
       <c r="H12" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.42</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Hodd</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>1.54</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.74</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="X13" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y13" t="n">
         <v>980</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Aalesunds</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.26</v>
+        <v>1.77</v>
       </c>
       <c r="G14" t="n">
-        <v>2.28</v>
+        <v>1.95</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.45</v>
+        <v>5.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>2.32</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>2.76</v>
+        <v>2.46</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>2.58</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.15</v>
+        <v>1.43</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>1.61</v>
       </c>
       <c r="H15" t="n">
-        <v>2.42</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.44</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>10</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.68</v>
+        <v>1.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.66</v>
+        <v>2.08</v>
       </c>
       <c r="T15" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.51</v>
+        <v>2.62</v>
       </c>
       <c r="G16" t="n">
-        <v>1.52</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>6.6</v>
+        <v>2.2</v>
       </c>
       <c r="I16" t="n">
-        <v>7.2</v>
+        <v>2.92</v>
       </c>
       <c r="J16" t="n">
-        <v>5.1</v>
+        <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="O16" t="n">
         <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.66</v>
+        <v>2.36</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,123 +2678,123 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Panevezys</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="H17" t="n">
-        <v>15.5</v>
+        <v>2.82</v>
       </c>
       <c r="I17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>2.82</v>
       </c>
       <c r="K17" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>1.26</v>
       </c>
       <c r="O17" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>3.95</v>
+        <v>1.26</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="R17" t="n">
-        <v>2.22</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>1.77</v>
+        <v>1.23</v>
       </c>
       <c r="T17" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="X17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>610</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,123 +2813,123 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>HJK Helsinki</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.26</v>
+        <v>1.97</v>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>12.5</v>
+        <v>3.35</v>
       </c>
       <c r="I18" t="n">
-        <v>13.5</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>7.4</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>7.8</v>
+        <v>4.8</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P18" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R18" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="S18" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.91</v>
+        <v>1.31</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.6</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="X18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA18" t="n">
-        <v>510</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AC18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE18" t="n">
         <v>46</v>
       </c>
-      <c r="AE18" t="n">
-        <v>210</v>
-      </c>
       <c r="AF18" t="n">
-        <v>9.6</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10.5</v>
+        <v>36</v>
       </c>
       <c r="AK18" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Estonian Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>FCI Tallinn</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Paide Linnameeskond</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.4</v>
+        <v>1.67</v>
       </c>
       <c r="G19" t="n">
-        <v>5.5</v>
+        <v>2.18</v>
       </c>
       <c r="H19" t="n">
-        <v>1.64</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.65</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>7.8</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>3.3</v>
+        <v>1.84</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.99</v>
+        <v>1.19</v>
       </c>
       <c r="S19" t="n">
-        <v>1.99</v>
+        <v>1.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>2.84</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="X19" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,123 +3083,123 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Odds BK</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.53</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.54</v>
       </c>
-      <c r="H20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S20" t="n">
-        <v>2.64</v>
+        <v>2.08</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Mlada Boleslav</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="G21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H21" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>1.72</v>
+        <v>2.16</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.18</v>
+        <v>1.69</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,125 +3353,1880 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.82</v>
+        <v>1.34</v>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>1.35</v>
       </c>
       <c r="H22" t="n">
-        <v>5.7</v>
+        <v>11.5</v>
       </c>
       <c r="I22" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>5.9</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>1.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.98</v>
+        <v>1.67</v>
       </c>
       <c r="R22" t="n">
-        <v>1.14</v>
+        <v>1.56</v>
       </c>
       <c r="S22" t="n">
-        <v>6.6</v>
+        <v>2.66</v>
       </c>
       <c r="T22" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.53</v>
+        <v>1.86</v>
       </c>
       <c r="V22" t="n">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="W22" t="n">
-        <v>2.1</v>
+        <v>3.85</v>
       </c>
       <c r="X22" t="n">
-        <v>8.199999999999999</v>
+        <v>22</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.5</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA22" t="n">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="AB22" t="n">
-        <v>5.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE22" t="n">
         <v>190</v>
       </c>
       <c r="AF22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>13:45:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Bodo Glimt</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="X23" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Turkish Super League</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Turkish Super League</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Egyptian Premier</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Al-Masry</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Smouha</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>980</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K26" t="n">
+        <v>950</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sporting Lisbon</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Slavia Prague</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>95</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Club Brugge</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>17</v>
+      </c>
+      <c r="J30" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K30" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>210</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>610</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>320</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>510</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF31" t="n">
         <v>9.6</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AG31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N32" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>UEFA Champions League</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Huracan</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Central Cordoba (SdE)</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S35" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG35" t="n">
         <v>12</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AH35" t="n">
         <v>38</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AI35" t="n">
         <v>230</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AJ35" t="n">
         <v>24</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AK35" t="n">
         <v>32</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AL35" t="n">
         <v>80</v>
       </c>
-      <c r="AM22" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO22" t="n">
+      <c r="AM35" t="n">
+        <v>440</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
         <v>3.8</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
         <v>1.92</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="n">
         <v>17</v>
       </c>
-      <c r="AG2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>20</v>
-      </c>
       <c r="AI2" t="n">
         <v>980</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
     </row>
     <row r="3">
@@ -802,76 +802,76 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G3" t="n">
         <v>1.68</v>
       </c>
       <c r="H3" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="I3" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W3" t="n">
         <v>2.46</v>
       </c>
       <c r="X3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
         <v>180</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
         <v>28</v>
@@ -883,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>24</v>
@@ -892,19 +892,19 @@
         <v>85</v>
       </c>
       <c r="AJ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="n">
         <v>19.5</v>
       </c>
-      <c r="AK3" t="n">
-        <v>20</v>
-      </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="G4" t="n">
         <v>1.28</v>
@@ -1003,13 +1003,13 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC4" t="n">
         <v>980</v>
       </c>
       <c r="AD4" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1021,7 +1021,7 @@
         <v>14.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>75</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1093,7 +1093,7 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>1.25</v>
@@ -1219,7 +1219,7 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
@@ -1228,22 +1228,22 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
         <v>1.13</v>
       </c>
       <c r="R6" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
         <v>1.13</v>
@@ -1342,52 +1342,52 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="I7" t="n">
         <v>1.31</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="K7" t="n">
-        <v>500</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L7" t="n">
         <v>1.19</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
         <v>1.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S7" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
         <v>4.1</v>
@@ -1408,7 +1408,7 @@
         <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
         <v>980</v>
@@ -1423,7 +1423,7 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
         <v>980</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G8" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H8" t="n">
         <v>7.4</v>
@@ -1501,85 +1501,85 @@
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>2.78</v>
+        <v>6.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.13</v>
+        <v>1.37</v>
       </c>
       <c r="R8" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="S8" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="V8" t="n">
         <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1615,16 +1615,16 @@
         <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H9" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I9" t="n">
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>2.34</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
         <v>1000</v>
@@ -1633,22 +1633,22 @@
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="O9" t="n">
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q9" t="n">
         <v>1.28</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S9" t="n">
         <v>1.28</v>
@@ -1663,7 +1663,7 @@
         <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G10" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="H10" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I10" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,34 +1771,34 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>2.52</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="Q10" t="n">
         <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V10" t="n">
         <v>1.15</v>
       </c>
       <c r="W10" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="G11" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="H11" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="I11" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="J11" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,40 +1906,40 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
         <v>1.41</v>
       </c>
       <c r="R11" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="S11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T11" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="U11" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="V11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="X11" t="n">
         <v>44</v>
       </c>
       <c r="Y11" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1960,31 +1960,31 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,13 +2020,13 @@
         <v>1.71</v>
       </c>
       <c r="G12" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
         <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.8</v>
@@ -2056,7 +2056,7 @@
         <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="T12" t="n">
         <v>1.54</v>
@@ -2068,7 +2068,7 @@
         <v>1.22</v>
       </c>
       <c r="W12" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="X12" t="n">
         <v>980</v>
@@ -2086,7 +2086,7 @@
         <v>980</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AD12" t="n">
         <v>980</v>
@@ -2191,10 +2191,10 @@
         <v>1.77</v>
       </c>
       <c r="S13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T13" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
         <v>2.3</v>
@@ -2221,7 +2221,7 @@
         <v>17</v>
       </c>
       <c r="AC13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD13" t="n">
         <v>32</v>
@@ -2311,7 +2311,7 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.23</v>
@@ -2323,13 +2323,13 @@
         <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="U14" t="n">
         <v>1.84</v>
@@ -2341,49 +2341,49 @@
         <v>2.04</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="G15" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
         <v>4.8</v>
       </c>
       <c r="K15" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,34 +2446,34 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O15" t="n">
         <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q15" t="n">
         <v>1.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S15" t="n">
         <v>2.08</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="W15" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G16" t="n">
         <v>3.75</v>
       </c>
       <c r="H16" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I16" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
         <v>3.55</v>
       </c>
       <c r="K16" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,7 +2581,7 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.19</v>
@@ -2593,22 +2593,22 @@
         <v>1.59</v>
       </c>
       <c r="R16" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
         <v>2.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V16" t="n">
         <v>1.52</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2704,7 +2704,7 @@
         <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>2.82</v>
+        <v>1.09</v>
       </c>
       <c r="K17" t="n">
         <v>1000</v>
@@ -2713,16 +2713,16 @@
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="O17" t="n">
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="Q17" t="n">
         <v>1.23</v>
@@ -2734,10 +2734,10 @@
         <v>1.23</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V17" t="n">
         <v>1.01</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G18" t="n">
         <v>2.1</v>
@@ -2851,10 +2851,10 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P18" t="n">
         <v>3.1</v>
@@ -2863,76 +2863,76 @@
         <v>1.41</v>
       </c>
       <c r="R18" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="U18" t="n">
-        <v>2.6</v>
+        <v>2.92</v>
       </c>
       <c r="V18" t="n">
         <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y18" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB18" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>17.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -2971,7 +2971,7 @@
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
@@ -2983,13 +2983,13 @@
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
         <v>1.84</v>
@@ -2998,19 +2998,19 @@
         <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="T19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.01</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.1</v>
       </c>
       <c r="W19" t="n">
         <v>1.84</v>
@@ -3133,16 +3133,16 @@
         <v>1.52</v>
       </c>
       <c r="R20" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S20" t="n">
         <v>2.08</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V20" t="n">
         <v>2.92</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="n">
         <v>3.8</v>
@@ -3244,19 +3244,19 @@
         <v>4.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
         <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O21" t="n">
         <v>1.22</v>
@@ -3268,22 +3268,22 @@
         <v>1.69</v>
       </c>
       <c r="R21" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S21" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
         <v>1.3</v>
       </c>
       <c r="W21" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3301,7 +3301,7 @@
         <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3313,7 +3313,7 @@
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G22" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H22" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K22" t="n">
         <v>5.9</v>
       </c>
-      <c r="K22" t="n">
-        <v>6</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -3394,22 +3394,22 @@
         <v>5.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R22" t="n">
         <v>1.56</v>
       </c>
       <c r="S22" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U22" t="n">
         <v>1.86</v>
@@ -3418,13 +3418,13 @@
         <v>1.09</v>
       </c>
       <c r="W22" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="X22" t="n">
         <v>22</v>
       </c>
       <c r="Y22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z22" t="n">
         <v>110</v>
@@ -3436,7 +3436,7 @@
         <v>9.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD22" t="n">
         <v>40</v>
@@ -3472,7 +3472,7 @@
         <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23">
@@ -3511,13 +3511,13 @@
         <v>5.7</v>
       </c>
       <c r="I23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K23" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
         <v>1.23</v>
@@ -3526,28 +3526,28 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R23" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T23" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U23" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="V23" t="n">
         <v>1.2</v>
@@ -3556,31 +3556,31 @@
         <v>2.62</v>
       </c>
       <c r="X23" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y23" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="n">
         <v>60</v>
       </c>
       <c r="AA23" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB23" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC23" t="n">
         <v>12.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
         <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
@@ -3601,10 +3601,10 @@
         <v>22</v>
       </c>
       <c r="AM23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO23" t="n">
         <v>38</v>
@@ -3640,7 +3640,7 @@
         <v>2.34</v>
       </c>
       <c r="G24" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
@@ -3652,19 +3652,19 @@
         <v>3.4</v>
       </c>
       <c r="K24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
         <v>3.7</v>
       </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P24" t="n">
         <v>1.93</v>
@@ -3673,76 +3673,76 @@
         <v>1.9</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -3778,28 +3778,28 @@
         <v>3.45</v>
       </c>
       <c r="H25" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="I25" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
         <v>2.1</v>
@@ -3808,76 +3808,76 @@
         <v>1.79</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="26">
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H26" t="n">
         <v>4.4</v>
@@ -3919,100 +3919,100 @@
         <v>980</v>
       </c>
       <c r="J26" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>950</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P26" t="n">
         <v>1.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G27" t="n">
         <v>2.26</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2.28</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
@@ -4060,46 +4060,46 @@
         <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P27" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="R27" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="S27" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="T27" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U27" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y27" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z27" t="n">
         <v>26</v>
@@ -4108,46 +4108,46 @@
         <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC27" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AJ27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -4180,10 +4180,10 @@
         <v>3.1</v>
       </c>
       <c r="G28" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I28" t="n">
         <v>2.46</v>
@@ -4195,7 +4195,7 @@
         <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M28" t="n">
         <v>1.05</v>
@@ -4210,10 +4210,10 @@
         <v>2.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="R28" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S28" t="n">
         <v>2.66</v>
@@ -4225,58 +4225,58 @@
         <v>2.68</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X28" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
         <v>34</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC28" t="n">
         <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
         <v>14.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ28" t="n">
         <v>48</v>
       </c>
       <c r="AK28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL28" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN28" t="n">
         <v>21</v>
@@ -4312,10 +4312,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H29" t="n">
         <v>6.8</v>
@@ -4324,100 +4324,100 @@
         <v>7.4</v>
       </c>
       <c r="J29" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="K29" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O29" t="n">
         <v>1.19</v>
       </c>
       <c r="P29" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R29" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="S29" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U29" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="X29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y29" t="n">
         <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA29" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AB29" t="n">
         <v>11.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AF29" t="n">
         <v>10.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
         <v>75</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM29" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN29" t="n">
         <v>5.7</v>
       </c>
       <c r="AO29" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G30" t="n">
         <v>1.23</v>
@@ -4456,16 +4456,16 @@
         <v>16.5</v>
       </c>
       <c r="I30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J30" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="K30" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
@@ -4489,28 +4489,28 @@
         <v>1.77</v>
       </c>
       <c r="T30" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U30" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="X30" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y30" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="Z30" t="n">
         <v>210</v>
       </c>
       <c r="AA30" t="n">
-        <v>610</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
         <v>18</v>
@@ -4519,7 +4519,7 @@
         <v>21</v>
       </c>
       <c r="AD30" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="AE30" t="n">
         <v>230</v>
@@ -4543,13 +4543,13 @@
         <v>12.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="G31" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H31" t="n">
         <v>12.5</v>
@@ -4594,13 +4594,13 @@
         <v>13.5</v>
       </c>
       <c r="J31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K31" t="n">
         <v>8</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M31" t="n">
         <v>1.02</v>
@@ -4618,7 +4618,7 @@
         <v>1.42</v>
       </c>
       <c r="R31" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S31" t="n">
         <v>2.06</v>
@@ -4627,37 +4627,37 @@
         <v>1.91</v>
       </c>
       <c r="U31" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="X31" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="n">
         <v>55</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA31" t="n">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="AB31" t="n">
         <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD31" t="n">
         <v>46</v>
       </c>
       <c r="AE31" t="n">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AF31" t="n">
         <v>9.6</v>
@@ -4666,28 +4666,28 @@
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ31" t="n">
         <v>10.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM31" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32">
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G32" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H32" t="n">
         <v>1.62</v>
@@ -4729,100 +4729,100 @@
         <v>1.64</v>
       </c>
       <c r="J32" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M32" t="n">
         <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O32" t="n">
         <v>1.13</v>
       </c>
       <c r="P32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R32" t="n">
         <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="T32" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U32" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X32" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y32" t="n">
         <v>17</v>
       </c>
       <c r="Z32" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD32" t="n">
         <v>10.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF32" t="n">
         <v>55</v>
       </c>
       <c r="AG32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH32" t="n">
         <v>16</v>
       </c>
       <c r="AI32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK32" t="n">
         <v>55</v>
       </c>
       <c r="AL32" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN32" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO32" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G33" t="n">
         <v>1.49</v>
       </c>
       <c r="H33" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I33" t="n">
         <v>8</v>
@@ -4870,19 +4870,19 @@
         <v>5.2</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O33" t="n">
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q33" t="n">
         <v>1.64</v>
@@ -4891,49 +4891,49 @@
         <v>1.58</v>
       </c>
       <c r="S33" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T33" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U33" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y33" t="n">
         <v>29</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AA33" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AB33" t="n">
         <v>10.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD33" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE33" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AF33" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG33" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="AH33" t="n">
         <v>22</v>
@@ -4942,22 +4942,22 @@
         <v>85</v>
       </c>
       <c r="AJ33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL33" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN33" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AO33" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J34" t="n">
         <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5122,40 +5122,40 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="G35" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="H35" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="I35" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L35" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="M35" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N35" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="O35" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P35" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="R35" t="n">
         <v>1.14</v>
@@ -5164,7 +5164,7 @@
         <v>6.8</v>
       </c>
       <c r="T35" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U35" t="n">
         <v>1.57</v>
@@ -5173,31 +5173,31 @@
         <v>1.19</v>
       </c>
       <c r="W35" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X35" t="n">
         <v>7.8</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z35" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA35" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="AB35" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF35" t="n">
         <v>9.6</v>
@@ -5206,10 +5206,10 @@
         <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI35" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AJ35" t="n">
         <v>24</v>
@@ -5218,10 +5218,10 @@
         <v>32</v>
       </c>
       <c r="AL35" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AM35" t="n">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="AN35" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -676,10 +676,10 @@
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
         <v>4.1</v>
@@ -706,7 +706,7 @@
         <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T2" t="n">
         <v>1.68</v>
@@ -718,10 +718,10 @@
         <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>980</v>
@@ -730,7 +730,7 @@
         <v>980</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
@@ -760,13 +760,13 @@
         <v>980</v>
       </c>
       <c r="AK2" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>980</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
         <v>12.5</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G3" t="n">
         <v>1.68</v>
@@ -820,7 +820,7 @@
         <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -832,7 +832,7 @@
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
         <v>1.75</v>
@@ -841,13 +841,13 @@
         <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T3" t="n">
         <v>1.8</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
         <v>1.18</v>
@@ -856,55 +856,55 @@
         <v>2.46</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y3" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
         <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AL3" t="n">
         <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="G4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H4" t="n">
         <v>17</v>
@@ -949,43 +949,43 @@
         <v>26</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="K4" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q4" t="n">
         <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S4" t="n">
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="U4" t="n">
         <v>1.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W4" t="n">
         <v>4.5</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="AC4" t="n">
         <v>980</v>
@@ -1015,10 +1015,10 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>980</v>
+        <v>6.4</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
         <v>980</v>
@@ -1027,19 +1027,19 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AK4" t="n">
         <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="H7" t="n">
         <v>1.23</v>
@@ -1354,10 +1354,10 @@
         <v>1.31</v>
       </c>
       <c r="J7" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="K7" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="L7" t="n">
         <v>1.19</v>
@@ -1372,13 +1372,13 @@
         <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="Q7" t="n">
         <v>1.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="S7" t="n">
         <v>1.92</v>
@@ -1390,7 +1390,7 @@
         <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="W7" t="n">
         <v>1.06</v>
@@ -1489,7 +1489,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
         <v>6.4</v>
@@ -1513,10 +1513,10 @@
         <v>1.37</v>
       </c>
       <c r="R8" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T8" t="n">
         <v>1.71</v>
@@ -1531,10 +1531,10 @@
         <v>3.25</v>
       </c>
       <c r="X8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1546,10 +1546,10 @@
         <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
         <v>120</v>
@@ -1558,28 +1558,28 @@
         <v>12</v>
       </c>
       <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>16</v>
-      </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="G9" t="n">
         <v>1.74</v>
@@ -1648,7 +1648,7 @@
         <v>1.28</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
         <v>1.28</v>
@@ -1750,19 +1750,19 @@
         <v>1.54</v>
       </c>
       <c r="G10" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>5.6</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1774,19 +1774,19 @@
         <v>1.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="R10" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T10" t="n">
         <v>1.03</v>
@@ -1798,7 +1798,7 @@
         <v>1.15</v>
       </c>
       <c r="W10" t="n">
-        <v>2.56</v>
+        <v>1.82</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="I11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
         <v>7</v>
       </c>
       <c r="K11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,40 +1906,40 @@
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="R11" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="S11" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T11" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
         <v>1.06</v>
       </c>
       <c r="W11" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="X11" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,22 +1948,22 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>980</v>
@@ -1972,10 +1972,10 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL11" t="n">
         <v>980</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="H12" t="n">
         <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
         <v>5.2</v>
@@ -2041,22 +2041,22 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
         <v>2.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T12" t="n">
         <v>1.54</v>
@@ -2065,10 +2065,10 @@
         <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W12" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="X12" t="n">
         <v>980</v>
@@ -2080,7 +2080,7 @@
         <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
         <v>980</v>
@@ -2092,37 +2092,37 @@
         <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="n">
         <v>980</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH12" t="n">
         <v>980</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
         <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="G13" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="H13" t="n">
         <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2188,10 +2188,10 @@
         <v>1.42</v>
       </c>
       <c r="R13" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="T13" t="n">
         <v>1.62</v>
@@ -2203,61 +2203,61 @@
         <v>1.13</v>
       </c>
       <c r="W13" t="n">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="X13" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>980</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2323,67 +2323,67 @@
         <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S14" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T14" t="n">
-        <v>1.51</v>
+        <v>1.03</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="V14" t="n">
         <v>1.22</v>
       </c>
       <c r="W14" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G15" t="n">
         <v>1.59</v>
       </c>
       <c r="H15" t="n">
-        <v>5.4</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K15" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,22 +2446,22 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O15" t="n">
         <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q15" t="n">
         <v>1.16</v>
       </c>
       <c r="R15" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
         <v>1.03</v>
@@ -2470,7 +2470,7 @@
         <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="W15" t="n">
         <v>2.66</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2593,7 +2593,7 @@
         <v>1.59</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
         <v>2.2</v>
@@ -2605,10 +2605,10 @@
         <v>1.03</v>
       </c>
       <c r="V16" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="W16" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2863,10 +2863,10 @@
         <v>1.41</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T18" t="n">
         <v>1.45</v>
@@ -2902,7 +2902,7 @@
         <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
         <v>1000</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -2971,28 +2971,28 @@
         <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J19" t="n">
         <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>1.1</v>
+        <v>1.86</v>
       </c>
       <c r="O19" t="n">
         <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q19" t="n">
         <v>1.7</v>
@@ -3010,7 +3010,7 @@
         <v>1.03</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="W19" t="n">
         <v>1.84</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="G20" t="n">
-        <v>9.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="H20" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="I20" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="J20" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>5.9</v>
+        <v>10.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3121,22 +3121,22 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>2.54</v>
+        <v>1.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R20" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
         <v>1.03</v>
@@ -3145,7 +3145,7 @@
         <v>1.03</v>
       </c>
       <c r="V20" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="W20" t="n">
         <v>1.11</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3262,28 +3262,28 @@
         <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>2.16</v>
+        <v>1.39</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="R21" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S21" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="T21" t="n">
-        <v>1.48</v>
+        <v>1.03</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="V21" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3301,7 +3301,7 @@
         <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
         <v>1000</v>
@@ -3313,7 +3313,7 @@
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
         <v>1000</v>
@@ -3373,13 +3373,13 @@
         <v>1.36</v>
       </c>
       <c r="H22" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K22" t="n">
         <v>5.9</v>
@@ -3388,7 +3388,7 @@
         <v>1.31</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
         <v>5.1</v>
@@ -3403,25 +3403,25 @@
         <v>1.68</v>
       </c>
       <c r="R22" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S22" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="T22" t="n">
         <v>2.08</v>
       </c>
       <c r="U22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V22" t="n">
         <v>1.09</v>
       </c>
       <c r="W22" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
         <v>36</v>
@@ -3433,7 +3433,7 @@
         <v>450</v>
       </c>
       <c r="AB22" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC22" t="n">
         <v>12.5</v>
@@ -3466,10 +3466,10 @@
         <v>36</v>
       </c>
       <c r="AM22" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO22" t="n">
         <v>210</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.6</v>
       </c>
-      <c r="G23" t="n">
-        <v>1.61</v>
-      </c>
       <c r="H23" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J23" t="n">
         <v>4.8</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L23" t="n">
         <v>1.23</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
         <v>7.8</v>
@@ -3547,13 +3547,13 @@
         <v>1.52</v>
       </c>
       <c r="U23" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="V23" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W23" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X23" t="n">
         <v>36</v>
@@ -3565,13 +3565,13 @@
         <v>60</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB23" t="n">
         <v>16.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
         <v>22</v>
@@ -3580,13 +3580,13 @@
         <v>60</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
         <v>48</v>
@@ -3646,13 +3646,13 @@
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J24" t="n">
         <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L24" t="n">
         <v>1.41</v>
@@ -3661,13 +3661,13 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O24" t="n">
         <v>1.32</v>
       </c>
       <c r="P24" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q24" t="n">
         <v>1.9</v>
@@ -3682,13 +3682,13 @@
         <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V24" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W24" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X24" t="n">
         <v>17.5</v>
@@ -3709,16 +3709,16 @@
         <v>9.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
         <v>19.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
@@ -3733,7 +3733,7 @@
         <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
         <v>110</v>
@@ -3784,10 +3784,10 @@
         <v>2.38</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
         <v>1.35</v>
@@ -3796,7 +3796,7 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O25" t="n">
         <v>1.26</v>
@@ -3832,16 +3832,16 @@
         <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AB25" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
         <v>12</v>
@@ -3877,7 +3877,7 @@
         <v>980</v>
       </c>
       <c r="AO25" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
     </row>
     <row r="26">
@@ -3910,19 +3910,19 @@
         <v>2.04</v>
       </c>
       <c r="G26" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I26" t="n">
-        <v>980</v>
+        <v>5.5</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>950</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3943,7 +3943,7 @@
         <v>1.51</v>
       </c>
       <c r="R26" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S26" t="n">
         <v>4.1</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G28" t="n">
         <v>3.1</v>
       </c>
-      <c r="G28" t="n">
-        <v>3.2</v>
-      </c>
       <c r="H28" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I28" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J28" t="n">
         <v>3.7</v>
@@ -4207,10 +4207,10 @@
         <v>1.22</v>
       </c>
       <c r="P28" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R28" t="n">
         <v>1.56</v>
@@ -4225,16 +4225,16 @@
         <v>2.68</v>
       </c>
       <c r="V28" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W28" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X28" t="n">
         <v>19.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z28" t="n">
         <v>18</v>
@@ -4246,13 +4246,13 @@
         <v>16.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
         <v>24</v>
@@ -4279,7 +4279,7 @@
         <v>60</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
@@ -4318,10 +4318,10 @@
         <v>1.51</v>
       </c>
       <c r="H29" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J29" t="n">
         <v>5.1</v>
@@ -4342,7 +4342,7 @@
         <v>1.19</v>
       </c>
       <c r="P29" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="Q29" t="n">
         <v>1.59</v>
@@ -4354,7 +4354,7 @@
         <v>2.5</v>
       </c>
       <c r="T29" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U29" t="n">
         <v>2.24</v>
@@ -4366,10 +4366,10 @@
         <v>2.96</v>
       </c>
       <c r="X29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z29" t="n">
         <v>65</v>
@@ -4381,7 +4381,7 @@
         <v>11.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
         <v>26</v>
@@ -4414,7 +4414,7 @@
         <v>90</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO29" t="n">
         <v>80</v>
@@ -4447,25 +4447,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G30" t="n">
         <v>1.23</v>
       </c>
       <c r="H30" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="I30" t="n">
         <v>18</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
@@ -4480,7 +4480,7 @@
         <v>4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R30" t="n">
         <v>2.22</v>
@@ -4495,7 +4495,7 @@
         <v>2.2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W30" t="n">
         <v>5.4</v>
@@ -4504,10 +4504,10 @@
         <v>60</v>
       </c>
       <c r="Y30" t="n">
-        <v>990</v>
+        <v>95</v>
       </c>
       <c r="Z30" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
@@ -4519,10 +4519,10 @@
         <v>21</v>
       </c>
       <c r="AD30" t="n">
-        <v>400</v>
+        <v>65</v>
       </c>
       <c r="AE30" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
@@ -4543,7 +4543,7 @@
         <v>12.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
@@ -4606,10 +4606,10 @@
         <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P31" t="n">
         <v>3.3</v>
@@ -4618,13 +4618,13 @@
         <v>1.42</v>
       </c>
       <c r="R31" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="S31" t="n">
         <v>2.06</v>
       </c>
       <c r="T31" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="U31" t="n">
         <v>2.04</v>
@@ -4636,7 +4636,7 @@
         <v>4.7</v>
       </c>
       <c r="X31" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Y31" t="n">
         <v>55</v>
@@ -4648,16 +4648,16 @@
         <v>550</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC31" t="n">
         <v>17</v>
       </c>
       <c r="AD31" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AE31" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF31" t="n">
         <v>9.6</v>
@@ -4669,7 +4669,7 @@
         <v>30</v>
       </c>
       <c r="AI31" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ31" t="n">
         <v>10.5</v>
@@ -4678,10 +4678,10 @@
         <v>12</v>
       </c>
       <c r="AL31" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN31" t="n">
         <v>3.5</v>
@@ -4726,13 +4726,13 @@
         <v>1.62</v>
       </c>
       <c r="I32" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="J32" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K32" t="n">
         <v>5</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5.1</v>
       </c>
       <c r="L32" t="n">
         <v>1.22</v>
@@ -4747,25 +4747,25 @@
         <v>1.13</v>
       </c>
       <c r="P32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q32" t="n">
         <v>1.41</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S32" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="T32" t="n">
         <v>1.51</v>
       </c>
       <c r="U32" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="V32" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W32" t="n">
         <v>1.22</v>
@@ -4816,7 +4816,7 @@
         <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN32" t="n">
         <v>30</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G33" t="n">
         <v>1.49</v>
       </c>
       <c r="H33" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I33" t="n">
         <v>8</v>
@@ -4882,10 +4882,10 @@
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R33" t="n">
         <v>1.58</v>
@@ -4903,13 +4903,13 @@
         <v>1.14</v>
       </c>
       <c r="W33" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X33" t="n">
         <v>23</v>
       </c>
       <c r="Y33" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z33" t="n">
         <v>70</v>
@@ -4927,10 +4927,10 @@
         <v>27</v>
       </c>
       <c r="AE33" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG33" t="n">
         <v>9.6</v>
@@ -4957,7 +4957,7 @@
         <v>6</v>
       </c>
       <c r="AO33" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="G34" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>4.4</v>
       </c>
       <c r="I34" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
         <v>3.4</v>
@@ -5005,16 +5005,16 @@
         <v>3.75</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P34" t="n">
         <v>1.73</v>
@@ -5023,76 +5023,76 @@
         <v>2.18</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5137,10 +5137,10 @@
         <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L35" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
         <v>1.14</v>
@@ -5152,7 +5152,7 @@
         <v>1.66</v>
       </c>
       <c r="P35" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q35" t="n">
         <v>2.96</v>
@@ -5176,31 +5176,31 @@
         <v>2.02</v>
       </c>
       <c r="X35" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y35" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AA35" t="n">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="AB35" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE35" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AF35" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
@@ -5209,25 +5209,25 @@
         <v>36</v>
       </c>
       <c r="AI35" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AJ35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK35" t="n">
         <v>32</v>
       </c>
       <c r="AL35" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AM35" t="n">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="AN35" t="n">
         <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -697,22 +697,22 @@
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R2" t="n">
         <v>1.47</v>
       </c>
       <c r="S2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
         <v>1.33</v>
@@ -727,10 +727,10 @@
         <v>980</v>
       </c>
       <c r="Z2" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
@@ -742,10 +742,10 @@
         <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -754,25 +754,25 @@
         <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
         <v>12.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="G3" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
         <v>5.8</v>
@@ -817,10 +817,10 @@
         <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -832,28 +832,28 @@
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R3" t="n">
         <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
         <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="X3" t="n">
         <v>980</v>
@@ -862,7 +862,7 @@
         <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AA3" t="n">
         <v>190</v>
@@ -883,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
         <v>980</v>
@@ -898,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
@@ -946,13 +946,13 @@
         <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
         <v>5.7</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.4</v>
@@ -967,22 +967,22 @@
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="R4" t="n">
         <v>1.33</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="U4" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="V4" t="n">
         <v>1.04</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.4</v>
+        <v>960</v>
       </c>
       <c r="AG4" t="n">
         <v>980</v>
@@ -1027,10 +1027,10 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>80</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7.6</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>1.31</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>14</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>1.1</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P7" t="n">
         <v>2.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.79</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.92</v>
+        <v>1.12</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1402,10 +1402,10 @@
         <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
         <v>980</v>
@@ -1417,7 +1417,7 @@
         <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
@@ -1429,7 +1429,7 @@
         <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1480,19 +1480,19 @@
         <v>1.38</v>
       </c>
       <c r="G8" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H8" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
         <v>5.5</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1507,28 +1507,28 @@
         <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="R8" t="n">
         <v>1.78</v>
       </c>
       <c r="S8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
         <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,58 +1612,58 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="G9" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="H9" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>1.29</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>1.28</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>1.28</v>
+        <v>2.74</v>
       </c>
       <c r="T9" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="I10" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,22 +1771,22 @@
         <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P10" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="R10" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T10" t="n">
         <v>1.03</v>
@@ -1798,7 +1798,7 @@
         <v>1.15</v>
       </c>
       <c r="W10" t="n">
-        <v>1.82</v>
+        <v>2.6</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1873,73 +1873,73 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Skeid</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28</v>
+        <v>1.61</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>17</v>
+        <v>870</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>1.09</v>
       </c>
       <c r="K11" t="n">
-        <v>8.4</v>
+        <v>950</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>3.05</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>1.98</v>
+        <v>1.56</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,43 +1948,43 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G12" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
         <v>5.5</v>
@@ -2032,7 +2032,7 @@
         <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2044,10 +2044,10 @@
         <v>4.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
         <v>1.52</v>
@@ -2056,19 +2056,19 @@
         <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W12" t="n">
         <v>2.08</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.16</v>
       </c>
       <c r="X12" t="n">
         <v>980</v>
@@ -2077,7 +2077,7 @@
         <v>980</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
@@ -2092,10 +2092,10 @@
         <v>980</v>
       </c>
       <c r="AE12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
         <v>980</v>
@@ -2110,7 +2110,7 @@
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="G13" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="H13" t="n">
         <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="K13" t="n">
-        <v>10.5</v>
+        <v>6.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,34 +2176,34 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
         <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="S13" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="T13" t="n">
         <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="V13" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AD13" t="n">
         <v>980</v>
@@ -2230,22 +2230,22 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.67</v>
+        <v>1.09</v>
       </c>
       <c r="G14" t="n">
-        <v>1.99</v>
+        <v>600</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2323,10 +2323,10 @@
         <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>2.46</v>
+        <v>1.72</v>
       </c>
       <c r="T14" t="n">
         <v>1.03</v>
@@ -2338,7 +2338,7 @@
         <v>1.22</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2413,73 +2413,73 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="G15" t="n">
-        <v>1.59</v>
+        <v>1.29</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="K15" t="n">
-        <v>980</v>
+        <v>8.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>2.54</v>
+        <v>6.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>2.54</v>
+        <v>2.82</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.16</v>
+        <v>1.34</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="T15" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="V15" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="W15" t="n">
-        <v>2.66</v>
+        <v>4.4</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,43 +2488,43 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.7</v>
+        <v>2.24</v>
       </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>600</v>
       </c>
       <c r="H16" t="n">
-        <v>2.28</v>
+        <v>1.91</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>870</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>1.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2587,16 +2587,16 @@
         <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="Q16" t="n">
         <v>1.59</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="T16" t="n">
         <v>1.03</v>
@@ -2605,10 +2605,10 @@
         <v>1.03</v>
       </c>
       <c r="V16" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W16" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2698,7 +2698,7 @@
         <v>1.55</v>
       </c>
       <c r="H17" t="n">
-        <v>2.82</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
         <v>1000</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HJK Helsinki</t>
+          <t>FK Kauno Zalgiris</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>VMFD Zalgiris</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>2.1</v>
+        <v>980</v>
       </c>
       <c r="H18" t="n">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>7.2</v>
+        <v>1.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>3.1</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="R18" t="n">
-        <v>1.86</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>2.02</v>
+        <v>1.24</v>
       </c>
       <c r="T18" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>2.92</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
         <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FCI Tallinn</t>
+          <t>HJK Helsinki</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Paide Linnameeskond</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.67</v>
+        <v>1.97</v>
       </c>
       <c r="G19" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I19" t="n">
-        <v>10.5</v>
+        <v>3.65</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>1.86</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>1.86</v>
+        <v>3.05</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.84</v>
       </c>
       <c r="S19" t="n">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="T19" t="n">
-        <v>1.03</v>
+        <v>1.46</v>
       </c>
       <c r="U19" t="n">
-        <v>1.03</v>
+        <v>2.92</v>
       </c>
       <c r="V19" t="n">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
         <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.8</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>24</v>
+        <v>600</v>
       </c>
       <c r="H20" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="I20" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="n">
-        <v>4.4</v>
+        <v>1.09</v>
       </c>
       <c r="K20" t="n">
-        <v>10.5</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3127,16 +3127,16 @@
         <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
-        <v>2.16</v>
+        <v>1.55</v>
       </c>
       <c r="T20" t="n">
         <v>1.03</v>
@@ -3145,7 +3145,7 @@
         <v>1.03</v>
       </c>
       <c r="V20" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
         <v>1.11</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Estonian Premier League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>FCI Tallinn</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mlada Boleslav</t>
+          <t>Paide Linnameeskond</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>2.9</v>
+        <v>1.03</v>
       </c>
       <c r="K21" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,22 +3256,22 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="R21" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>2.46</v>
+        <v>1.28</v>
       </c>
       <c r="T21" t="n">
         <v>1.03</v>
@@ -3280,10 +3280,10 @@
         <v>1.03</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,126 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Mlada Boleslav</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.35</v>
+        <v>1.93</v>
       </c>
       <c r="G22" t="n">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>11.5</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
+        <v>4.8</v>
       </c>
       <c r="J22" t="n">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
       </c>
       <c r="P22" t="n">
-        <v>2.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.68</v>
+        <v>1.22</v>
       </c>
       <c r="R22" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="S22" t="n">
-        <v>2.7</v>
+        <v>1.05</v>
       </c>
       <c r="T22" t="n">
-        <v>2.08</v>
+        <v>1.03</v>
       </c>
       <c r="U22" t="n">
-        <v>1.87</v>
+        <v>1.03</v>
       </c>
       <c r="V22" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="W22" t="n">
-        <v>3.85</v>
+        <v>1.9</v>
       </c>
       <c r="X22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="H23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K23" t="n">
         <v>5.9</v>
       </c>
-      <c r="I23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.41</v>
+        <v>1.69</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>1.56</v>
       </c>
       <c r="S23" t="n">
-        <v>2.02</v>
+        <v>2.68</v>
       </c>
       <c r="T23" t="n">
-        <v>1.52</v>
+        <v>2.08</v>
       </c>
       <c r="U23" t="n">
-        <v>2.82</v>
+        <v>1.86</v>
       </c>
       <c r="V23" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="W23" t="n">
-        <v>2.66</v>
+        <v>3.7</v>
       </c>
       <c r="X23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y23" t="n">
         <v>36</v>
       </c>
-      <c r="Y23" t="n">
-        <v>38</v>
-      </c>
       <c r="Z23" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AA23" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="AB23" t="n">
-        <v>16.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AE23" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AF23" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="n">
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AM23" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO23" t="n">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.34</v>
+        <v>1.58</v>
       </c>
       <c r="G24" t="n">
-        <v>2.54</v>
+        <v>1.59</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="I24" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="K24" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1.41</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.92</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>2.02</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.51</v>
       </c>
       <c r="U24" t="n">
-        <v>2.18</v>
+        <v>2.82</v>
       </c>
       <c r="V24" t="n">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="W24" t="n">
-        <v>1.65</v>
+        <v>2.68</v>
       </c>
       <c r="X24" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>42</v>
-      </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AN24" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="AO24" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
@@ -3781,7 +3781,7 @@
         <v>2.28</v>
       </c>
       <c r="I25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J25" t="n">
         <v>3.45</v>
@@ -3820,7 +3820,7 @@
         <v>2.34</v>
       </c>
       <c r="V25" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W25" t="n">
         <v>1.4</v>
@@ -3832,7 +3832,7 @@
         <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="AA25" t="n">
         <v>32</v>
@@ -3847,10 +3847,10 @@
         <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG25" t="n">
         <v>14.5</v>
@@ -3859,31 +3859,31 @@
         <v>15.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
         <v>55</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM25" t="n">
         <v>70</v>
       </c>
       <c r="AN25" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>980</v>
+        <v>960</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24</v>
+        <v>2.54</v>
       </c>
       <c r="H26" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>5.5</v>
+        <v>3.45</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="O26" t="n">
-        <v>1.08</v>
+        <v>1.32</v>
       </c>
       <c r="P26" t="n">
-        <v>1.25</v>
+        <v>1.94</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.51</v>
+        <v>1.9</v>
       </c>
       <c r="R26" t="n">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="S26" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="U26" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="V26" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="W26" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,126 +4028,126 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="G27" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>1.09</v>
       </c>
       <c r="I27" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>2.96</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="P27" t="n">
-        <v>2.46</v>
+        <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="R27" t="n">
-        <v>1.58</v>
+        <v>1.16</v>
       </c>
       <c r="S27" t="n">
-        <v>2.62</v>
+        <v>1.51</v>
       </c>
       <c r="T27" t="n">
-        <v>1.57</v>
+        <v>1.03</v>
       </c>
       <c r="U27" t="n">
-        <v>2.64</v>
+        <v>1.03</v>
       </c>
       <c r="V27" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="W27" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X27" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.05</v>
+        <v>2.34</v>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="H28" t="n">
-        <v>2.46</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.48</v>
+        <v>3.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P28" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="R28" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S28" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T28" t="n">
         <v>1.57</v>
       </c>
       <c r="U28" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="V28" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="W28" t="n">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="X28" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AA28" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AB28" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AF28" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
         <v>14.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AJ28" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AK28" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AM28" t="n">
         <v>60</v>
       </c>
       <c r="AN28" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.5</v>
+        <v>3.05</v>
       </c>
       <c r="G29" t="n">
-        <v>1.51</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>2.48</v>
       </c>
       <c r="I29" t="n">
-        <v>7.2</v>
+        <v>2.5</v>
       </c>
       <c r="J29" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="K29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
         <v>5.2</v>
       </c>
-      <c r="L29" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
-        <v>5.7</v>
-      </c>
       <c r="O29" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="R29" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="S29" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="T29" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="U29" t="n">
-        <v>2.24</v>
+        <v>2.68</v>
       </c>
       <c r="V29" t="n">
-        <v>1.16</v>
+        <v>1.66</v>
       </c>
       <c r="W29" t="n">
-        <v>2.96</v>
+        <v>1.48</v>
       </c>
       <c r="X29" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="Y29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI29" t="n">
         <v>30</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AJ29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM29" t="n">
         <v>65</v>
       </c>
-      <c r="AA29" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>90</v>
-      </c>
       <c r="AN29" t="n">
-        <v>5.8</v>
+        <v>20</v>
       </c>
       <c r="AO29" t="n">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="G30" t="n">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="H30" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I30" t="n">
-        <v>18</v>
+        <v>7.4</v>
       </c>
       <c r="J30" t="n">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
       <c r="K30" t="n">
-        <v>8.4</v>
+        <v>5.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="X30" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF30" t="n">
         <v>10</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W30" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X30" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>230</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC30" t="n">
+      <c r="AG30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH30" t="n">
         <v>21</v>
       </c>
-      <c r="AD30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>30</v>
-      </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="AK30" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.78</v>
+        <v>5.8</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="G31" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="H31" t="n">
+        <v>17</v>
+      </c>
+      <c r="I31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W31" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG31" t="n">
         <v>12.5</v>
       </c>
-      <c r="I31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K31" t="n">
-        <v>8</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N31" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W31" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X31" t="n">
-        <v>36</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>550</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>11</v>
-      </c>
       <c r="AH31" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.5</v>
+        <v>2.84</v>
       </c>
       <c r="AO31" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.3</v>
+        <v>1.26</v>
       </c>
       <c r="G32" t="n">
-        <v>5.5</v>
+        <v>1.27</v>
       </c>
       <c r="H32" t="n">
-        <v>1.62</v>
+        <v>12</v>
       </c>
       <c r="I32" t="n">
-        <v>1.63</v>
+        <v>13.5</v>
       </c>
       <c r="J32" t="n">
-        <v>4.9</v>
+        <v>7.6</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>7.8</v>
       </c>
       <c r="L32" t="n">
         <v>1.22</v>
@@ -4741,7 +4741,7 @@
         <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O32" t="n">
         <v>1.13</v>
@@ -4750,79 +4750,79 @@
         <v>3.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R32" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="S32" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="T32" t="n">
-        <v>1.51</v>
+        <v>1.88</v>
       </c>
       <c r="U32" t="n">
-        <v>2.84</v>
+        <v>2.04</v>
       </c>
       <c r="V32" t="n">
-        <v>2.58</v>
+        <v>1.08</v>
       </c>
       <c r="W32" t="n">
-        <v>1.22</v>
+        <v>4.7</v>
       </c>
       <c r="X32" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Y32" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>140</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>550</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC32" t="n">
         <v>17</v>
       </c>
-      <c r="Z32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AD32" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ32" t="n">
+      <c r="AK32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM32" t="n">
         <v>120</v>
       </c>
-      <c r="AK32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>50</v>
-      </c>
       <c r="AN32" t="n">
-        <v>30</v>
+        <v>3.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.47</v>
+        <v>5.3</v>
       </c>
       <c r="G33" t="n">
-        <v>1.49</v>
+        <v>5.5</v>
       </c>
       <c r="H33" t="n">
-        <v>7.4</v>
+        <v>1.62</v>
       </c>
       <c r="I33" t="n">
-        <v>8</v>
+        <v>1.64</v>
       </c>
       <c r="J33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K33" t="n">
         <v>5</v>
       </c>
-      <c r="K33" t="n">
-        <v>5.2</v>
-      </c>
       <c r="L33" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="P33" t="n">
-        <v>2.48</v>
+        <v>3.3</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="R33" t="n">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>2.62</v>
+        <v>1.99</v>
       </c>
       <c r="T33" t="n">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="U33" t="n">
-        <v>2.14</v>
+        <v>2.84</v>
       </c>
       <c r="V33" t="n">
-        <v>1.14</v>
+        <v>2.56</v>
       </c>
       <c r="W33" t="n">
-        <v>3.05</v>
+        <v>1.22</v>
       </c>
       <c r="X33" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="Y33" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN33" t="n">
         <v>30</v>
       </c>
-      <c r="Z33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>240</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>6</v>
-      </c>
       <c r="AO33" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1.49</v>
       </c>
       <c r="H34" t="n">
-        <v>4.4</v>
+        <v>7.4</v>
       </c>
       <c r="I34" t="n">
+        <v>8</v>
+      </c>
+      <c r="J34" t="n">
         <v>5</v>
       </c>
-      <c r="J34" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K34" t="n">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>3.1</v>
+        <v>5.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>1.73</v>
+        <v>2.48</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.18</v>
+        <v>1.63</v>
       </c>
       <c r="R34" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="S34" t="n">
-        <v>4.1</v>
+        <v>2.58</v>
       </c>
       <c r="T34" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="U34" t="n">
-        <v>1.9</v>
+        <v>2.14</v>
       </c>
       <c r="V34" t="n">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="W34" t="n">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="X34" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Y34" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Z34" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AA34" t="n">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="AB34" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AE34" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AF34" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AG34" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AH34" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI34" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ34" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AK34" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AL34" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AM34" t="n">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,126 +5108,531 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="G35" t="n">
         <v>1.98</v>
       </c>
       <c r="H35" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="I35" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="J35" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N35" t="n">
         <v>3.1</v>
       </c>
-      <c r="K35" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.32</v>
-      </c>
       <c r="O35" t="n">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="P35" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.96</v>
+        <v>2.16</v>
       </c>
       <c r="R35" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="T35" t="n">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="U35" t="n">
-        <v>1.57</v>
+        <v>1.9</v>
       </c>
       <c r="V35" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
         <v>2.02</v>
       </c>
       <c r="X35" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Huracan</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Central Cordoba (SdE)</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S36" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X36" t="n">
         <v>7.6</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Y36" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z35" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD35" t="n">
+      <c r="Z36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>340</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X37" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X38" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z38" t="n">
         <v>27</v>
       </c>
-      <c r="AE35" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF35" t="n">
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC38" t="n">
         <v>9.4</v>
       </c>
-      <c r="AG35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ35" t="n">
+      <c r="AD38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH38" t="n">
         <v>23</v>
       </c>
-      <c r="AK35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>360</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>290</v>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AO40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,10 +673,10 @@
         <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -691,40 +691,40 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V2" t="n">
         <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
         <v>30</v>
@@ -736,7 +736,7 @@
         <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>980</v>
@@ -745,7 +745,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="n">
-        <v>960</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -805,16 +805,16 @@
         <v>1.61</v>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="H3" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
         <v>4.6</v>
@@ -826,58 +826,58 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O3" t="n">
         <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
         <v>1.74</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
         <v>1.18</v>
       </c>
       <c r="W3" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA3" t="n">
         <v>190</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
@@ -886,25 +886,25 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ3" t="n">
         <v>16.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="G4" t="n">
         <v>1.27</v>
       </c>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="L4" t="n">
         <v>1.4</v>
@@ -961,34 +961,34 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
         <v>1.92</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="U4" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="V4" t="n">
         <v>1.04</v>
       </c>
       <c r="W4" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="X4" t="n">
         <v>980</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>980</v>
+        <v>6.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
         <v>980</v>
@@ -1015,10 +1015,10 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>960</v>
+        <v>6.2</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AH4" t="n">
         <v>980</v>
@@ -1030,10 +1030,10 @@
         <v>960</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1105,13 +1105,13 @@
         <v>1.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>1.01</v>
       </c>
       <c r="R5" t="n">
         <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>2.6</v>
+        <v>1.51</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,72 +1193,72 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:40:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Harju JK Laagri</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Tammeka Tartu</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>3.55</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.13</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.13</v>
+        <v>1.98</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1333,12 +1333,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Harju JK Laagri</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nomme Kalju</t>
+          <t>Tammeka Tartu</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1363,31 +1363,31 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>2.78</v>
+        <v>1.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P7" t="n">
-        <v>2.78</v>
+        <v>1.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="T7" t="n">
         <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
@@ -1396,10 +1396,10 @@
         <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,13 +1408,13 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1423,10 +1423,10 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Estonian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Inter</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gnistan</t>
+          <t>Nomme Kalju</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.38</v>
+        <v>1.09</v>
       </c>
       <c r="G8" t="n">
-        <v>1.43</v>
+        <v>18.5</v>
       </c>
       <c r="H8" t="n">
-        <v>7.8</v>
+        <v>1.23</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="J8" t="n">
-        <v>5.5</v>
+        <v>1.03</v>
       </c>
       <c r="K8" t="n">
-        <v>6.2</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>6.6</v>
+        <v>2.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>2.94</v>
+        <v>2.78</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
         <v>1.78</v>
       </c>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="T8" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>1.12</v>
+        <v>3.95</v>
       </c>
       <c r="W8" t="n">
-        <v>3.3</v>
+        <v>1.05</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,75 +1598,75 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Fk Siauliai</t>
+          <t>FC Inter</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FK Banga Gargzdu</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.73</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>950</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S9" t="n">
-        <v>2.74</v>
+        <v>2.16</v>
       </c>
       <c r="T9" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="W9" t="n">
-        <v>2.02</v>
+        <v>3.25</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1675,46 +1675,46 @@
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,72 +1733,72 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Fk Siauliai</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Asane</t>
+          <t>FK Banga Gargzdu</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.52</v>
+        <v>1.82</v>
       </c>
       <c r="G10" t="n">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
       <c r="H10" t="n">
-        <v>1.09</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
       <c r="J10" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5.1</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.49</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>2.02</v>
+        <v>2.74</v>
       </c>
       <c r="T10" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>2.6</v>
+        <v>2.06</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.31</v>
+        <v>1.58</v>
       </c>
       <c r="G11" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>5.2</v>
       </c>
       <c r="I11" t="n">
-        <v>870</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
-        <v>1.09</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>5.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,37 +1906,37 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>2.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.15</v>
+        <v>1.44</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>1.56</v>
+        <v>2.24</v>
       </c>
       <c r="T11" t="n">
-        <v>1.03</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.03</v>
+        <v>2.34</v>
       </c>
       <c r="V11" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1960,22 +1960,22 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2008,73 +2008,73 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Egersund</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.71</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.56</v>
-      </c>
       <c r="S12" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="T12" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="W12" t="n">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
         <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,43 +2083,43 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2143,67 +2143,67 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hodd</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="G13" t="n">
-        <v>1.52</v>
+        <v>1.87</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="I13" t="n">
-        <v>7.8</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>4.9</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>2.92</v>
+        <v>2.14</v>
       </c>
       <c r="X13" t="n">
         <v>980</v>
@@ -2218,10 +2218,10 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AC13" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
         <v>980</v>
@@ -2230,22 +2230,22 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2278,73 +2278,73 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aalesunds</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Hodd</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.09</v>
+        <v>1.47</v>
       </c>
       <c r="G14" t="n">
-        <v>600</v>
+        <v>1.51</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>5.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>950</v>
+        <v>6.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.81</v>
       </c>
       <c r="S14" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="T14" t="n">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="n">
-        <v>1.03</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,43 +2353,43 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2413,73 +2413,73 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Aalesunds</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Skeid</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.23</v>
+        <v>1.78</v>
       </c>
       <c r="G15" t="n">
-        <v>1.29</v>
+        <v>1.94</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
-        <v>2.82</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.34</v>
+        <v>1.59</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="S15" t="n">
-        <v>1.94</v>
+        <v>2.48</v>
       </c>
       <c r="T15" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>4.4</v>
+        <v>2.06</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,43 +2488,43 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2548,73 +2548,73 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.24</v>
+        <v>1.22</v>
       </c>
       <c r="G16" t="n">
-        <v>600</v>
+        <v>1.27</v>
       </c>
       <c r="H16" t="n">
-        <v>1.91</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
-        <v>870</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>8.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>1.1</v>
+        <v>7.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>2.16</v>
+        <v>3.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.59</v>
+        <v>1.33</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="S16" t="n">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="T16" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.54</v>
+        <v>1.06</v>
       </c>
       <c r="W16" t="n">
-        <v>1.38</v>
+        <v>4.7</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
@@ -2623,43 +2623,43 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Panevezys</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>2.76</v>
       </c>
       <c r="G17" t="n">
-        <v>1.55</v>
+        <v>3.15</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
-        <v>1.09</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,22 +2716,22 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>1.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.23</v>
+        <v>1.59</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>1.23</v>
+        <v>2.22</v>
       </c>
       <c r="T17" t="n">
         <v>1.03</v>
@@ -2740,10 +2740,10 @@
         <v>1.03</v>
       </c>
       <c r="V17" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
-        <v>2.8</v>
+        <v>1.46</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2818,67 +2818,67 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FK Kauno Zalgiris</t>
+          <t>Panevezys</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VMFD Zalgiris</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="G18" t="n">
-        <v>980</v>
+        <v>1.71</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="O18" t="n">
         <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>2.08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="S18" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HJK Helsinki</t>
+          <t>FK Kauno Zalgiris</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>VMFD Zalgiris</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="G19" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.65</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.2</v>
-      </c>
       <c r="K19" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>3.05</v>
+        <v>1.95</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
-        <v>1.84</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>2.04</v>
+        <v>2.58</v>
       </c>
       <c r="T19" t="n">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="U19" t="n">
-        <v>2.92</v>
+        <v>2.24</v>
       </c>
       <c r="V19" t="n">
         <v>1.37</v>
       </c>
       <c r="W19" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="X19" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA19" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AC19" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL19" t="n">
         <v>34</v>
       </c>
-      <c r="AF19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>24</v>
-      </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.6</v>
+        <v>15</v>
       </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,103 +3088,103 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Odds BK</t>
+          <t>HJK Helsinki</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>1.99</v>
       </c>
       <c r="G20" t="n">
-        <v>600</v>
+        <v>2.06</v>
       </c>
       <c r="H20" t="n">
-        <v>1.35</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="J20" t="n">
-        <v>1.09</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.52</v>
+        <v>1.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="n">
-        <v>1.55</v>
+        <v>2.04</v>
       </c>
       <c r="T20" t="n">
-        <v>1.03</v>
+        <v>1.44</v>
       </c>
       <c r="U20" t="n">
-        <v>1.03</v>
+        <v>2.96</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="W20" t="n">
-        <v>1.11</v>
+        <v>1.95</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF20" t="n">
         <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
@@ -3193,22 +3193,22 @@
         <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,91 +3223,91 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FCI Tallinn</t>
+          <t>Odds BK</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Paide Linnameeskond</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="H21" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>1.51</v>
       </c>
       <c r="J21" t="n">
-        <v>1.03</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>950</v>
+        <v>5.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>1.27</v>
+        <v>5.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>1.26</v>
+        <v>2.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.66</v>
       </c>
       <c r="S21" t="n">
-        <v>1.28</v>
+        <v>2.24</v>
       </c>
       <c r="T21" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>1000</v>
@@ -3316,7 +3316,7 @@
         <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3337,13 +3337,13 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Estonian Premier League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,123 +3353,123 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>FCI Tallinn</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mlada Boleslav</t>
+          <t>Paide Linnameeskond</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>1.1</v>
+        <v>3.85</v>
       </c>
       <c r="O22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.22</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.24</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Mlada Boleslav</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.36</v>
+        <v>2.02</v>
       </c>
       <c r="G23" t="n">
-        <v>1.37</v>
+        <v>2.18</v>
       </c>
       <c r="H23" t="n">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>11.5</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>5.7</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R23" t="n">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="S23" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="T23" t="n">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="U23" t="n">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="V23" t="n">
-        <v>1.09</v>
+        <v>1.33</v>
       </c>
       <c r="W23" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="G24" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="H24" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="I24" t="n">
-        <v>6.2</v>
+        <v>11.5</v>
       </c>
       <c r="J24" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="R24" t="n">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="S24" t="n">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="U24" t="n">
-        <v>2.82</v>
+        <v>1.87</v>
       </c>
       <c r="V24" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="W24" t="n">
-        <v>2.68</v>
+        <v>3.75</v>
       </c>
       <c r="X24" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y24" t="n">
         <v>36</v>
       </c>
-      <c r="Y24" t="n">
-        <v>38</v>
-      </c>
       <c r="Z24" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AA24" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE24" t="n">
         <v>170</v>
       </c>
-      <c r="AB24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>60</v>
-      </c>
       <c r="AF24" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="AG24" t="n">
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AI24" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="AJ24" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AM24" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AN24" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO24" t="n">
-        <v>38</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,126 +3758,126 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.4</v>
+        <v>1.62</v>
       </c>
       <c r="G25" t="n">
-        <v>3.45</v>
+        <v>1.63</v>
       </c>
       <c r="H25" t="n">
-        <v>2.28</v>
+        <v>5.5</v>
       </c>
       <c r="I25" t="n">
-        <v>2.4</v>
+        <v>5.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="P25" t="n">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.79</v>
+        <v>1.42</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="S25" t="n">
-        <v>2.92</v>
+        <v>2.06</v>
       </c>
       <c r="T25" t="n">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="U25" t="n">
-        <v>2.34</v>
+        <v>2.82</v>
       </c>
       <c r="V25" t="n">
-        <v>1.71</v>
+        <v>1.21</v>
       </c>
       <c r="W25" t="n">
-        <v>1.4</v>
+        <v>2.58</v>
       </c>
       <c r="X25" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD25" t="n">
         <v>21</v>
       </c>
-      <c r="Y25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>960</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>12</v>
-      </c>
       <c r="AE25" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO25" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>960</v>
       </c>
     </row>
     <row r="26">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U26" t="n">
         <v>2.34</v>
       </c>
-      <c r="G26" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.18</v>
-      </c>
       <c r="V26" t="n">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="W26" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AA26" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD26" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL26" t="n">
         <v>42</v>
       </c>
-      <c r="AF26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>44</v>
-      </c>
       <c r="AM26" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="G27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.09</v>
+        <v>3.25</v>
       </c>
       <c r="I27" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="O27" t="n">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="P27" t="n">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.51</v>
+        <v>1.9</v>
       </c>
       <c r="R27" t="n">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="S27" t="n">
-        <v>1.51</v>
+        <v>3.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="U27" t="n">
-        <v>1.03</v>
+        <v>2.2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="W27" t="n">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="X27" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.34</v>
+        <v>1.92</v>
       </c>
       <c r="G28" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>2.96</v>
       </c>
       <c r="K28" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>5.3</v>
+        <v>2.44</v>
       </c>
       <c r="O28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.21</v>
       </c>
-      <c r="P28" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.44</v>
-      </c>
       <c r="W28" t="n">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="X28" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="Y28" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>14</v>
+        <v>7.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="AJ28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="J29" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L29" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>5.2</v>
+        <v>1.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="P29" t="n">
-        <v>2.36</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R29" t="n">
-        <v>1.56</v>
+        <v>1.12</v>
       </c>
       <c r="S29" t="n">
-        <v>2.66</v>
+        <v>1.41</v>
       </c>
       <c r="T29" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.5</v>
+        <v>2.32</v>
       </c>
       <c r="G30" t="n">
-        <v>1.51</v>
+        <v>2.36</v>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>7.4</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
-        <v>5.1</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
         <v>5.2</v>
       </c>
-      <c r="L30" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N30" t="n">
-        <v>5.7</v>
-      </c>
       <c r="O30" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="R30" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="S30" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="T30" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="U30" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="V30" t="n">
-        <v>1.16</v>
+        <v>1.43</v>
       </c>
       <c r="W30" t="n">
-        <v>2.96</v>
+        <v>1.74</v>
       </c>
       <c r="X30" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z30" t="n">
         <v>25</v>
       </c>
-      <c r="Y30" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>65</v>
-      </c>
       <c r="AA30" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AB30" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG30" t="n">
         <v>11</v>
       </c>
-      <c r="AD30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AH30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK30" t="n">
         <v>21</v>
       </c>
-      <c r="AI30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.8</v>
+        <v>12.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.21</v>
+        <v>3.05</v>
       </c>
       <c r="G31" t="n">
-        <v>1.23</v>
+        <v>3.1</v>
       </c>
       <c r="H31" t="n">
-        <v>17</v>
+        <v>2.48</v>
       </c>
       <c r="I31" t="n">
-        <v>18.5</v>
+        <v>2.5</v>
       </c>
       <c r="J31" t="n">
-        <v>7.8</v>
+        <v>3.7</v>
       </c>
       <c r="K31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X31" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC31" t="n">
         <v>8.4</v>
       </c>
-      <c r="L31" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N31" t="n">
-        <v>10</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W31" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12.5</v>
+        <v>48</v>
       </c>
       <c r="AK31" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN31" t="n">
-        <v>2.84</v>
+        <v>20</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="G32" t="n">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="I32" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="J32" t="n">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="K32" t="n">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N32" t="n">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>3.3</v>
+        <v>2.56</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.42</v>
+        <v>1.6</v>
       </c>
       <c r="R32" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="S32" t="n">
-        <v>2.06</v>
+        <v>2.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="U32" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="V32" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="W32" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="X32" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Y32" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="Z32" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AA32" t="n">
-        <v>550</v>
+        <v>220</v>
       </c>
       <c r="AB32" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AE32" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="AF32" t="n">
         <v>9.6</v>
       </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH32" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AI32" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AL32" t="n">
         <v>28</v>
       </c>
       <c r="AM32" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO32" t="n">
-        <v>150</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="G33" t="n">
-        <v>5.5</v>
+        <v>1.21</v>
       </c>
       <c r="H33" t="n">
-        <v>1.62</v>
+        <v>18</v>
       </c>
       <c r="I33" t="n">
-        <v>1.64</v>
+        <v>19</v>
       </c>
       <c r="J33" t="n">
-        <v>4.9</v>
+        <v>8.4</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>8.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="P33" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="S33" t="n">
-        <v>1.99</v>
+        <v>1.74</v>
       </c>
       <c r="T33" t="n">
-        <v>1.51</v>
+        <v>1.76</v>
       </c>
       <c r="U33" t="n">
-        <v>2.84</v>
+        <v>2.22</v>
       </c>
       <c r="V33" t="n">
-        <v>2.56</v>
+        <v>1.05</v>
       </c>
       <c r="W33" t="n">
-        <v>1.22</v>
+        <v>5.7</v>
       </c>
       <c r="X33" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="Y33" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>14.5</v>
+        <v>280</v>
       </c>
       <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
         <v>18.5</v>
       </c>
-      <c r="AB33" t="n">
-        <v>36</v>
-      </c>
       <c r="AC33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF33" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>55</v>
-      </c>
       <c r="AG33" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AI33" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="AK33" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AL33" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AM33" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>30</v>
+        <v>2.66</v>
       </c>
       <c r="AO33" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="G34" t="n">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="H34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>13</v>
+      </c>
+      <c r="J34" t="n">
         <v>7.4</v>
       </c>
-      <c r="I34" t="n">
-        <v>8</v>
-      </c>
-      <c r="J34" t="n">
-        <v>5</v>
-      </c>
       <c r="K34" t="n">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="L34" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="P34" t="n">
-        <v>2.48</v>
+        <v>3.35</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="R34" t="n">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="S34" t="n">
-        <v>2.58</v>
+        <v>2.04</v>
       </c>
       <c r="T34" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U34" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="V34" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="W34" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="X34" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Y34" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="Z34" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AA34" t="n">
-        <v>240</v>
+        <v>550</v>
       </c>
       <c r="AB34" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG34" t="n">
         <v>11</v>
       </c>
-      <c r="AD34" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AH34" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AI34" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AJ34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK34" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL34" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM34" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN34" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.88</v>
+        <v>5.4</v>
       </c>
       <c r="G35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R35" t="n">
         <v>1.98</v>
       </c>
-      <c r="H35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.27</v>
-      </c>
       <c r="S35" t="n">
-        <v>4.1</v>
+        <v>1.99</v>
       </c>
       <c r="T35" t="n">
-        <v>1.96</v>
+        <v>1.51</v>
       </c>
       <c r="U35" t="n">
-        <v>1.9</v>
+        <v>2.82</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>2.58</v>
       </c>
       <c r="W35" t="n">
-        <v>2.02</v>
+        <v>1.22</v>
       </c>
       <c r="X35" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Y35" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Z35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB35" t="n">
         <v>36</v>
       </c>
-      <c r="AA35" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AC35" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="AF35" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AH35" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AI35" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AJ35" t="n">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="AK35" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AL35" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM35" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="G36" t="n">
-        <v>2.04</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="I36" t="n">
-        <v>5.8</v>
+        <v>7.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>2.32</v>
+        <v>5.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>1.44</v>
+        <v>2.52</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.62</v>
+        <v>1.63</v>
       </c>
       <c r="R36" t="n">
-        <v>1.14</v>
+        <v>1.6</v>
       </c>
       <c r="S36" t="n">
-        <v>6.8</v>
+        <v>2.56</v>
       </c>
       <c r="T36" t="n">
-        <v>2.34</v>
+        <v>1.81</v>
       </c>
       <c r="U36" t="n">
-        <v>1.59</v>
+        <v>2.14</v>
       </c>
       <c r="V36" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="W36" t="n">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="X36" t="n">
-        <v>7.6</v>
+        <v>23</v>
       </c>
       <c r="Y36" t="n">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA36" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AB36" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE36" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AH36" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AI36" t="n">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="AJ36" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AL36" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AM36" t="n">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="AN36" t="n">
-        <v>32</v>
+        <v>5.9</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,260 +5378,530 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.1</v>
+        <v>1.89</v>
       </c>
       <c r="G37" t="n">
-        <v>5.7</v>
+        <v>1.95</v>
       </c>
       <c r="H37" t="n">
-        <v>1.76</v>
+        <v>4.7</v>
       </c>
       <c r="I37" t="n">
-        <v>1.86</v>
+        <v>5.2</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S37" t="n">
         <v>4.1</v>
       </c>
-      <c r="L37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.08</v>
-      </c>
       <c r="T37" t="n">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="U37" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="V37" t="n">
-        <v>2.16</v>
+        <v>1.25</v>
       </c>
       <c r="W37" t="n">
-        <v>1.21</v>
+        <v>2.04</v>
       </c>
       <c r="X37" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF37" t="n">
         <v>11</v>
       </c>
-      <c r="Z37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB37" t="n">
+      <c r="AG37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK37" t="n">
         <v>24</v>
       </c>
-      <c r="AC37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>100</v>
-      </c>
       <c r="AL37" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN37" t="n">
         <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>19:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Huracan</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Central Cordoba (SdE)</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S38" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X38" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>2025-10-22</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>960</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>960</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>960</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>Pachuca</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Tigres</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="F40" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G40" t="n">
         <v>2.88</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H40" t="n">
         <v>2.7</v>
       </c>
-      <c r="I38" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="I40" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.75</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L40" t="n">
         <v>1.01</v>
       </c>
-      <c r="M38" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O38" t="n">
+      <c r="M40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O40" t="n">
         <v>1.3</v>
       </c>
-      <c r="P38" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="P40" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q40" t="n">
         <v>1.89</v>
       </c>
-      <c r="R38" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W38" t="n">
+      <c r="R40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W40" t="n">
         <v>1.56</v>
       </c>
-      <c r="X38" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO38" t="n">
+      <c r="X40" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO40" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO40"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.75</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.95</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
@@ -685,7 +685,7 @@
         <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -694,7 +694,7 @@
         <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P2" t="n">
         <v>2.26</v>
@@ -709,70 +709,70 @@
         <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W2" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AF2" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK2" t="n">
         <v>25</v>
       </c>
-      <c r="AK2" t="n">
-        <v>21</v>
-      </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
         <v>1.64</v>
@@ -811,16 +811,16 @@
         <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
         <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -829,25 +829,25 @@
         <v>4.7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="T3" t="n">
         <v>1.8</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V3" t="n">
         <v>1.18</v>
@@ -856,16 +856,16 @@
         <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA3" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB3" t="n">
         <v>11.5</v>
@@ -874,37 +874,37 @@
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H4" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
         <v>7.4</v>
@@ -961,28 +961,28 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
-        <v>2.96</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="V4" t="n">
         <v>1.04</v>
@@ -991,7 +991,7 @@
         <v>4.7</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
         <v>980</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
         <v>21</v>
@@ -1015,7 +1015,7 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AG4" t="n">
         <v>16.5</v>
@@ -1027,19 +1027,19 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>960</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>960</v>
+        <v>7.6</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1063,12 +1063,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Etoile Sportive Sahel</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Stade Tunisien</t>
+          <t>Olympique De Beja</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1084,7 +1084,7 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
@@ -1093,16 +1093,16 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="Q5" t="n">
         <v>1.01</v>
@@ -1111,7 +1111,7 @@
         <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>1.51</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,72 +1193,72 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:40:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.55</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="S6" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="T6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.01</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>1.01</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.14</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,17 +1328,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Harju JK Laagri</t>
+          <t>Esperance Sportive Zarzis</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tammeka Tartu</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1354,40 +1354,40 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.13</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="T7" t="n">
         <v>1.03</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.03</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,108 +1463,108 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:40:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Nomme Kalju</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.09</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>18.5</v>
+        <v>4.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.23</v>
+        <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3</v>
+        <v>2.46</v>
       </c>
       <c r="J8" t="n">
-        <v>1.03</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.19</v>
+        <v>1.48</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>2.78</v>
+        <v>1.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>2.06</v>
       </c>
       <c r="R8" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>1.87</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>3.95</v>
+        <v>1.69</v>
       </c>
       <c r="W8" t="n">
-        <v>1.05</v>
+        <v>1.28</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
@@ -1582,13 +1582,13 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Estonian Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,70 +1603,70 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FC Inter</t>
+          <t>Harju JK Laagri</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Gnistan</t>
+          <t>Tammeka Tartu</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.38</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>1.43</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>7.8</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>5.4</v>
+        <v>1.01</v>
       </c>
       <c r="K9" t="n">
-        <v>6.2</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>2.86</v>
+        <v>1.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>2.16</v>
+        <v>1.13</v>
       </c>
       <c r="T9" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="U9" t="n">
-        <v>2.16</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>3.25</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1675,46 +1675,46 @@
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Estonian Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,78 +1733,78 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fk Siauliai</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FK Banga Gargzdu</t>
+          <t>Nomme Kalju</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.82</v>
+        <v>1.49</v>
       </c>
       <c r="G10" t="n">
-        <v>1.94</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>3.55</v>
+        <v>1.23</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>1.35</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>5.7</v>
       </c>
       <c r="K10" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.59</v>
       </c>
       <c r="S10" t="n">
-        <v>2.74</v>
+        <v>1.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>4.1</v>
       </c>
       <c r="W10" t="n">
-        <v>2.06</v>
+        <v>1.06</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,13 +1813,13 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,10 +1828,10 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1852,13 +1852,13 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,123 +1868,123 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>FC Inter</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Asane</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="G11" t="n">
-        <v>1.66</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="I11" t="n">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="S11" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="U11" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="W11" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="X11" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF11" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>13</v>
-      </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,78 +2003,78 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Fk Siauliai</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>FK Banga Gargzdu</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.42</v>
+        <v>1.77</v>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>1.92</v>
       </c>
       <c r="H12" t="n">
-        <v>6.8</v>
+        <v>3.85</v>
       </c>
       <c r="I12" t="n">
-        <v>8.4</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="O12" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.74</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.41</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>2.16</v>
+        <v>2.66</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>3</v>
+        <v>1.98</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,43 +2083,43 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2143,73 +2143,73 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Egersund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="G13" t="n">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="H13" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="S13" t="n">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="W13" t="n">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,34 +2218,34 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2278,73 +2278,73 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hodd</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="G14" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="H14" t="n">
-        <v>5.6</v>
+        <v>12.5</v>
       </c>
       <c r="I14" t="n">
-        <v>7.8</v>
+        <v>15.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
         <v>1.13</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="R14" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="S14" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="W14" t="n">
-        <v>2.96</v>
+        <v>4.5</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,10 +2353,10 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AD14" t="n">
         <v>980</v>
@@ -2365,31 +2365,31 @@
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2413,55 +2413,55 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aalesunds</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="R15" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>2.48</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
         <v>1.03</v>
@@ -2470,16 +2470,16 @@
         <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,25 +2488,25 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2548,73 +2548,73 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Skeid</t>
+          <t>Hodd</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="G16" t="n">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>5.6</v>
       </c>
       <c r="I16" t="n">
-        <v>17</v>
+        <v>8.4</v>
       </c>
       <c r="J16" t="n">
-        <v>7.2</v>
+        <v>4.6</v>
       </c>
       <c r="K16" t="n">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7.2</v>
+        <v>3.45</v>
       </c>
       <c r="O16" t="n">
         <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>3.15</v>
+        <v>2.84</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="R16" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S16" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="W16" t="n">
-        <v>4.7</v>
+        <v>2.96</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="Z16" t="n">
         <v>1000</v>
@@ -2623,43 +2623,43 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AK16" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>Aalesunds</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.76</v>
+        <v>1.75</v>
       </c>
       <c r="G17" t="n">
-        <v>3.15</v>
+        <v>1.84</v>
       </c>
       <c r="H17" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>1.1</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S17" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="T17" t="n">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="U17" t="n">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>1.62</v>
+        <v>1.24</v>
       </c>
       <c r="W17" t="n">
-        <v>1.46</v>
+        <v>2.18</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,73 +2818,73 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Panevezys</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="G18" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="I18" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>1.95</v>
+        <v>5.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>2.08</v>
+        <v>2.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.71</v>
+        <v>1.39</v>
       </c>
       <c r="R18" t="n">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="S18" t="n">
-        <v>1.72</v>
+        <v>2.14</v>
       </c>
       <c r="T18" t="n">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W18" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z18" t="n">
         <v>1000</v>
@@ -2893,43 +2893,43 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FK Kauno Zalgiris</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VMFD Zalgiris</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.14</v>
+        <v>2.74</v>
       </c>
       <c r="G19" t="n">
-        <v>2.34</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.3</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.65</v>
-      </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>1.95</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="S19" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="T19" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="U19" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="W19" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AF19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH19" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>55</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>30</v>
-      </c>
       <c r="AK19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN19" t="n">
         <v>23</v>
       </c>
-      <c r="AL19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>15</v>
-      </c>
       <c r="AO19" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,103 +3088,103 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HJK Helsinki</t>
+          <t>Panevezys</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.99</v>
+        <v>1.61</v>
       </c>
       <c r="G20" t="n">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>7.4</v>
+        <v>2.18</v>
       </c>
       <c r="O20" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="P20" t="n">
-        <v>3.1</v>
+        <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>2.04</v>
+        <v>1.66</v>
       </c>
       <c r="T20" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
-        <v>2.96</v>
+        <v>2.08</v>
       </c>
       <c r="V20" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="W20" t="n">
-        <v>1.95</v>
+        <v>2.26</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
         <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
         <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
@@ -3193,22 +3193,22 @@
         <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,112 +3223,112 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Odds BK</t>
+          <t>FK Kauno Zalgiris</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>VMFD Zalgiris</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>2.12</v>
       </c>
       <c r="G21" t="n">
-        <v>8.4</v>
+        <v>2.36</v>
       </c>
       <c r="H21" t="n">
-        <v>1.44</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>1.51</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>5.9</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>5.8</v>
+        <v>1.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="P21" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="S21" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.74</v>
       </c>
-      <c r="U21" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.13</v>
-      </c>
       <c r="X21" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC21" t="n">
         <v>12</v>
       </c>
-      <c r="Z21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13</v>
-      </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
@@ -3337,13 +3337,13 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FCI Tallinn</t>
+          <t>Odds BK</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Paide Linnameeskond</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.83</v>
+        <v>5.4</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>1.48</v>
       </c>
       <c r="I22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K22" t="n">
         <v>5.6</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="O22" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="R22" t="n">
-        <v>1.38</v>
+        <v>1.64</v>
       </c>
       <c r="S22" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>2.74</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="X22" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>11.5</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>70</v>
+        <v>17.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="n">
-        <v>12.5</v>
+        <v>32</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI22" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>HJK Helsinki</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mlada Boleslav</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="S23" t="n">
         <v>2.02</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.8</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="U23" t="n">
-        <v>2.28</v>
+        <v>2.96</v>
       </c>
       <c r="V23" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="W23" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
         <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Estonian Premier League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>FCI Tallinn</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Paide Linnameeskond</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.35</v>
+        <v>1.82</v>
       </c>
       <c r="G24" t="n">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="I24" t="n">
-        <v>11.5</v>
+        <v>5.3</v>
       </c>
       <c r="J24" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.31</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="O24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.22</v>
       </c>
-      <c r="P24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.09</v>
-      </c>
       <c r="W24" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
         <v>21</v>
       </c>
-      <c r="Y24" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>430</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC24" t="n">
+      <c r="AL24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>5.1</v>
-      </c>
       <c r="AO24" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Mlada Boleslav</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.62</v>
+        <v>1.94</v>
       </c>
       <c r="G25" t="n">
-        <v>1.63</v>
+        <v>2.06</v>
       </c>
       <c r="H25" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="I25" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="J25" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>7.6</v>
+        <v>3.85</v>
       </c>
       <c r="O25" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>1.98</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.91</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="T25" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="U25" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="V25" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="W25" t="n">
-        <v>2.58</v>
+        <v>1.94</v>
       </c>
       <c r="X25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>5.3</v>
-      </c>
       <c r="AO25" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.3</v>
+        <v>1.36</v>
       </c>
       <c r="G26" t="n">
-        <v>3.35</v>
+        <v>1.37</v>
       </c>
       <c r="H26" t="n">
-        <v>2.32</v>
+        <v>10.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.36</v>
+        <v>11.5</v>
       </c>
       <c r="J26" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="W26" t="n">
         <v>3.7</v>
       </c>
-      <c r="K26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.42</v>
-      </c>
       <c r="X26" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="n">
+        <v>38</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>420</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC26" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>10</v>
-      </c>
       <c r="AD26" t="n">
-        <v>11.5</v>
+        <v>40</v>
       </c>
       <c r="AE26" t="n">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="n">
-        <v>24</v>
+        <v>7.8</v>
       </c>
       <c r="AG26" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AJ26" t="n">
-        <v>60</v>
+        <v>10.5</v>
       </c>
       <c r="AK26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL26" t="n">
         <v>36</v>
       </c>
-      <c r="AL26" t="n">
-        <v>42</v>
-      </c>
       <c r="AM26" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>5.2</v>
       </c>
       <c r="AO26" t="n">
-        <v>15.5</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,123 +4028,123 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.32</v>
+        <v>1.62</v>
       </c>
       <c r="G27" t="n">
-        <v>2.5</v>
+        <v>1.63</v>
       </c>
       <c r="H27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P27" t="n">
         <v>3.25</v>
       </c>
-      <c r="I27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.95</v>
-      </c>
       <c r="Q27" t="n">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="R27" t="n">
-        <v>1.37</v>
+        <v>1.92</v>
       </c>
       <c r="S27" t="n">
-        <v>3.3</v>
+        <v>2.04</v>
       </c>
       <c r="T27" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="U27" t="n">
-        <v>2.2</v>
+        <v>2.82</v>
       </c>
       <c r="V27" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="W27" t="n">
-        <v>1.69</v>
+        <v>2.58</v>
       </c>
       <c r="X27" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="Z27" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AA27" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE27" t="n">
         <v>55</v>
       </c>
-      <c r="AB27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD27" t="n">
+      <c r="AF27" t="n">
         <v>14</v>
       </c>
-      <c r="AE27" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>17</v>
-      </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
         <v>46</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AK27" t="n">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="AL27" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AM27" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>5.3</v>
       </c>
       <c r="AO27" t="n">
         <v>34</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.92</v>
+        <v>3.25</v>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="H28" t="n">
-        <v>4.7</v>
+        <v>2.34</v>
       </c>
       <c r="I28" t="n">
-        <v>5.7</v>
+        <v>2.38</v>
       </c>
       <c r="J28" t="n">
-        <v>2.96</v>
+        <v>3.7</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>2.44</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>1.56</v>
+        <v>2.12</v>
       </c>
       <c r="Q28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U28" t="n">
         <v>2.42</v>
       </c>
-      <c r="R28" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V28" t="n">
-        <v>1.21</v>
+        <v>1.73</v>
       </c>
       <c r="W28" t="n">
-        <v>1.92</v>
+        <v>1.43</v>
       </c>
       <c r="X28" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Y28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z28" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z28" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.4</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="n">
-        <v>980</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM28" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.04</v>
+        <v>2.34</v>
       </c>
       <c r="G29" t="n">
-        <v>1000</v>
+        <v>2.46</v>
       </c>
       <c r="H29" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>1.25</v>
+        <v>3.65</v>
       </c>
       <c r="O29" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.97</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="R29" t="n">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>1.41</v>
+        <v>2.88</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="n">
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK29" t="n">
         <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN29" t="n">
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.32</v>
+        <v>1.87</v>
       </c>
       <c r="G30" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.3</v>
+        <v>5.8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="K30" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>5.2</v>
+        <v>2.44</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.48</v>
       </c>
       <c r="P30" t="n">
-        <v>2.44</v>
+        <v>1.56</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.65</v>
+        <v>2.46</v>
       </c>
       <c r="R30" t="n">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
       <c r="S30" t="n">
-        <v>2.64</v>
+        <v>3.45</v>
       </c>
       <c r="T30" t="n">
-        <v>1.57</v>
+        <v>2.06</v>
       </c>
       <c r="U30" t="n">
-        <v>2.62</v>
+        <v>1.74</v>
       </c>
       <c r="V30" t="n">
-        <v>1.43</v>
+        <v>1.2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y30" t="n">
         <v>17.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AJ30" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="AN30" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.05</v>
+        <v>1.41</v>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>2.48</v>
+        <v>9</v>
       </c>
       <c r="I31" t="n">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="J31" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>5.2</v>
+        <v>2.82</v>
       </c>
       <c r="O31" t="n">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>2.4</v>
+        <v>1.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.56</v>
+        <v>1.19</v>
       </c>
       <c r="S31" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.57</v>
+        <v>1.03</v>
       </c>
       <c r="U31" t="n">
-        <v>2.68</v>
+        <v>1.03</v>
       </c>
       <c r="V31" t="n">
-        <v>1.67</v>
+        <v>1.08</v>
       </c>
       <c r="W31" t="n">
-        <v>1.48</v>
+        <v>2.92</v>
       </c>
       <c r="X31" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.48</v>
+        <v>2.3</v>
       </c>
       <c r="G32" t="n">
-        <v>1.49</v>
+        <v>2.34</v>
       </c>
       <c r="H32" t="n">
-        <v>7.2</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>7.6</v>
+        <v>3.3</v>
       </c>
       <c r="J32" t="n">
-        <v>5.1</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="R32" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="S32" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T32" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="U32" t="n">
-        <v>2.22</v>
+        <v>2.66</v>
       </c>
       <c r="V32" t="n">
-        <v>1.15</v>
+        <v>1.43</v>
       </c>
       <c r="W32" t="n">
-        <v>3</v>
+        <v>1.74</v>
       </c>
       <c r="X32" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z32" t="n">
         <v>25</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AA32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE32" t="n">
         <v>32</v>
       </c>
-      <c r="Z32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>90</v>
-      </c>
       <c r="AF32" t="n">
-        <v>9.6</v>
+        <v>17</v>
       </c>
       <c r="AG32" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK32" t="n">
         <v>21</v>
       </c>
-      <c r="AI32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AL32" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM32" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AN32" t="n">
-        <v>5.6</v>
+        <v>12.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>95</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.2</v>
+        <v>3.05</v>
       </c>
       <c r="G33" t="n">
-        <v>1.21</v>
+        <v>3.1</v>
       </c>
       <c r="H33" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z33" t="n">
         <v>18</v>
       </c>
-      <c r="I33" t="n">
-        <v>19</v>
-      </c>
-      <c r="J33" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="AA33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC33" t="n">
         <v>8.6</v>
       </c>
-      <c r="L33" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W33" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X33" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>280</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC33" t="n">
+      <c r="AD33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE33" t="n">
         <v>22</v>
       </c>
-      <c r="AD33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>280</v>
-      </c>
       <c r="AF33" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AG33" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AJ33" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AK33" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AL33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN33" t="n">
-        <v>2.66</v>
+        <v>20</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="G34" t="n">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="H34" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="I34" t="n">
-        <v>13</v>
+        <v>7.6</v>
       </c>
       <c r="J34" t="n">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="K34" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>3.35</v>
+        <v>2.56</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="R34" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="S34" t="n">
-        <v>2.04</v>
+        <v>2.54</v>
       </c>
       <c r="T34" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="U34" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="V34" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="W34" t="n">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="X34" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Y34" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="Z34" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AA34" t="n">
-        <v>550</v>
+        <v>220</v>
       </c>
       <c r="AB34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH34" t="n">
+      <c r="AK34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL34" t="n">
         <v>28</v>
       </c>
-      <c r="AI34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>29</v>
-      </c>
       <c r="AM34" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO34" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="G35" t="n">
-        <v>5.5</v>
+        <v>1.21</v>
       </c>
       <c r="H35" t="n">
-        <v>1.62</v>
+        <v>17.5</v>
       </c>
       <c r="I35" t="n">
-        <v>1.63</v>
+        <v>18.5</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>8.6</v>
       </c>
       <c r="K35" t="n">
-        <v>5.1</v>
+        <v>9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="P35" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="R35" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="S35" t="n">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="T35" t="n">
-        <v>1.51</v>
+        <v>1.78</v>
       </c>
       <c r="U35" t="n">
-        <v>2.82</v>
+        <v>2.18</v>
       </c>
       <c r="V35" t="n">
-        <v>2.58</v>
+        <v>1.05</v>
       </c>
       <c r="W35" t="n">
-        <v>1.22</v>
+        <v>5.8</v>
       </c>
       <c r="X35" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="Y35" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z35" t="n">
-        <v>14.5</v>
+        <v>250</v>
       </c>
       <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
         <v>18</v>
       </c>
-      <c r="AB35" t="n">
-        <v>36</v>
-      </c>
       <c r="AC35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF35" t="n">
         <v>12.5</v>
       </c>
-      <c r="AD35" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>55</v>
-      </c>
       <c r="AG35" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AI35" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="AK35" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AL35" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AM35" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>32</v>
+        <v>2.74</v>
       </c>
       <c r="AO35" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="H36" t="n">
+        <v>13</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J36" t="n">
         <v>7.4</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36" t="n">
         <v>7.6</v>
       </c>
-      <c r="J36" t="n">
-        <v>5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5.2</v>
-      </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>5.6</v>
+        <v>7.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>2.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="R36" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="S36" t="n">
-        <v>2.56</v>
+        <v>2.04</v>
       </c>
       <c r="T36" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="U36" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="V36" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="W36" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="X36" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Y36" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="Z36" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="AA36" t="n">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="AB36" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AD36" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AE36" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="AF36" t="n">
         <v>9.6</v>
       </c>
       <c r="AG36" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AI36" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AJ36" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL36" t="n">
         <v>29</v>
       </c>
       <c r="AM36" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.89</v>
+        <v>5.5</v>
       </c>
       <c r="G37" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="J37" t="n">
+        <v>5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S37" t="n">
         <v>1.95</v>
       </c>
-      <c r="H37" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T37" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="U37" t="n">
-        <v>1.89</v>
+        <v>2.86</v>
       </c>
       <c r="V37" t="n">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="W37" t="n">
-        <v>2.04</v>
+        <v>1.21</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Y37" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Z37" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.8</v>
+        <v>38</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>980</v>
+        <v>10.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>95</v>
+        <v>13.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AG37" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="AH37" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AI37" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="AJ37" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AK37" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AL37" t="n">
         <v>44</v>
       </c>
       <c r="AM37" t="n">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="G38" t="n">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="I38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N38" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W38" t="n">
+        <v>3</v>
+      </c>
+      <c r="X38" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN38" t="n">
         <v>6</v>
       </c>
-      <c r="J38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S38" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="X38" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>32</v>
-      </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5.1</v>
+        <v>1.86</v>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>1.94</v>
       </c>
       <c r="H39" t="n">
-        <v>1.76</v>
+        <v>4.6</v>
       </c>
       <c r="I39" t="n">
-        <v>1.86</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K39" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="R39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S39" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="T39" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="U39" t="n">
-        <v>1.87</v>
+        <v>1.99</v>
       </c>
       <c r="V39" t="n">
-        <v>2.16</v>
+        <v>1.25</v>
       </c>
       <c r="W39" t="n">
-        <v>1.2</v>
+        <v>2.06</v>
       </c>
       <c r="X39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.6</v>
+        <v>16.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>960</v>
+        <v>150</v>
       </c>
       <c r="AB39" t="n">
-        <v>960</v>
+        <v>9.6</v>
       </c>
       <c r="AC39" t="n">
-        <v>960</v>
+        <v>10</v>
       </c>
       <c r="AD39" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="AE39" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>42</v>
+        <v>11.5</v>
       </c>
       <c r="AG39" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI39" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="AK39" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="AL39" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
         <v>150</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO39" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,126 +5783,396 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.66</v>
+        <v>1.98</v>
       </c>
       <c r="G40" t="n">
-        <v>2.88</v>
+        <v>2.04</v>
       </c>
       <c r="H40" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="I40" t="n">
-        <v>2.9</v>
+        <v>5.7</v>
       </c>
       <c r="J40" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K40" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="M40" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="N40" t="n">
-        <v>3.8</v>
+        <v>2.34</v>
       </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.66</v>
       </c>
       <c r="P40" t="n">
-        <v>1.97</v>
+        <v>1.43</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
       <c r="R40" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="S40" t="n">
-        <v>3.25</v>
+        <v>6.6</v>
       </c>
       <c r="T40" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="U40" t="n">
-        <v>2.22</v>
+        <v>1.55</v>
       </c>
       <c r="V40" t="n">
-        <v>1.53</v>
+        <v>1.21</v>
       </c>
       <c r="W40" t="n">
-        <v>1.56</v>
+        <v>1.96</v>
       </c>
       <c r="X40" t="n">
-        <v>15.5</v>
+        <v>7.2</v>
       </c>
       <c r="Y40" t="n">
         <v>12</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>5.9</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG40" t="n">
         <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ40" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X41" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Pachuca</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G2" t="n">
         <v>2.12</v>
       </c>
       <c r="H2" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J2" t="n">
         <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
         <v>1.34</v>
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
@@ -709,22 +709,22 @@
         <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U2" t="n">
         <v>2.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W2" t="n">
         <v>1.89</v>
       </c>
       <c r="X2" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -736,40 +736,40 @@
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE2" t="n">
         <v>48</v>
       </c>
       <c r="AF2" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AI2" t="n">
         <v>55</v>
       </c>
       <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
         <v>32</v>
       </c>
-      <c r="AK2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>38</v>
-      </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="G3" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P3" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V3" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="X3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AB3" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
         <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="G4" t="n">
         <v>1.26</v>
       </c>
       <c r="H4" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="I4" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.03</v>
+        <v>3.05</v>
       </c>
       <c r="U4" t="n">
         <v>1.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Y4" t="n">
         <v>980</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD4" t="n">
         <v>980</v>
@@ -1015,10 +1015,10 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH4" t="n">
         <v>980</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q5" t="n">
         <v>1.01</v>
@@ -1219,7 +1219,7 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R7" t="n">
         <v>1.13</v>
       </c>
       <c r="S7" t="n">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="T7" t="n">
         <v>1.03</v>
@@ -1480,16 +1480,16 @@
         <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I8" t="n">
         <v>2.46</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -1501,13 +1501,13 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O8" t="n">
         <v>1.42</v>
       </c>
       <c r="P8" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" t="n">
         <v>2.06</v>
@@ -1519,16 +1519,16 @@
         <v>3.45</v>
       </c>
       <c r="T8" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
         <v>1.69</v>
       </c>
       <c r="W8" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1639,22 +1639,22 @@
         <v>1.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
         <v>1.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="R9" t="n">
         <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="T9" t="n">
-        <v>1.03</v>
+        <v>1.41</v>
       </c>
       <c r="U9" t="n">
         <v>1.03</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.49</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="I10" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="J10" t="n">
         <v>5.7</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>12.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.2</v>
@@ -1771,7 +1771,7 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
         <v>1.14</v>
@@ -1780,10 +1780,10 @@
         <v>2.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="R10" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="S10" t="n">
         <v>1.9</v>
@@ -1798,7 +1798,7 @@
         <v>4.1</v>
       </c>
       <c r="W10" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X10" t="n">
         <v>980</v>
@@ -1882,61 +1882,61 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="G11" t="n">
         <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="I11" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="K11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
         <v>1.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.33</v>
+        <v>1.77</v>
       </c>
       <c r="S11" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X11" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Y11" t="n">
         <v>48</v>
@@ -1948,10 +1948,10 @@
         <v>290</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
         <v>40</v>
@@ -1960,22 +1960,22 @@
         <v>130</v>
       </c>
       <c r="AF11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG11" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AL11" t="n">
         <v>34</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="G12" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="H12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.85</v>
       </c>
-      <c r="I12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.95</v>
-      </c>
       <c r="K12" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.3</v>
@@ -2044,31 +2044,31 @@
         <v>3.55</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
         <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S12" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="T12" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U12" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2143,73 +2143,73 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Asane</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="G13" t="n">
-        <v>1.66</v>
+        <v>1.27</v>
       </c>
       <c r="H13" t="n">
-        <v>5.2</v>
+        <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>6.2</v>
+        <v>18</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>5.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="Q13" t="n">
         <v>1.42</v>
       </c>
       <c r="R13" t="n">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T13" t="n">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="W13" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,34 +2218,34 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AL13" t="n">
         <v>1000</v>
@@ -2254,7 +2254,7 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.199999999999999</v>
+        <v>3.65</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2278,73 +2278,73 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Skeid</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="H14" t="n">
-        <v>12.5</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="L14" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="S14" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="V14" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="W14" t="n">
-        <v>4.5</v>
+        <v>2.84</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,43 +2353,43 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AE14" t="n">
         <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG14" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2425,19 +2425,19 @@
         <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
         <v>1.24</v>
@@ -2455,25 +2455,25 @@
         <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R15" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="T15" t="n">
-        <v>1.03</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>2.44</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="X15" t="n">
         <v>980</v>
@@ -2491,7 +2491,7 @@
         <v>16</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AD15" t="n">
         <v>980</v>
@@ -2506,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G16" t="n">
         <v>1.51</v>
       </c>
       <c r="H16" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="I16" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K16" t="n">
         <v>6.2</v>
@@ -2581,7 +2581,7 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>1.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.12</v>
@@ -2593,19 +2593,19 @@
         <v>1.37</v>
       </c>
       <c r="R16" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="T16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U16" t="n">
         <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W16" t="n">
         <v>2.96</v>
@@ -2617,52 +2617,52 @@
         <v>48</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.58</v>
+        <v>1.71</v>
       </c>
       <c r="R17" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S17" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U17" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="W17" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="X17" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>24</v>
       </c>
-      <c r="Y17" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>23</v>
-      </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="I18" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="S18" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="V18" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>2.52</v>
       </c>
       <c r="X18" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AC18" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H19" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
         <v>4.4</v>
@@ -2995,28 +2995,28 @@
         <v>2.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S19" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T19" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U19" t="n">
         <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W19" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y19" t="n">
         <v>18</v>
@@ -3031,37 +3031,37 @@
         <v>20</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF19" t="n">
         <v>28</v>
       </c>
       <c r="AG19" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>36</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
         <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
         <v>23</v>
@@ -3100,19 +3100,19 @@
         <v>1.61</v>
       </c>
       <c r="G20" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
         <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.27</v>
@@ -3121,34 +3121,34 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="O20" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="R20" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="S20" t="n">
-        <v>1.66</v>
+        <v>2.42</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3238,13 +3238,13 @@
         <v>2.36</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
         <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
         <v>3.95</v>
@@ -3256,28 +3256,28 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>1.1</v>
+        <v>3.85</v>
       </c>
       <c r="O21" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.7</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.69</v>
-      </c>
       <c r="U21" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V21" t="n">
         <v>1.36</v>
@@ -3286,64 +3286,64 @@
         <v>1.74</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH21" t="n">
         <v>21</v>
       </c>
-      <c r="Z21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>25</v>
-      </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL21" t="n">
         <v>44</v>
       </c>
-      <c r="AK21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>50</v>
-      </c>
       <c r="AM21" t="n">
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Odds BK</t>
+          <t>HJK Helsinki</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.4</v>
+        <v>1.97</v>
       </c>
       <c r="G22" t="n">
-        <v>7.6</v>
+        <v>2.02</v>
       </c>
       <c r="H22" t="n">
-        <v>1.48</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.57</v>
+        <v>3.55</v>
       </c>
       <c r="J22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K22" t="n">
         <v>4.8</v>
       </c>
-      <c r="K22" t="n">
-        <v>5.6</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>3.45</v>
+        <v>7.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P22" t="n">
-        <v>2.4</v>
+        <v>3.15</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R22" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="T22" t="n">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="V22" t="n">
-        <v>2.74</v>
+        <v>1.39</v>
       </c>
       <c r="W22" t="n">
-        <v>1.15</v>
+        <v>1.98</v>
       </c>
       <c r="X22" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="Z22" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AA22" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AC22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AF22" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="AG22" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AH22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO22" t="n">
         <v>24</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>6.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Estonian Premier League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,73 +3493,73 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HJK Helsinki</t>
+          <t>FCI Tallinn</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Paide Linnameeskond</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.97</v>
+        <v>1.82</v>
       </c>
       <c r="G23" t="n">
         <v>1.99</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.55</v>
+        <v>5.7</v>
       </c>
       <c r="J23" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>7.4</v>
+        <v>3.85</v>
       </c>
       <c r="O23" t="n">
-        <v>1.13</v>
+        <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.42</v>
+        <v>1.81</v>
       </c>
       <c r="R23" t="n">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="S23" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>1.44</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.96</v>
+        <v>2.08</v>
       </c>
       <c r="V23" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="W23" t="n">
         <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z23" t="n">
         <v>42</v>
@@ -3568,52 +3568,52 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
         <v>12.5</v>
       </c>
       <c r="AH23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
         <v>14.5</v>
       </c>
-      <c r="AI23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FCI Tallinn</t>
+          <t>Odds BK</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Paide Linnameeskond</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.82</v>
+        <v>5.5</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>1.47</v>
       </c>
       <c r="I24" t="n">
-        <v>5.3</v>
+        <v>1.56</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.38</v>
+        <v>1.66</v>
       </c>
       <c r="S24" t="n">
-        <v>3.05</v>
+        <v>2.22</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="U24" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.22</v>
+        <v>2.78</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>1.15</v>
       </c>
       <c r="X24" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AB24" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ24" t="n">
         <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="25">
@@ -3772,55 +3772,55 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="G25" t="n">
         <v>2.06</v>
       </c>
       <c r="H25" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
         <v>4.4</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.85</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R25" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="S25" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T25" t="n">
         <v>1.65</v>
       </c>
       <c r="U25" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="V25" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W25" t="n">
         <v>1.94</v>
@@ -3829,7 +3829,7 @@
         <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3838,25 +3838,25 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG25" t="n">
         <v>13</v>
       </c>
-      <c r="AD25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,73 +3907,73 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G26" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H26" t="n">
         <v>10.5</v>
       </c>
       <c r="I26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
         <v>5.6</v>
       </c>
       <c r="K26" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R26" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S26" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="T26" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U26" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V26" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W26" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="X26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA26" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="AB26" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC26" t="n">
         <v>12.5</v>
@@ -3994,25 +3994,25 @@
         <v>29</v>
       </c>
       <c r="AI26" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM26" t="n">
         <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AO26" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G27" t="n">
         <v>1.63</v>
@@ -4057,37 +4057,37 @@
         <v>4.9</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L27" t="n">
         <v>1.23</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O27" t="n">
         <v>1.13</v>
       </c>
       <c r="P27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R27" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="S27" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="U27" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="V27" t="n">
         <v>1.21</v>
@@ -4096,7 +4096,7 @@
         <v>2.58</v>
       </c>
       <c r="X27" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Y27" t="n">
         <v>36</v>
@@ -4132,10 +4132,10 @@
         <v>46</v>
       </c>
       <c r="AJ27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
         <v>22</v>
@@ -4144,7 +4144,7 @@
         <v>55</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AO27" t="n">
         <v>34</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.25</v>
+        <v>1.88</v>
       </c>
       <c r="G28" t="n">
-        <v>3.35</v>
+        <v>2.08</v>
       </c>
       <c r="H28" t="n">
-        <v>2.34</v>
+        <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>2.38</v>
+        <v>5.9</v>
       </c>
       <c r="J28" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>4</v>
+        <v>2.44</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="P28" t="n">
-        <v>2.12</v>
+        <v>1.56</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="R28" t="n">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="S28" t="n">
-        <v>2.56</v>
+        <v>3.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.64</v>
+        <v>2.06</v>
       </c>
       <c r="U28" t="n">
-        <v>2.42</v>
+        <v>1.76</v>
       </c>
       <c r="V28" t="n">
-        <v>1.73</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.43</v>
+        <v>1.92</v>
       </c>
       <c r="X28" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y28" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y28" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Z28" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF28" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>25</v>
-      </c>
       <c r="AG28" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AJ28" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="AN28" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.34</v>
+        <v>3.25</v>
       </c>
       <c r="G29" t="n">
-        <v>2.46</v>
+        <v>3.45</v>
       </c>
       <c r="H29" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="I29" t="n">
-        <v>3.45</v>
+        <v>2.36</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="S29" t="n">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="T29" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="U29" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="V29" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.4</v>
       </c>
-      <c r="W29" t="n">
-        <v>1.68</v>
-      </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN29" t="n">
         <v>29</v>
       </c>
-      <c r="AA29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO29" t="n">
-        <v>40</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.87</v>
+        <v>2.3</v>
       </c>
       <c r="G30" t="n">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="I30" t="n">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K30" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L30" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>2.44</v>
+        <v>3.7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.56</v>
+        <v>1.98</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.46</v>
+        <v>1.9</v>
       </c>
       <c r="R30" t="n">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="S30" t="n">
-        <v>3.45</v>
+        <v>2.88</v>
       </c>
       <c r="T30" t="n">
-        <v>2.06</v>
+        <v>1.71</v>
       </c>
       <c r="U30" t="n">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="W30" t="n">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="X30" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AC30" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM30" t="n">
-        <v>230</v>
+        <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="G31" t="n">
         <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="I31" t="n">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="J31" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>2.82</v>
+        <v>5.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>1.68</v>
+        <v>2.48</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="R31" t="n">
-        <v>1.19</v>
+        <v>1.59</v>
       </c>
       <c r="S31" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.03</v>
+        <v>1.82</v>
       </c>
       <c r="U31" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="V31" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="G32" t="n">
-        <v>2.34</v>
+        <v>5.3</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>1.66</v>
       </c>
       <c r="J32" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="K32" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>5.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="P32" t="n">
-        <v>2.46</v>
+        <v>3.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.64</v>
+        <v>1.39</v>
       </c>
       <c r="R32" t="n">
-        <v>1.59</v>
+        <v>2.04</v>
       </c>
       <c r="S32" t="n">
-        <v>2.58</v>
+        <v>1.94</v>
       </c>
       <c r="T32" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="U32" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="V32" t="n">
-        <v>1.43</v>
+        <v>2.52</v>
       </c>
       <c r="W32" t="n">
-        <v>1.74</v>
+        <v>1.23</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="Y32" t="n">
         <v>17.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AA32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF32" t="n">
         <v>55</v>
       </c>
-      <c r="AB32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>17</v>
-      </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AH32" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AK32" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AL32" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="AM32" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AN32" t="n">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="AO32" t="n">
-        <v>22</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.05</v>
+        <v>1.26</v>
       </c>
       <c r="G33" t="n">
-        <v>3.1</v>
+        <v>1.27</v>
       </c>
       <c r="H33" t="n">
-        <v>2.46</v>
+        <v>12</v>
       </c>
       <c r="I33" t="n">
-        <v>2.5</v>
+        <v>13</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="K33" t="n">
-        <v>3.75</v>
+        <v>7.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="P33" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="R33" t="n">
-        <v>1.56</v>
+        <v>1.98</v>
       </c>
       <c r="S33" t="n">
-        <v>2.68</v>
+        <v>2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="U33" t="n">
-        <v>2.68</v>
+        <v>2.1</v>
       </c>
       <c r="V33" t="n">
-        <v>1.67</v>
+        <v>1.08</v>
       </c>
       <c r="W33" t="n">
-        <v>1.47</v>
+        <v>4.6</v>
       </c>
       <c r="X33" t="n">
-        <v>18.5</v>
+        <v>42</v>
       </c>
       <c r="Y33" t="n">
-        <v>14.5</v>
+        <v>60</v>
       </c>
       <c r="Z33" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="AA33" t="n">
-        <v>34</v>
+        <v>550</v>
       </c>
       <c r="AB33" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.6</v>
+        <v>17</v>
       </c>
       <c r="AD33" t="n">
-        <v>11.5</v>
+        <v>44</v>
       </c>
       <c r="AE33" t="n">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AI33" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AJ33" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="AK33" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AL33" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM33" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN33" t="n">
-        <v>20</v>
+        <v>3.35</v>
       </c>
       <c r="AO33" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="G34" t="n">
-        <v>1.49</v>
+        <v>1.21</v>
       </c>
       <c r="H34" t="n">
-        <v>7.4</v>
+        <v>17.5</v>
       </c>
       <c r="I34" t="n">
-        <v>7.6</v>
+        <v>18.5</v>
       </c>
       <c r="J34" t="n">
-        <v>5.2</v>
+        <v>8.6</v>
       </c>
       <c r="K34" t="n">
-        <v>5.3</v>
+        <v>9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>5.6</v>
+        <v>10</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="P34" t="n">
-        <v>2.56</v>
+        <v>4.1</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>2.24</v>
       </c>
       <c r="S34" t="n">
-        <v>2.54</v>
+        <v>1.74</v>
       </c>
       <c r="T34" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U34" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V34" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="W34" t="n">
-        <v>3.05</v>
+        <v>5.8</v>
       </c>
       <c r="X34" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Y34" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>240</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL34" t="n">
         <v>30</v>
       </c>
-      <c r="Z34" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>28</v>
-      </c>
       <c r="AM34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN34" t="n">
-        <v>5.6</v>
+        <v>2.74</v>
       </c>
       <c r="AO34" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F35" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O35" t="n">
         <v>1.2</v>
       </c>
-      <c r="G35" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H35" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="P35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X35" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y35" t="n">
         <v>18.5</v>
       </c>
-      <c r="J35" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="Z35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC35" t="n">
         <v>9</v>
       </c>
-      <c r="L35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N35" t="n">
-        <v>10</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P35" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W35" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X35" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>250</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC35" t="n">
+      <c r="AD35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO35" t="n">
         <v>22</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>270</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.26</v>
+        <v>3.05</v>
       </c>
       <c r="G36" t="n">
-        <v>1.27</v>
+        <v>3.15</v>
       </c>
       <c r="H36" t="n">
-        <v>13</v>
+        <v>2.46</v>
       </c>
       <c r="I36" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG36" t="n">
         <v>13.5</v>
       </c>
-      <c r="J36" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K36" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N36" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W36" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="X36" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>550</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>11</v>
-      </c>
       <c r="AH36" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="AJ36" t="n">
-        <v>10.5</v>
+        <v>48</v>
       </c>
       <c r="AK36" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AL36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM36" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.5</v>
+        <v>20</v>
       </c>
       <c r="AO36" t="n">
-        <v>140</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.5</v>
+        <v>1.39</v>
       </c>
       <c r="G37" t="n">
-        <v>5.6</v>
+        <v>1.45</v>
       </c>
       <c r="H37" t="n">
-        <v>1.6</v>
+        <v>10</v>
       </c>
       <c r="I37" t="n">
-        <v>1.61</v>
+        <v>16</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="K37" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>8</v>
+        <v>2.82</v>
       </c>
       <c r="O37" t="n">
-        <v>1.13</v>
+        <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="R37" t="n">
-        <v>2.02</v>
+        <v>1.27</v>
       </c>
       <c r="S37" t="n">
-        <v>1.95</v>
+        <v>3.55</v>
       </c>
       <c r="T37" t="n">
-        <v>1.5</v>
+        <v>2.38</v>
       </c>
       <c r="U37" t="n">
-        <v>2.86</v>
+        <v>1.44</v>
       </c>
       <c r="V37" t="n">
-        <v>2.6</v>
+        <v>1.07</v>
       </c>
       <c r="W37" t="n">
-        <v>1.21</v>
+        <v>3.15</v>
       </c>
       <c r="X37" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5518,85 +5518,85 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="G38" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H38" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I38" t="n">
         <v>7.8</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K38" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P38" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="Q38" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R38" t="n">
         <v>1.63</v>
       </c>
-      <c r="R38" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S38" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="T38" t="n">
         <v>1.81</v>
       </c>
       <c r="U38" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V38" t="n">
         <v>1.14</v>
       </c>
       <c r="W38" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X38" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y38" t="n">
         <v>30</v>
       </c>
       <c r="Z38" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA38" t="n">
         <v>220</v>
       </c>
       <c r="AB38" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD38" t="n">
         <v>27</v>
@@ -5605,40 +5605,40 @@
         <v>95</v>
       </c>
       <c r="AF38" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG38" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK38" t="n">
         <v>13.5</v>
       </c>
-      <c r="AK38" t="n">
-        <v>14</v>
-      </c>
       <c r="AL38" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM38" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN38" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AO38" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,123 +5648,123 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Carabobo FC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.86</v>
+        <v>1.38</v>
       </c>
       <c r="G39" t="n">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="H39" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="I39" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="J39" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L39" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>3.5</v>
+        <v>1.73</v>
       </c>
       <c r="O39" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="R39" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="S39" t="n">
-        <v>3.15</v>
+        <v>1.81</v>
       </c>
       <c r="T39" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U39" t="n">
-        <v>1.99</v>
+        <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W39" t="n">
-        <v>2.06</v>
+        <v>2.52</v>
       </c>
       <c r="X39" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
         <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
         <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="G40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W40" t="n">
         <v>2.04</v>
       </c>
-      <c r="H40" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S40" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.96</v>
-      </c>
       <c r="X40" t="n">
-        <v>7.2</v>
+        <v>16</v>
       </c>
       <c r="Y40" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Z40" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AB40" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="AC40" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD40" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AE40" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AI40" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK40" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL40" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,261 +5918,801 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5.3</v>
+        <v>1.99</v>
       </c>
       <c r="G41" t="n">
-        <v>6.2</v>
+        <v>2.04</v>
       </c>
       <c r="H41" t="n">
-        <v>1.76</v>
+        <v>5.2</v>
       </c>
       <c r="I41" t="n">
-        <v>1.84</v>
+        <v>5.7</v>
       </c>
       <c r="J41" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="L41" t="n">
-        <v>1.37</v>
+        <v>1.66</v>
       </c>
       <c r="M41" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="N41" t="n">
-        <v>3.2</v>
+        <v>2.34</v>
       </c>
       <c r="O41" t="n">
-        <v>1.38</v>
+        <v>1.69</v>
       </c>
       <c r="P41" t="n">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="R41" t="n">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="S41" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="T41" t="n">
-        <v>2.02</v>
+        <v>2.56</v>
       </c>
       <c r="U41" t="n">
-        <v>1.84</v>
+        <v>1.58</v>
       </c>
       <c r="V41" t="n">
-        <v>2.16</v>
+        <v>1.21</v>
       </c>
       <c r="W41" t="n">
-        <v>1.2</v>
+        <v>1.96</v>
       </c>
       <c r="X41" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Z41" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB41" t="n">
-        <v>20</v>
+        <v>5.9</v>
       </c>
       <c r="AC41" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG41" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE41" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ41" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="AK41" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AL41" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AM41" t="n">
-        <v>190</v>
+        <v>410</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO41" t="n">
-        <v>17.5</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Venezuelan Primera Division</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Deportivo Tachira</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Caracas</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N43" t="n">
+        <v>6</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X43" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>2025-10-22</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Pachuca</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Tigres</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="F44" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G44" t="n">
         <v>2.9</v>
       </c>
-      <c r="H42" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="H44" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I44" t="n">
         <v>2.88</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J44" t="n">
         <v>3.4</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K44" t="n">
         <v>3.75</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L44" t="n">
         <v>1.32</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M44" t="n">
         <v>1.06</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N44" t="n">
         <v>3.8</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O44" t="n">
         <v>1.3</v>
       </c>
-      <c r="P42" t="n">
+      <c r="P44" t="n">
         <v>1.97</v>
       </c>
-      <c r="Q42" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R42" t="n">
+      <c r="Q44" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R44" t="n">
         <v>1.38</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S44" t="n">
         <v>3.25</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T44" t="n">
         <v>1.71</v>
       </c>
-      <c r="U42" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V42" t="n">
+      <c r="U44" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V44" t="n">
         <v>1.53</v>
       </c>
-      <c r="W42" t="n">
+      <c r="W44" t="n">
         <v>1.54</v>
       </c>
-      <c r="X42" t="n">
+      <c r="X44" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Y44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X45" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z45" t="n">
         <v>12</v>
       </c>
-      <c r="Z42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD42" t="n">
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>23:30:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N46" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X46" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH46" t="n">
         <v>15.5</v>
       </c>
-      <c r="AE42" t="n">
+      <c r="AI46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>36</v>
       </c>
-      <c r="AF42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>30</v>
+      <c r="AK46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.85</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="T2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U2" t="n">
         <v>2.42</v>
       </c>
       <c r="V2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="n">
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>15.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
         <v>16</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN2" t="n">
         <v>12</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.35</v>
@@ -826,88 +826,88 @@
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P3" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.22</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.14</v>
       </c>
       <c r="V3" t="n">
         <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>23</v>
       </c>
-      <c r="Y3" t="n">
-        <v>980</v>
-      </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -940,19 +940,19 @@
         <v>1.23</v>
       </c>
       <c r="G4" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H4" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="I4" t="n">
         <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
         <v>1.4</v>
@@ -967,22 +967,22 @@
         <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
         <v>1.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
         <v>3.05</v>
       </c>
       <c r="U4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V4" t="n">
         <v>1.03</v>
@@ -1006,7 +1006,7 @@
         <v>6.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AD4" t="n">
         <v>980</v>
@@ -1018,7 +1018,7 @@
         <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
         <v>980</v>
@@ -1030,7 +1030,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="G5" t="n">
         <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>2.96</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1105,13 +1105,13 @@
         <v>1.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="R5" t="n">
         <v>1.13</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,10 +1120,10 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>2.86</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>1.39</v>
       </c>
       <c r="I7" t="n">
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1375,7 +1375,7 @@
         <v>1.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="R7" t="n">
         <v>1.13</v>
@@ -1390,7 +1390,7 @@
         <v>1.03</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W7" t="n">
         <v>1.01</v>
@@ -1477,46 +1477,46 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G8" t="n">
         <v>4.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
         <v>1.48</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.64</v>
+        <v>1.59</v>
       </c>
       <c r="O8" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
         <v>1.92</v>
@@ -1531,25 +1531,25 @@
         <v>1.32</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA8" t="n">
         <v>40</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>36</v>
@@ -1558,10 +1558,10 @@
         <v>32</v>
       </c>
       <c r="AG8" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>60</v>
@@ -1570,16 +1570,16 @@
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AO8" t="n">
         <v>32</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,34 +1636,34 @@
         <v>1.03</v>
       </c>
       <c r="N9" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U9" t="n">
         <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="I10" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="J10" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="K10" t="n">
         <v>12.5</v>
@@ -1771,31 +1771,31 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>3.45</v>
+        <v>2.66</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="R10" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="S10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T10" t="n">
         <v>1.9</v>
       </c>
-      <c r="T10" t="n">
-        <v>1.89</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V10" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="W10" t="n">
         <v>1.07</v>
@@ -1822,7 +1822,7 @@
         <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="11">
@@ -1888,19 +1888,19 @@
         <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="I11" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="K11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -1912,31 +1912,31 @@
         <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R11" t="n">
         <v>1.77</v>
       </c>
       <c r="S11" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T11" t="n">
         <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
         <v>1.12</v>
       </c>
       <c r="W11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X11" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="Y11" t="n">
         <v>48</v>
@@ -1945,19 +1945,19 @@
         <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB11" t="n">
         <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>130</v>
+        <v>460</v>
       </c>
       <c r="AF11" t="n">
         <v>11.5</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G12" t="n">
         <v>1.89</v>
       </c>
       <c r="H12" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I12" t="n">
         <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
@@ -2047,7 +2047,7 @@
         <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q12" t="n">
         <v>1.75</v>
@@ -2065,10 +2065,10 @@
         <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2098,7 +2098,7 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2161,13 +2161,13 @@
         <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="J13" t="n">
         <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.19</v>
@@ -2176,7 +2176,7 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.14</v>
@@ -2200,16 +2200,16 @@
         <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W13" t="n">
         <v>4.7</v>
       </c>
       <c r="X13" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="Y13" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2224,19 +2224,19 @@
         <v>18.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AG13" t="n">
         <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2248,7 +2248,7 @@
         <v>14.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K14" t="n">
         <v>6.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.7</v>
       </c>
       <c r="L14" t="n">
         <v>1.21</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
         <v>6</v>
@@ -2317,34 +2317,34 @@
         <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R14" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="T14" t="n">
         <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="V14" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="W14" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="X14" t="n">
         <v>980</v>
       </c>
       <c r="Y14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2356,7 +2356,7 @@
         <v>15.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AD14" t="n">
         <v>32</v>
@@ -2380,10 +2380,10 @@
         <v>16.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2422,37 +2422,37 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.24</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q15" t="n">
         <v>1.55</v>
@@ -2461,22 +2461,22 @@
         <v>1.62</v>
       </c>
       <c r="S15" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U15" t="n">
         <v>2.44</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="n">
         <v>980</v>
@@ -2488,25 +2488,25 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
         <v>1000</v>
@@ -2515,13 +2515,13 @@
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN15" t="n">
         <v>8.800000000000001</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G16" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="H16" t="n">
         <v>6.2</v>
@@ -2569,13 +2569,13 @@
         <v>7.8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K16" t="n">
         <v>6.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
@@ -2587,7 +2587,7 @@
         <v>1.12</v>
       </c>
       <c r="P16" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="Q16" t="n">
         <v>1.37</v>
@@ -2602,22 +2602,22 @@
         <v>1.58</v>
       </c>
       <c r="U16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
         <v>1.14</v>
       </c>
       <c r="W16" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
         <v>48</v>
       </c>
       <c r="Y16" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="Z16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
@@ -2632,10 +2632,10 @@
         <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
@@ -2644,7 +2644,7 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ16" t="n">
         <v>15.5</v>
@@ -2659,10 +2659,10 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="G17" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2722,16 +2722,16 @@
         <v>1.24</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
         <v>1.71</v>
       </c>
       <c r="R17" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S17" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="T17" t="n">
         <v>1.71</v>
@@ -2740,16 +2740,16 @@
         <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.5</v>
+        <v>44</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2761,16 +2761,16 @@
         <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
         <v>10.5</v>
@@ -2782,10 +2782,10 @@
         <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO17" t="n">
         <v>60</v>
@@ -2827,58 +2827,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="H18" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="I18" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="J18" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K18" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
         <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R18" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="S18" t="n">
         <v>2.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="W18" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="X18" t="n">
         <v>32</v>
@@ -2893,7 +2893,7 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
         <v>14.5</v>
@@ -2902,10 +2902,10 @@
         <v>28</v>
       </c>
       <c r="AE18" t="n">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG18" t="n">
         <v>11.5</v>
@@ -2917,19 +2917,19 @@
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AO18" t="n">
         <v>60</v>
@@ -2965,37 +2965,37 @@
         <v>2.78</v>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I19" t="n">
         <v>2.58</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R19" t="n">
         <v>1.56</v>
@@ -3007,7 +3007,7 @@
         <v>1.54</v>
       </c>
       <c r="U19" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="V19" t="n">
         <v>1.63</v>
@@ -3016,7 +3016,7 @@
         <v>1.47</v>
       </c>
       <c r="X19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
         <v>18</v>
@@ -3031,13 +3031,13 @@
         <v>20</v>
       </c>
       <c r="AC19" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
         <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF19" t="n">
         <v>28</v>
@@ -3046,7 +3046,7 @@
         <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AI19" t="n">
         <v>36</v>
@@ -3058,7 +3058,7 @@
         <v>36</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
         <v>70</v>
@@ -3097,46 +3097,46 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K20" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="O20" t="n">
         <v>1.23</v>
       </c>
       <c r="P20" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="R20" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="S20" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="T20" t="n">
         <v>1.71</v>
@@ -3148,7 +3148,7 @@
         <v>1.19</v>
       </c>
       <c r="W20" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3166,7 +3166,7 @@
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -3244,16 +3244,16 @@
         <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L21" t="n">
         <v>1.37</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
         <v>3.85</v>
@@ -3274,7 +3274,7 @@
         <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="U21" t="n">
         <v>2.18</v>
@@ -3295,10 +3295,10 @@
         <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC21" t="n">
         <v>10</v>
@@ -3313,7 +3313,7 @@
         <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
@@ -3331,7 +3331,7 @@
         <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
         <v>19.5</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G22" t="n">
         <v>2.02</v>
@@ -3376,16 +3376,16 @@
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -3415,7 +3415,7 @@
         <v>3.05</v>
       </c>
       <c r="V22" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W22" t="n">
         <v>1.98</v>
@@ -3424,28 +3424,28 @@
         <v>44</v>
       </c>
       <c r="Y22" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="Z22" t="n">
         <v>42</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AB22" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
         <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE22" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AF22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
@@ -3457,13 +3457,13 @@
         <v>50</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AM22" t="n">
         <v>55</v>
@@ -3472,7 +3472,7 @@
         <v>7</v>
       </c>
       <c r="AO22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -3502,58 +3502,58 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="G23" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
         <v>5.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L23" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
         <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="R23" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T23" t="n">
         <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X23" t="n">
         <v>20</v>
@@ -3577,13 +3577,13 @@
         <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
@@ -3592,19 +3592,19 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="G24" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H24" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="I24" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="J24" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="K24" t="n">
         <v>5.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -3664,34 +3664,34 @@
         <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P24" t="n">
         <v>2.52</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R24" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="S24" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="T24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="U24" t="n">
         <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="W24" t="n">
         <v>1.15</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
@@ -3703,7 +3703,7 @@
         <v>15</v>
       </c>
       <c r="AB24" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AC24" t="n">
         <v>13</v>
@@ -3718,7 +3718,7 @@
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
@@ -3772,64 +3772,64 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="G25" t="n">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="H25" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J25" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L25" t="n">
         <v>1.34</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="R25" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S25" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="T25" t="n">
         <v>1.65</v>
       </c>
       <c r="U25" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V25" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W25" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y25" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3838,13 +3838,13 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
@@ -3856,7 +3856,7 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3865,16 +3865,16 @@
         <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="G26" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" t="n">
         <v>10.5</v>
       </c>
-      <c r="I26" t="n">
-        <v>11</v>
-      </c>
       <c r="J26" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="K26" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.32</v>
@@ -3931,25 +3931,25 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
         <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R26" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S26" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="T26" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U26" t="n">
         <v>1.88</v>
@@ -3958,43 +3958,43 @@
         <v>1.1</v>
       </c>
       <c r="W26" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="n">
         <v>34</v>
       </c>
       <c r="Z26" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA26" t="n">
         <v>400</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD26" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE26" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF26" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>10.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI26" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ26" t="n">
         <v>11</v>
@@ -4003,13 +4003,13 @@
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="n">
         <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AO26" t="n">
         <v>190</v>
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G27" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="H27" t="n">
         <v>5.5</v>
@@ -4054,10 +4054,10 @@
         <v>5.6</v>
       </c>
       <c r="J27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5.1</v>
       </c>
       <c r="L27" t="n">
         <v>1.23</v>
@@ -4066,25 +4066,25 @@
         <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O27" t="n">
         <v>1.13</v>
       </c>
       <c r="P27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R27" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="S27" t="n">
         <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="U27" t="n">
         <v>2.86</v>
@@ -4093,10 +4093,10 @@
         <v>1.21</v>
       </c>
       <c r="W27" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="X27" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Y27" t="n">
         <v>36</v>
@@ -4105,49 +4105,49 @@
         <v>55</v>
       </c>
       <c r="AA27" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC27" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
         <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK27" t="n">
         <v>14</v>
       </c>
       <c r="AL27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN27" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AO27" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G28" t="n">
         <v>2.08</v>
@@ -4210,7 +4210,7 @@
         <v>1.56</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="R28" t="n">
         <v>1.2</v>
@@ -4222,7 +4222,7 @@
         <v>2.06</v>
       </c>
       <c r="U28" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V28" t="n">
         <v>1.2</v>
@@ -4231,11 +4231,11 @@
         <v>1.92</v>
       </c>
       <c r="X28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y28" t="n">
         <v>980</v>
       </c>
-      <c r="Y28" t="n">
-        <v>17.5</v>
-      </c>
       <c r="Z28" t="n">
         <v>1000</v>
       </c>
@@ -4243,10 +4243,10 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD28" t="n">
         <v>1000</v>
@@ -4255,16 +4255,16 @@
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AH28" t="n">
         <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>130</v>
+        <v>540</v>
       </c>
       <c r="AJ28" t="n">
         <v>1000</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I29" t="n">
         <v>2.36</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
         <v>1.36</v>
@@ -4336,7 +4336,7 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O29" t="n">
         <v>1.26</v>
@@ -4345,28 +4345,28 @@
         <v>2.14</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R29" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S29" t="n">
-        <v>2.56</v>
+        <v>2.92</v>
       </c>
       <c r="T29" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U29" t="n">
         <v>2.42</v>
       </c>
       <c r="V29" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="W29" t="n">
         <v>1.4</v>
       </c>
       <c r="X29" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="n">
         <v>12.5</v>
@@ -4396,7 +4396,7 @@
         <v>14.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
         <v>34</v>
@@ -4408,13 +4408,13 @@
         <v>36</v>
       </c>
       <c r="AL29" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AM29" t="n">
         <v>75</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO29" t="n">
         <v>15.5</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I30" t="n">
         <v>3.35</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.55</v>
       </c>
       <c r="L30" t="n">
         <v>1.41</v>
@@ -4471,43 +4471,43 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R30" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S30" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="T30" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U30" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V30" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="W30" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="X30" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
@@ -4516,43 +4516,43 @@
         <v>11</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE30" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG30" t="n">
         <v>11.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL30" t="n">
         <v>38</v>
       </c>
-      <c r="AK30" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>44</v>
-      </c>
       <c r="AM30" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -4582,70 +4582,70 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.49</v>
       </c>
-      <c r="G31" t="n">
-        <v>1.5</v>
-      </c>
       <c r="H31" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I31" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
         <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R31" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="S31" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="T31" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U31" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V31" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W31" t="n">
         <v>3</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y31" t="n">
         <v>30</v>
       </c>
       <c r="Z31" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA31" t="n">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="AB31" t="n">
         <v>10.5</v>
@@ -4663,31 +4663,31 @@
         <v>9.4</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
         <v>85</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>14</v>
       </c>
       <c r="AL31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM31" t="n">
         <v>100</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AO31" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.1</v>
+        <v>1.19</v>
       </c>
       <c r="G32" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H32" t="n">
-        <v>1.65</v>
+        <v>19</v>
       </c>
       <c r="I32" t="n">
-        <v>1.66</v>
+        <v>20</v>
       </c>
       <c r="J32" t="n">
-        <v>4.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>5.1</v>
+        <v>9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="P32" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="R32" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="S32" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="T32" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="U32" t="n">
-        <v>2.92</v>
+        <v>2.14</v>
       </c>
       <c r="V32" t="n">
-        <v>2.52</v>
+        <v>1.05</v>
       </c>
       <c r="W32" t="n">
-        <v>1.23</v>
+        <v>6</v>
       </c>
       <c r="X32" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="Y32" t="n">
-        <v>17.5</v>
+        <v>100</v>
       </c>
       <c r="Z32" t="n">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
         <v>19</v>
       </c>
-      <c r="AB32" t="n">
-        <v>36</v>
-      </c>
       <c r="AC32" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AD32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>250</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>120</v>
-      </c>
       <c r="AK32" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AM32" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AN32" t="n">
-        <v>30</v>
+        <v>2.6</v>
       </c>
       <c r="AO32" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="G33" t="n">
-        <v>1.27</v>
+        <v>1.47</v>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="J33" t="n">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="K33" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="M33" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="O33" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="R33" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="T33" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U33" t="n">
         <v>2.1</v>
       </c>
       <c r="V33" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="W33" t="n">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="X33" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="Y33" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="Z33" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AA33" t="n">
-        <v>550</v>
+        <v>240</v>
       </c>
       <c r="AB33" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AE33" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AI33" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AJ33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK33" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AL33" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM33" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="G34" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5</v>
+      </c>
+      <c r="L34" t="n">
         <v>1.21</v>
       </c>
-      <c r="H34" t="n">
+      <c r="M34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X34" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y34" t="n">
         <v>17.5</v>
       </c>
-      <c r="I34" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>9</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N34" t="n">
-        <v>10</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="W34" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF34" t="n">
         <v>55</v>
       </c>
-      <c r="Y34" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>240</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>12</v>
-      </c>
       <c r="AG34" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AH34" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11.5</v>
+        <v>120</v>
       </c>
       <c r="AK34" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="AL34" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>48</v>
+      </c>
+      <c r="AN34" t="n">
         <v>30</v>
       </c>
-      <c r="AM34" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>2.74</v>
-      </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="35">
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="G35" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H35" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J35" t="n">
         <v>3.8</v>
@@ -5140,85 +5140,85 @@
         <v>3.85</v>
       </c>
       <c r="L35" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="R35" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S35" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T35" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U35" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="V35" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="X35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y35" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA35" t="n">
         <v>60</v>
       </c>
       <c r="AB35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD35" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE35" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF35" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
         <v>14.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AJ35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK35" t="n">
         <v>21</v>
       </c>
       <c r="AL35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM35" t="n">
         <v>60</v>
@@ -5227,7 +5227,7 @@
         <v>12</v>
       </c>
       <c r="AO35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G36" t="n">
         <v>3.15</v>
       </c>
       <c r="H36" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I36" t="n">
         <v>2.46</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.48</v>
       </c>
       <c r="J36" t="n">
         <v>3.65</v>
@@ -5281,40 +5281,40 @@
         <v>1.05</v>
       </c>
       <c r="N36" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O36" t="n">
         <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R36" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S36" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T36" t="n">
         <v>1.57</v>
       </c>
       <c r="U36" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="V36" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W36" t="n">
         <v>1.46</v>
       </c>
       <c r="X36" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y36" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z36" t="n">
         <v>18</v>
@@ -5326,7 +5326,7 @@
         <v>16.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD36" t="n">
         <v>11.5</v>
@@ -5341,10 +5341,10 @@
         <v>13.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI36" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ36" t="n">
         <v>48</v>
@@ -5359,7 +5359,7 @@
         <v>60</v>
       </c>
       <c r="AN36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO36" t="n">
         <v>14</v>
@@ -5398,13 +5398,13 @@
         <v>1.45</v>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J37" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
         <v>4.6</v>
@@ -5413,25 +5413,25 @@
         <v>1.37</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="O37" t="n">
         <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R37" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S37" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T37" t="n">
         <v>2.38</v>
@@ -5440,10 +5440,10 @@
         <v>1.44</v>
       </c>
       <c r="V37" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W37" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="G38" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="H38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>13</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K38" t="n">
         <v>7.6</v>
       </c>
-      <c r="I38" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L38" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="O38" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P38" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.61</v>
+        <v>1.41</v>
       </c>
       <c r="R38" t="n">
-        <v>1.63</v>
+        <v>1.96</v>
       </c>
       <c r="S38" t="n">
-        <v>2.52</v>
+        <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U38" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="V38" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="W38" t="n">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="X38" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Y38" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>130</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>550</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL38" t="n">
         <v>30</v>
       </c>
-      <c r="Z38" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>28</v>
-      </c>
       <c r="AM38" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="G39" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="H39" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I39" t="n">
         <v>1000</v>
@@ -5677,43 +5677,43 @@
         <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="Q39" t="n">
         <v>1.81</v>
       </c>
       <c r="R39" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S39" t="n">
         <v>1.81</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V39" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W39" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5797,82 +5797,82 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G40" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H40" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K40" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L40" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
         <v>3.05</v>
       </c>
       <c r="O40" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P40" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W40" t="n">
         <v>2.06</v>
       </c>
-      <c r="R40" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W40" t="n">
-        <v>2.04</v>
-      </c>
       <c r="X40" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y40" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA40" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB40" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC40" t="n">
         <v>8</v>
       </c>
-      <c r="AC40" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD40" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF40" t="n">
         <v>11</v>
@@ -5881,7 +5881,7 @@
         <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
@@ -5893,7 +5893,7 @@
         <v>22</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM40" t="n">
         <v>150</v>
@@ -5902,7 +5902,7 @@
         <v>17.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41">
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G41" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H41" t="n">
         <v>5.2</v>
       </c>
       <c r="I41" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J41" t="n">
         <v>3.1</v>
@@ -5971,7 +5971,7 @@
         <v>1.13</v>
       </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T41" t="n">
         <v>2.56</v>
@@ -5980,13 +5980,13 @@
         <v>1.58</v>
       </c>
       <c r="V41" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W41" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="X41" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Y41" t="n">
         <v>12</v>
@@ -5995,16 +5995,16 @@
         <v>40</v>
       </c>
       <c r="AA41" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AB41" t="n">
         <v>5.9</v>
       </c>
       <c r="AC41" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE41" t="n">
         <v>130</v>
@@ -6022,7 +6022,7 @@
         <v>180</v>
       </c>
       <c r="AJ41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK41" t="n">
         <v>34</v>
@@ -6031,7 +6031,7 @@
         <v>85</v>
       </c>
       <c r="AM41" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AN41" t="n">
         <v>32</v>
@@ -6067,58 +6067,58 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="G42" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H42" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I42" t="n">
         <v>1000</v>
       </c>
       <c r="J42" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K42" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M42" t="n">
         <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="O42" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="P42" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="R42" t="n">
         <v>1.18</v>
       </c>
       <c r="S42" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="T42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V42" t="n">
         <v>1.01</v>
       </c>
-      <c r="U42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.03</v>
-      </c>
       <c r="W42" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G43" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="H43" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J43" t="n">
+        <v>4</v>
+      </c>
+      <c r="K43" t="n">
         <v>4.1</v>
       </c>
-      <c r="K43" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L43" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
         <v>6</v>
@@ -6235,40 +6235,40 @@
         <v>2.72</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R43" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S43" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T43" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U43" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="V43" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="X43" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y43" t="n">
         <v>24</v>
       </c>
       <c r="Z43" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC43" t="n">
         <v>10.5</v>
@@ -6277,7 +6277,7 @@
         <v>17.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF43" t="n">
         <v>20</v>
@@ -6289,10 +6289,10 @@
         <v>15</v>
       </c>
       <c r="AI43" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ43" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK43" t="n">
         <v>22</v>
@@ -6301,13 +6301,13 @@
         <v>30</v>
       </c>
       <c r="AM43" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN43" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AO43" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -6349,7 +6349,7 @@
         <v>2.88</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K44" t="n">
         <v>3.75</v>
@@ -6388,7 +6388,7 @@
         <v>1.53</v>
       </c>
       <c r="W44" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X44" t="n">
         <v>18.5</v>
@@ -6406,16 +6406,16 @@
         <v>14.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD44" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE44" t="n">
         <v>36</v>
       </c>
       <c r="AF44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG44" t="n">
         <v>15.5</v>
@@ -6508,7 +6508,7 @@
         <v>2.16</v>
       </c>
       <c r="R45" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S45" t="n">
         <v>3.9</v>
@@ -6538,7 +6538,7 @@
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC45" t="n">
         <v>10</v>
@@ -6607,40 +6607,40 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G46" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I46" t="n">
         <v>3.35</v>
       </c>
       <c r="J46" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K46" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
         <v>1.31</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O46" t="n">
         <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R46" t="n">
         <v>1.57</v>
@@ -6658,10 +6658,10 @@
         <v>1.42</v>
       </c>
       <c r="W46" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y46" t="n">
         <v>17.5</v>
@@ -6673,7 +6673,7 @@
         <v>55</v>
       </c>
       <c r="AB46" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC46" t="n">
         <v>9.4</v>
@@ -6682,7 +6682,7 @@
         <v>14.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AF46" t="n">
         <v>17</v>
@@ -6694,22 +6694,22 @@
         <v>15.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ46" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AK46" t="n">
         <v>22</v>
       </c>
       <c r="AL46" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AM46" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO46" t="n">
         <v>23</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="J2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.85</v>
       </c>
       <c r="L2" t="n">
         <v>1.35</v>
@@ -691,88 +691,88 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.24</v>
       </c>
       <c r="P2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R2" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>2.86</v>
       </c>
       <c r="T2" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
         <v>17</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AB2" t="n">
         <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF2" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>14.5</v>
       </c>
       <c r="AG2" t="n">
         <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AK2" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
         <v>75</v>
       </c>
       <c r="AN2" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="G3" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="H3" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.24</v>
       </c>
       <c r="P3" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="T3" t="n">
         <v>1.76</v>
       </c>
       <c r="U3" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD3" t="n">
         <v>23</v>
       </c>
-      <c r="Z3" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>21</v>
-      </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK3" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL3" t="n">
         <v>30</v>
       </c>
       <c r="AM3" t="n">
-        <v>140</v>
+        <v>970</v>
       </c>
       <c r="AN3" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
@@ -937,73 +937,73 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="G4" t="n">
         <v>1.25</v>
       </c>
       <c r="H4" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="I4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T4" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="U4" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="V4" t="n">
         <v>1.03</v>
       </c>
       <c r="W4" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="Y4" t="n">
         <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AC4" t="n">
         <v>980</v>
@@ -1018,7 +1018,7 @@
         <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
         <v>980</v>
@@ -1027,10 +1027,10 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>1.49</v>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>7.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>2.96</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.28</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="S5" t="n">
-        <v>2.66</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>2.28</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>1.53</v>
       </c>
       <c r="V5" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="W5" t="n">
-        <v>1.62</v>
+        <v>3</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,43 +1138,43 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="G6" t="n">
-        <v>600</v>
+        <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.1</v>
+        <v>2.86</v>
       </c>
       <c r="I6" t="n">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>2.86</v>
+        <v>2.64</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>1.25</v>
+        <v>2.36</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>2.6</v>
+        <v>5.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>1.72</v>
       </c>
       <c r="V6" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y6" t="n">
         <v>1000</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1342,91 +1342,91 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>1.72</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>1.29</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.07</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.13</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.01</v>
-      </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="G8" t="n">
         <v>4.1</v>
@@ -1486,10 +1486,10 @@
         <v>2.18</v>
       </c>
       <c r="I8" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
         <v>3.55</v>
@@ -1519,13 +1519,13 @@
         <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.89</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W8" t="n">
         <v>1.32</v>
@@ -1573,7 +1573,7 @@
         <v>230</v>
       </c>
       <c r="AL8" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1615,13 +1615,13 @@
         <v>1.97</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>2.32</v>
       </c>
       <c r="I9" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.7</v>
@@ -1648,19 +1648,19 @@
         <v>1.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
         <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W9" t="n">
         <v>1.52</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
         <v>15.5</v>
@@ -1756,13 +1756,13 @@
         <v>1.22</v>
       </c>
       <c r="I10" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="J10" t="n">
         <v>6.4</v>
       </c>
       <c r="K10" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.2</v>
@@ -1771,19 +1771,19 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>2.66</v>
+        <v>5.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="Q10" t="n">
         <v>1.39</v>
       </c>
       <c r="R10" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="S10" t="n">
         <v>1.98</v>
@@ -1792,7 +1792,7 @@
         <v>1.9</v>
       </c>
       <c r="U10" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V10" t="n">
         <v>4.5</v>
@@ -1822,7 +1822,7 @@
         <v>980</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="11">
@@ -1894,7 +1894,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="K11" t="n">
         <v>6.2</v>
@@ -1909,13 +1909,13 @@
         <v>5.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P11" t="n">
         <v>2.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R11" t="n">
         <v>1.77</v>
@@ -1933,13 +1933,13 @@
         <v>1.12</v>
       </c>
       <c r="W11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X11" t="n">
         <v>980</v>
       </c>
       <c r="Y11" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.3</v>
@@ -2062,13 +2062,13 @@
         <v>1.74</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2095,7 +2095,7 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="n">
         <v>40</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G13" t="n">
         <v>1.27</v>
@@ -2161,7 +2161,7 @@
         <v>13</v>
       </c>
       <c r="I13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="J13" t="n">
         <v>7</v>
@@ -2182,13 +2182,13 @@
         <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="Q13" t="n">
         <v>1.42</v>
       </c>
       <c r="R13" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="S13" t="n">
         <v>2.04</v>
@@ -2209,7 +2209,7 @@
         <v>95</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>150</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.41</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.48</v>
-      </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="I14" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="J14" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="K14" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L14" t="n">
         <v>1.21</v>
@@ -2311,40 +2311,40 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
         <v>2.14</v>
       </c>
       <c r="T14" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="U14" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W14" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="X14" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="Y14" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="Z14" t="n">
         <v>1000</v>
@@ -2353,19 +2353,19 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD14" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AG14" t="n">
         <v>11</v>
@@ -2377,19 +2377,19 @@
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G15" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="S15" t="n">
         <v>2.36</v>
       </c>
       <c r="T15" t="n">
-        <v>1.56</v>
+        <v>1.05</v>
       </c>
       <c r="U15" t="n">
-        <v>2.44</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X15" t="n">
         <v>32</v>
@@ -2488,10 +2488,10 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC15" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AD15" t="n">
         <v>29</v>
@@ -2515,7 +2515,7 @@
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -2524,7 +2524,7 @@
         <v>580</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2563,16 +2563,16 @@
         <v>1.49</v>
       </c>
       <c r="H16" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
         <v>7.8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
         <v>1.18</v>
@@ -2581,31 +2581,31 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O16" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="Q16" t="n">
         <v>1.37</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S16" t="n">
         <v>1.94</v>
       </c>
       <c r="T16" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U16" t="n">
         <v>2.4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W16" t="n">
         <v>3</v>
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="G17" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2725,7 +2725,7 @@
         <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="R17" t="n">
         <v>1.47</v>
@@ -2737,13 +2737,13 @@
         <v>1.71</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V17" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W17" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="X17" t="n">
         <v>32</v>
@@ -2761,10 +2761,10 @@
         <v>11</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="n">
         <v>75</v>
@@ -2779,7 +2779,7 @@
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
         <v>19</v>
@@ -2791,7 +2791,7 @@
         <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN17" t="n">
         <v>9.199999999999999</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="G18" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="H18" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="I18" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J18" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2851,40 +2851,40 @@
         <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="T18" t="n">
         <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V18" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W18" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="X18" t="n">
         <v>32</v>
       </c>
       <c r="Y18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="n">
         <v>65</v>
@@ -2902,25 +2902,25 @@
         <v>28</v>
       </c>
       <c r="AE18" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AG18" t="n">
         <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL18" t="n">
         <v>28</v>
@@ -2929,10 +2929,10 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="AO18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="G19" t="n">
         <v>3.1</v>
@@ -2971,19 +2971,19 @@
         <v>2.34</v>
       </c>
       <c r="I19" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
         <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
         <v>5.1</v>
@@ -2992,7 +2992,7 @@
         <v>1.2</v>
       </c>
       <c r="P19" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
         <v>1.6</v>
@@ -3010,64 +3010,64 @@
         <v>2.54</v>
       </c>
       <c r="V19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W19" t="n">
         <v>1.47</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z19" t="n">
         <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
         <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>280</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL19" t="n">
         <v>36</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="20">
@@ -3100,19 +3100,19 @@
         <v>1.6</v>
       </c>
       <c r="G20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I20" t="n">
         <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
@@ -3130,25 +3130,25 @@
         <v>2.02</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R20" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="S20" t="n">
         <v>2.34</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>1.03</v>
       </c>
       <c r="V20" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W20" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3178,7 +3178,7 @@
         <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH20" t="n">
         <v>1000</v>
@@ -3187,7 +3187,7 @@
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
         <v>1.37</v>
@@ -3274,16 +3274,16 @@
         <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="U21" t="n">
         <v>2.18</v>
       </c>
       <c r="V21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W21" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X21" t="n">
         <v>19.5</v>
@@ -3295,7 +3295,7 @@
         <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="n">
         <v>11.5</v>
@@ -3313,7 +3313,7 @@
         <v>18</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G22" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
         <v>3.7</v>
@@ -3385,13 +3385,13 @@
         <v>4.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.13</v>
@@ -3400,10 +3400,10 @@
         <v>3.15</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="R22" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S22" t="n">
         <v>2.04</v>
@@ -3418,43 +3418,43 @@
         <v>1.37</v>
       </c>
       <c r="W22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="Z22" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="n">
         <v>530</v>
       </c>
       <c r="AB22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE22" t="n">
         <v>34</v>
       </c>
-      <c r="AC22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>85</v>
-      </c>
       <c r="AF22" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AJ22" t="n">
         <v>46</v>
@@ -3463,16 +3463,16 @@
         <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AM22" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AN22" t="n">
         <v>7</v>
       </c>
       <c r="AO22" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,43 +3502,43 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="G23" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="H23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.4</v>
       </c>
-      <c r="I23" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.28</v>
       </c>
       <c r="P23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R23" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S23" t="n">
         <v>2.92</v>
@@ -3553,7 +3553,7 @@
         <v>1.23</v>
       </c>
       <c r="W23" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="X23" t="n">
         <v>20</v>
@@ -3568,7 +3568,7 @@
         <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
         <v>11</v>
@@ -3580,22 +3580,22 @@
         <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
         <v>100</v>
@@ -3604,10 +3604,10 @@
         <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24">
@@ -3646,10 +3646,10 @@
         <v>1.46</v>
       </c>
       <c r="I24" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="J24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K24" t="n">
         <v>5.6</v>
@@ -3670,28 +3670,28 @@
         <v>2.52</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="R24" t="n">
         <v>1.71</v>
       </c>
       <c r="S24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T24" t="n">
         <v>1.67</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V24" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="W24" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
@@ -3703,7 +3703,7 @@
         <v>15</v>
       </c>
       <c r="AB24" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AC24" t="n">
         <v>13</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G25" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
         <v>3.9</v>
@@ -3793,7 +3793,7 @@
         <v>1.34</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
         <v>4.3</v>
@@ -3817,67 +3817,67 @@
         <v>1.65</v>
       </c>
       <c r="U25" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V25" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W25" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X25" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO25" t="n">
         <v>32</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.39</v>
       </c>
-      <c r="G26" t="n">
-        <v>1.4</v>
-      </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
         <v>5.4</v>
@@ -3931,10 +3931,10 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P26" t="n">
         <v>2.36</v>
@@ -3946,28 +3946,28 @@
         <v>1.54</v>
       </c>
       <c r="S26" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T26" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U26" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V26" t="n">
         <v>1.1</v>
       </c>
       <c r="W26" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
         <v>34</v>
       </c>
       <c r="Z26" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA26" t="n">
         <v>400</v>
@@ -3976,7 +3976,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD26" t="n">
         <v>36</v>
@@ -4009,7 +4009,7 @@
         <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AO26" t="n">
         <v>190</v>
@@ -4054,31 +4054,31 @@
         <v>5.6</v>
       </c>
       <c r="J27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K27" t="n">
         <v>4.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M27" t="n">
         <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O27" t="n">
         <v>1.13</v>
       </c>
       <c r="P27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q27" t="n">
         <v>1.42</v>
       </c>
       <c r="R27" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S27" t="n">
         <v>2</v>
@@ -4087,7 +4087,7 @@
         <v>1.5</v>
       </c>
       <c r="U27" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="V27" t="n">
         <v>1.21</v>
@@ -4096,7 +4096,7 @@
         <v>2.56</v>
       </c>
       <c r="X27" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="n">
         <v>36</v>
@@ -4114,13 +4114,13 @@
         <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
         <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG27" t="n">
         <v>10.5</v>
@@ -4177,64 +4177,64 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G28" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
         <v>1.1</v>
       </c>
-      <c r="N28" t="n">
-        <v>2.44</v>
-      </c>
       <c r="O28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q28" t="n">
         <v>1.48</v>
       </c>
-      <c r="P28" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.48</v>
-      </c>
       <c r="R28" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="S28" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="U28" t="n">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="V28" t="n">
         <v>1.2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X28" t="n">
         <v>17.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
@@ -4243,7 +4243,7 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="AC28" t="n">
         <v>14</v>
@@ -4267,10 +4267,10 @@
         <v>540</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G29" t="n">
         <v>3.5</v>
@@ -4321,10 +4321,10 @@
         <v>2.28</v>
       </c>
       <c r="I29" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
         <v>3.65</v>
@@ -4336,22 +4336,22 @@
         <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R29" t="n">
         <v>1.46</v>
       </c>
       <c r="S29" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T29" t="n">
         <v>1.65</v>
@@ -4360,13 +4360,13 @@
         <v>2.42</v>
       </c>
       <c r="V29" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="W29" t="n">
         <v>1.4</v>
       </c>
       <c r="X29" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y29" t="n">
         <v>12.5</v>
@@ -4414,10 +4414,10 @@
         <v>75</v>
       </c>
       <c r="AN29" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO29" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="30">
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H30" t="n">
         <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J30" t="n">
         <v>3.45</v>
@@ -4465,7 +4465,7 @@
         <v>3.6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -4480,7 +4480,7 @@
         <v>1.99</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R30" t="n">
         <v>1.39</v>
@@ -4504,13 +4504,13 @@
         <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z30" t="n">
         <v>23</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB30" t="n">
         <v>11</v>
@@ -4519,10 +4519,10 @@
         <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF30" t="n">
         <v>16.5</v>
@@ -4549,7 +4549,7 @@
         <v>95</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO30" t="n">
         <v>32</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G31" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I31" t="n">
         <v>7.8</v>
       </c>
-      <c r="I31" t="n">
-        <v>8</v>
-      </c>
       <c r="J31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K31" t="n">
         <v>5</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.3</v>
@@ -4606,25 +4606,25 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O31" t="n">
         <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R31" t="n">
         <v>1.62</v>
       </c>
       <c r="S31" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T31" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U31" t="n">
         <v>2.16</v>
@@ -4639,16 +4639,16 @@
         <v>24</v>
       </c>
       <c r="Y31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z31" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA31" t="n">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
         <v>11</v>
@@ -4660,7 +4660,7 @@
         <v>95</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG31" t="n">
         <v>10</v>
@@ -4669,25 +4669,25 @@
         <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK31" t="n">
         <v>14</v>
       </c>
       <c r="AL31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM31" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO31" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.19</v>
       </c>
-      <c r="G32" t="n">
-        <v>1.2</v>
-      </c>
       <c r="H32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I32" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J32" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.18</v>
@@ -4747,34 +4747,34 @@
         <v>1.08</v>
       </c>
       <c r="P32" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="R32" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="S32" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="T32" t="n">
         <v>1.83</v>
       </c>
       <c r="U32" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V32" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W32" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="X32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Y32" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="Z32" t="n">
         <v>250</v>
@@ -4783,10 +4783,10 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD32" t="n">
         <v>70</v>
@@ -4801,25 +4801,25 @@
         <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI32" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ32" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK32" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL32" t="n">
         <v>32</v>
       </c>
       <c r="AM32" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G33" t="n">
         <v>1.46</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.47</v>
-      </c>
       <c r="H33" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="J33" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K33" t="n">
         <v>5.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5.4</v>
       </c>
       <c r="L33" t="n">
         <v>1.29</v>
@@ -4876,7 +4876,7 @@
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O33" t="n">
         <v>1.2</v>
@@ -4885,25 +4885,25 @@
         <v>2.52</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S33" t="n">
         <v>2.52</v>
       </c>
       <c r="T33" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U33" t="n">
         <v>2.1</v>
       </c>
       <c r="V33" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W33" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X33" t="n">
         <v>25</v>
@@ -4912,10 +4912,10 @@
         <v>32</v>
       </c>
       <c r="Z33" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AB33" t="n">
         <v>11</v>
@@ -4924,7 +4924,7 @@
         <v>11.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE33" t="n">
         <v>110</v>
@@ -4939,7 +4939,7 @@
         <v>22</v>
       </c>
       <c r="AI33" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ33" t="n">
         <v>13</v>
@@ -4951,10 +4951,10 @@
         <v>29</v>
       </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN33" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO33" t="n">
         <v>95</v>
@@ -4990,7 +4990,7 @@
         <v>5.3</v>
       </c>
       <c r="G34" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H34" t="n">
         <v>1.63</v>
@@ -5017,7 +5017,7 @@
         <v>1.12</v>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q34" t="n">
         <v>1.38</v>
@@ -5029,7 +5029,7 @@
         <v>1.94</v>
       </c>
       <c r="T34" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="U34" t="n">
         <v>2.98</v>
@@ -5044,7 +5044,7 @@
         <v>38</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z34" t="n">
         <v>15.5</v>
@@ -5071,16 +5071,16 @@
         <v>21</v>
       </c>
       <c r="AH34" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI34" t="n">
         <v>20</v>
       </c>
       <c r="AJ34" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL34" t="n">
         <v>42</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G35" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I35" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.5</v>
       </c>
       <c r="J35" t="n">
         <v>3.8</v>
@@ -5164,22 +5164,22 @@
         <v>2.62</v>
       </c>
       <c r="T35" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U35" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V35" t="n">
         <v>1.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X35" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y35" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z35" t="n">
         <v>27</v>
@@ -5206,7 +5206,7 @@
         <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI35" t="n">
         <v>38</v>
@@ -5224,7 +5224,7 @@
         <v>60</v>
       </c>
       <c r="AN35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO35" t="n">
         <v>23</v>
@@ -5263,10 +5263,10 @@
         <v>3.15</v>
       </c>
       <c r="H36" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I36" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J36" t="n">
         <v>3.65</v>
@@ -5302,16 +5302,16 @@
         <v>1.57</v>
       </c>
       <c r="U36" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="V36" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="W36" t="n">
         <v>1.46</v>
       </c>
       <c r="X36" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y36" t="n">
         <v>14</v>
@@ -5326,7 +5326,7 @@
         <v>16.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD36" t="n">
         <v>11.5</v>
@@ -5350,7 +5350,7 @@
         <v>48</v>
       </c>
       <c r="AK36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL36" t="n">
         <v>34</v>
@@ -5359,7 +5359,7 @@
         <v>60</v>
       </c>
       <c r="AN36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO36" t="n">
         <v>14</v>
@@ -5395,7 +5395,7 @@
         <v>1.39</v>
       </c>
       <c r="G37" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="H37" t="n">
         <v>11</v>
@@ -5404,13 +5404,13 @@
         <v>18</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K37" t="n">
         <v>4.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M37" t="n">
         <v>1.09</v>
@@ -5422,7 +5422,7 @@
         <v>1.42</v>
       </c>
       <c r="P37" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q37" t="n">
         <v>2.22</v>
@@ -5443,10 +5443,10 @@
         <v>1.06</v>
       </c>
       <c r="W37" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y37" t="n">
         <v>1000</v>
@@ -5458,10 +5458,10 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD37" t="n">
         <v>1000</v>
@@ -5470,7 +5470,7 @@
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG37" t="n">
         <v>1000</v>
@@ -5482,7 +5482,7 @@
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AK37" t="n">
         <v>1000</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="H38" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="I38" t="n">
         <v>13</v>
       </c>
       <c r="J38" t="n">
+        <v>7</v>
+      </c>
+      <c r="K38" t="n">
         <v>7.2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>7.6</v>
       </c>
       <c r="L38" t="n">
         <v>1.23</v>
@@ -5551,13 +5551,13 @@
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O38" t="n">
         <v>1.13</v>
       </c>
       <c r="P38" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q38" t="n">
         <v>1.41</v>
@@ -5566,19 +5566,19 @@
         <v>1.96</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T38" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U38" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V38" t="n">
         <v>1.08</v>
       </c>
       <c r="W38" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="X38" t="n">
         <v>42</v>
@@ -5596,13 +5596,13 @@
         <v>13.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD38" t="n">
         <v>44</v>
       </c>
       <c r="AE38" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF38" t="n">
         <v>9.800000000000001</v>
@@ -5614,7 +5614,7 @@
         <v>27</v>
       </c>
       <c r="AI38" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ38" t="n">
         <v>11</v>
@@ -5623,13 +5623,13 @@
         <v>12.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM38" t="n">
         <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO38" t="n">
         <v>130</v>
@@ -5662,64 +5662,64 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="G39" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="I39" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J39" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>7.6</v>
+        <v>5.4</v>
       </c>
       <c r="L39" t="n">
         <v>1.32</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>1.78</v>
+        <v>3.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="Q39" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U39" t="n">
         <v>1.81</v>
       </c>
-      <c r="R39" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.03</v>
-      </c>
       <c r="V39" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="W39" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z39" t="n">
         <v>1000</v>
@@ -5728,34 +5728,34 @@
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK39" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL39" t="n">
         <v>1000</v>
@@ -5764,7 +5764,7 @@
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5797,37 +5797,37 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G40" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="H40" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I40" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J40" t="n">
         <v>3.55</v>
       </c>
       <c r="K40" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M40" t="n">
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P40" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q40" t="n">
         <v>2.2</v>
@@ -5839,34 +5839,34 @@
         <v>4</v>
       </c>
       <c r="T40" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="U40" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W40" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X40" t="n">
         <v>12</v>
       </c>
       <c r="Y40" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA40" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB40" t="n">
         <v>7.8</v>
       </c>
       <c r="AC40" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD40" t="n">
         <v>19.5</v>
@@ -5875,31 +5875,31 @@
         <v>75</v>
       </c>
       <c r="AF40" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG40" t="n">
         <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ40" t="n">
         <v>22</v>
       </c>
       <c r="AK40" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL40" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM40" t="n">
         <v>150</v>
       </c>
       <c r="AN40" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO40" t="n">
         <v>95</v>
@@ -5941,7 +5941,7 @@
         <v>5.2</v>
       </c>
       <c r="I41" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="J41" t="n">
         <v>3.1</v>
@@ -6031,7 +6031,7 @@
         <v>85</v>
       </c>
       <c r="AM41" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN41" t="n">
         <v>32</v>
@@ -6067,100 +6067,100 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="G42" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="H42" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="J42" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="X42" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB42" t="n">
         <v>7.6</v>
       </c>
-      <c r="L42" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S42" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T42" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE42" t="n">
         <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI42" t="n">
         <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6205,10 +6205,10 @@
         <v>2.16</v>
       </c>
       <c r="G43" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I43" t="n">
         <v>3.45</v>
@@ -6220,70 +6220,70 @@
         <v>4.1</v>
       </c>
       <c r="L43" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P43" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="Q43" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T43" t="n">
         <v>1.54</v>
       </c>
-      <c r="R43" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.53</v>
-      </c>
       <c r="U43" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="V43" t="n">
         <v>1.4</v>
       </c>
       <c r="W43" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="X43" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z43" t="n">
         <v>32</v>
       </c>
-      <c r="Y43" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z43" t="n">
+      <c r="AA43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE43" t="n">
         <v>34</v>
       </c>
-      <c r="AA43" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>36</v>
-      </c>
       <c r="AF43" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH43" t="n">
         <v>15</v>
@@ -6292,22 +6292,22 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL43" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM43" t="n">
         <v>55</v>
       </c>
       <c r="AN43" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AO43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44">
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="H44" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="I44" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="J44" t="n">
         <v>3.45</v>
@@ -6355,19 +6355,19 @@
         <v>3.75</v>
       </c>
       <c r="L44" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O44" t="n">
         <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q44" t="n">
         <v>1.89</v>
@@ -6385,10 +6385,10 @@
         <v>2.22</v>
       </c>
       <c r="V44" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="W44" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="X44" t="n">
         <v>18.5</v>
@@ -6412,13 +6412,13 @@
         <v>15</v>
       </c>
       <c r="AE44" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG44" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH44" t="n">
         <v>20</v>
@@ -6427,19 +6427,19 @@
         <v>50</v>
       </c>
       <c r="AJ44" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK44" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL44" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM44" t="n">
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO44" t="n">
         <v>30</v>
@@ -6484,7 +6484,7 @@
         <v>1.84</v>
       </c>
       <c r="J45" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K45" t="n">
         <v>3.85</v>
@@ -6496,7 +6496,7 @@
         <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O45" t="n">
         <v>1.39</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G46" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H46" t="n">
         <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J46" t="n">
         <v>3.75</v>
@@ -6625,46 +6625,46 @@
         <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="O46" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P46" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="R46" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="S46" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T46" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="U46" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="V46" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W46" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X46" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Z46" t="n">
         <v>26</v>
@@ -6673,10 +6673,10 @@
         <v>55</v>
       </c>
       <c r="AB46" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
         <v>14.5</v>
@@ -6685,7 +6685,7 @@
         <v>34</v>
       </c>
       <c r="AF46" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG46" t="n">
         <v>11.5</v>
@@ -6694,7 +6694,7 @@
         <v>15.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
         <v>29</v>
@@ -6703,16 +6703,16 @@
         <v>22</v>
       </c>
       <c r="AL46" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM46" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mazatlan FC</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Santos Laguna</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.22</v>
+        <v>1.22</v>
       </c>
       <c r="G2" t="n">
-        <v>2.26</v>
+        <v>1.24</v>
       </c>
       <c r="H2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>34</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S2" t="n">
         <v>3.45</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.86</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.66</v>
+        <v>2.94</v>
       </c>
       <c r="U2" t="n">
-        <v>2.44</v>
+        <v>1.41</v>
       </c>
       <c r="V2" t="n">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>1.79</v>
+        <v>5.1</v>
       </c>
       <c r="X2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>370</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>28</v>
       </c>
       <c r="AD2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>28</v>
+        <v>8.4</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>13.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:05:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Etoile Sportive Sahel</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Juarez</t>
+          <t>Olympique De Beja</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="G3" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>6.2</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>2.36</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.69</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.76</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="AE3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="AM3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Tunisian Ligue Professionelle 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,106 +928,106 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Ahly Cairo</t>
+          <t>CA Bizertin</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Stade Tunisien</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.21</v>
+        <v>2.96</v>
       </c>
       <c r="G4" t="n">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>18</v>
+        <v>2.96</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>2.52</v>
       </c>
       <c r="K4" t="n">
-        <v>7.4</v>
+        <v>2.78</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>2.44</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="P4" t="n">
-        <v>1.93</v>
+        <v>1.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.76</v>
+        <v>2.84</v>
       </c>
       <c r="R4" t="n">
-        <v>1.35</v>
+        <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>3.55</v>
+        <v>5.5</v>
       </c>
       <c r="T4" t="n">
-        <v>2.96</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.43</v>
       </c>
-      <c r="V4" t="n">
-        <v>1.03</v>
-      </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Etoile Sportive Sahel</t>
+          <t>Esperance Sportive Zarzis</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Olympique De Beja</t>
+          <t>Sportive De Tunis</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.38</v>
+        <v>6.2</v>
       </c>
       <c r="G5" t="n">
-        <v>1.49</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>7.4</v>
+        <v>1.68</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>1.81</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.48</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="U5" t="n">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="V5" t="n">
-        <v>1.07</v>
+        <v>2.22</v>
       </c>
       <c r="W5" t="n">
-        <v>3</v>
+        <v>1.15</v>
       </c>
       <c r="X5" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>36</v>
+        <v>6.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.8</v>
+        <v>17.5</v>
       </c>
       <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>980</v>
-      </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.8</v>
+        <v>170</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,108 +1193,108 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>11:40:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CA Bizertin</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Stade Tunisien</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>5.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.86</v>
+        <v>1.96</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>2.12</v>
       </c>
       <c r="J6" t="n">
-        <v>2.64</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.36</v>
+        <v>2.96</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>2.26</v>
       </c>
       <c r="R6" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="U6" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="V6" t="n">
-        <v>1.45</v>
+        <v>1.89</v>
       </c>
       <c r="W6" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1303,7 +1303,7 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1312,13 +1312,13 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tunisian Ligue Professionelle 1</t>
+          <t>Estonian Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Esperance Sportive Zarzis</t>
+          <t>Harju JK Laagri</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sportive De Tunis</t>
+          <t>Tammeka Tartu</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6.8</v>
+        <v>2.32</v>
       </c>
       <c r="G7" t="n">
-        <v>9.199999999999999</v>
+        <v>2.44</v>
       </c>
       <c r="H7" t="n">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="I7" t="n">
-        <v>1.72</v>
+        <v>2.98</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>2.78</v>
+        <v>6.4</v>
       </c>
       <c r="O7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.45</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.12</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.61</v>
+        <v>2.96</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.13</v>
+        <v>1.69</v>
       </c>
       <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN7" t="n">
         <v>11</v>
       </c>
-      <c r="Y7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO7" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Estonian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:40:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Nomme Kalju</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>4.1</v>
+        <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>2.18</v>
+        <v>1.22</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>7.6</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>9.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>1.59</v>
+        <v>7.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
-        <v>1.59</v>
+        <v>3.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>1.39</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.87</v>
       </c>
       <c r="S8" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="T8" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.71</v>
+        <v>5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>32</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,118 +1603,118 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Harju JK Laagri</t>
+          <t>FC Inter</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tammeka Tartu</t>
+          <t>Gnistan</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.97</v>
+        <v>1.35</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>1.37</v>
       </c>
       <c r="H9" t="n">
-        <v>2.32</v>
+        <v>8.6</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>1.81</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>2.22</v>
       </c>
       <c r="V9" t="n">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>1.52</v>
+        <v>3.6</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Fk Siauliai</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Nomme Kalju</t>
+          <t>FK Banga Gargzdu</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>1.78</v>
       </c>
       <c r="G10" t="n">
-        <v>15.5</v>
+        <v>1.86</v>
       </c>
       <c r="H10" t="n">
-        <v>1.22</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.23</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>6.4</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>10.5</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.78</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.39</v>
+        <v>1.79</v>
       </c>
       <c r="R10" t="n">
-        <v>1.81</v>
+        <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>1.98</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.07</v>
+        <v>2.16</v>
       </c>
       <c r="X10" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,93 +1868,93 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Inter</t>
+          <t>Ranheim IL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gnistan</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H11" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="K11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P11" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R11" t="n">
         <v>1.77</v>
       </c>
       <c r="S11" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T11" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V11" t="n">
         <v>1.12</v>
       </c>
       <c r="W11" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="X11" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="Y11" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>14.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="AE11" t="n">
         <v>460</v>
@@ -1963,22 +1963,22 @@
         <v>11.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>14.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,78 +2003,78 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fk Siauliai</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FK Banga Gargzdu</t>
+          <t>Moss</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G12" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H12" t="n">
         <v>4.3</v>
       </c>
       <c r="I12" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K12" t="n">
         <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>3.55</v>
+        <v>5.6</v>
       </c>
       <c r="O12" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.26</v>
       </c>
-      <c r="P12" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W12" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2083,31 +2083,31 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2116,10 +2116,10 @@
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>85</v>
+        <v>7.6</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2143,73 +2143,73 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Skeid</t>
+          <t>Hodd</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="G13" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="I13" t="n">
-        <v>16.5</v>
+        <v>7.8</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="K13" t="n">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P13" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="R13" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="S13" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>2.46</v>
       </c>
       <c r="V13" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="W13" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="X13" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Y13" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="Z13" t="n">
         <v>1000</v>
@@ -2218,43 +2218,43 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AF13" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK13" t="n">
         <v>14.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ranheim IL</t>
+          <t>Aalesunds</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.35</v>
+        <v>1.77</v>
       </c>
       <c r="G14" t="n">
-        <v>1.41</v>
+        <v>1.84</v>
       </c>
       <c r="H14" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X14" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC14" t="n">
         <v>9.6</v>
       </c>
-      <c r="J14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X14" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>16</v>
-      </c>
       <c r="AD14" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="n">
-        <v>460</v>
+        <v>220</v>
       </c>
       <c r="AF14" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Egersund</t>
+          <t>Odds BK</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Moss</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.78</v>
+        <v>6.4</v>
       </c>
       <c r="G15" t="n">
-        <v>1.88</v>
+        <v>7.8</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>1.46</v>
       </c>
       <c r="I15" t="n">
-        <v>4.9</v>
+        <v>1.51</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="K15" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>2.4</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="R15" t="n">
-        <v>1.51</v>
+        <v>1.78</v>
       </c>
       <c r="S15" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.05</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>2.3</v>
       </c>
       <c r="V15" t="n">
-        <v>1.26</v>
+        <v>2.96</v>
       </c>
       <c r="W15" t="n">
-        <v>2.12</v>
+        <v>1.15</v>
       </c>
       <c r="X15" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AB15" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AC15" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
         <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>Finnish Veikkausliiga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>HJK Helsinki</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Hodd</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.44</v>
+        <v>2.06</v>
       </c>
       <c r="G16" t="n">
-        <v>1.49</v>
+        <v>2.08</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7.8</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>7.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="S16" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>1.92</v>
       </c>
       <c r="X16" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Y16" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB16" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="AK16" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.4</v>
+        <v>7.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,73 +2683,73 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Aalesunds</t>
+          <t>Panevezys</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Riteriai</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.76</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.71</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="W17" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="X17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2758,52 +2758,52 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19</v>
+        <v>180</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>Lithuanian A Lyga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,118 +2818,118 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>FK Kauno Zalgiris</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Asane</t>
+          <t>VMFD Zalgiris</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.46</v>
+        <v>2.12</v>
       </c>
       <c r="G18" t="n">
-        <v>1.53</v>
+        <v>2.28</v>
       </c>
       <c r="H18" t="n">
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.8</v>
+        <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.46</v>
+        <v>1.78</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>2.12</v>
+        <v>2.92</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="V18" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>2.88</v>
+        <v>1.79</v>
       </c>
       <c r="X18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z18" t="n">
         <v>32</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>34</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AK18" t="n">
         <v>65</v>
       </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AL18" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.1</v>
+        <v>18.5</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Raufoss</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.88</v>
+        <v>1.23</v>
       </c>
       <c r="G19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H19" t="n">
+        <v>13</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P19" t="n">
         <v>3.1</v>
       </c>
-      <c r="H19" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.36</v>
-      </c>
       <c r="Q19" t="n">
-        <v>1.6</v>
+        <v>1.42</v>
       </c>
       <c r="R19" t="n">
-        <v>1.56</v>
+        <v>1.84</v>
       </c>
       <c r="S19" t="n">
-        <v>2.48</v>
+        <v>2.06</v>
       </c>
       <c r="T19" t="n">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="n">
-        <v>2.54</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.67</v>
+        <v>1.06</v>
       </c>
       <c r="W19" t="n">
-        <v>1.47</v>
+        <v>4.7</v>
       </c>
       <c r="X19" t="n">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK19" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>280</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>34</v>
       </c>
       <c r="AL19" t="n">
         <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>3.55</v>
       </c>
       <c r="AO19" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Estonian Premier League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Panevezys</t>
+          <t>FCI Tallinn</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Riteriai</t>
+          <t>Paide Linnameeskond</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="G20" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H20" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
-        <v>5.6</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>2.02</v>
+        <v>4.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P20" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="R20" t="n">
         <v>1.45</v>
       </c>
       <c r="S20" t="n">
-        <v>2.34</v>
+        <v>2.94</v>
       </c>
       <c r="T20" t="n">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.03</v>
+        <v>2.14</v>
       </c>
       <c r="V20" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="W20" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>40</v>
+        <v>9.4</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ20" t="n">
-        <v>900</v>
+        <v>19.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lithuanian A Lyga</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FK Kauno Zalgiris</t>
+          <t>Raufoss</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>VMFD Zalgiris</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.16</v>
+        <v>2.86</v>
       </c>
       <c r="G21" t="n">
-        <v>2.32</v>
+        <v>3.05</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>2.42</v>
       </c>
       <c r="I21" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J21" t="n">
         <v>3.65</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L21" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>3.85</v>
+        <v>5.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>1.98</v>
+        <v>2.46</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="S21" t="n">
-        <v>3.05</v>
+        <v>2.52</v>
       </c>
       <c r="T21" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="U21" t="n">
-        <v>2.18</v>
+        <v>2.58</v>
       </c>
       <c r="V21" t="n">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="W21" t="n">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="X21" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="Y21" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB21" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC21" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="AK21" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>44</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Finnish Veikkausliiga</t>
+          <t>Norwegian 1st Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HJK Helsinki</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1.51</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="J22" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R22" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="S22" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="T22" t="n">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="U22" t="n">
-        <v>3.05</v>
+        <v>2.32</v>
       </c>
       <c r="V22" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>2.96</v>
       </c>
       <c r="X22" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Z22" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AA22" t="n">
-        <v>530</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AE22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>15</v>
       </c>
-      <c r="AI22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>46</v>
-      </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL22" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>7</v>
+        <v>5.1</v>
       </c>
       <c r="AO22" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Estonian Premier League</t>
+          <t>Czech 1 Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FCI Tallinn</t>
+          <t>Bohemians 1905</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Paide Linnameeskond</t>
+          <t>Mlada Boleslav</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.71</v>
+        <v>2.12</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84</v>
+        <v>2.26</v>
       </c>
       <c r="H23" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.85</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
         <v>4.4</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.1</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P23" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R23" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S23" t="n">
         <v>2.92</v>
       </c>
       <c r="T23" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>2.18</v>
+        <v>1.79</v>
       </c>
       <c r="X23" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG23" t="n">
         <v>11</v>
       </c>
-      <c r="AD23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AL23" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN23" t="n">
-        <v>10.5</v>
+        <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>290</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Norwegian 1st Division</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Odds BK</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Qarabag FK</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.9</v>
+        <v>1.38</v>
       </c>
       <c r="G24" t="n">
-        <v>7.8</v>
+        <v>1.39</v>
       </c>
       <c r="H24" t="n">
-        <v>1.46</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>1.52</v>
+        <v>10.5</v>
       </c>
       <c r="J24" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="K24" t="n">
         <v>5.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
         <v>5.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.46</v>
+        <v>1.72</v>
       </c>
       <c r="R24" t="n">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="T24" t="n">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="U24" t="n">
-        <v>2.22</v>
+        <v>1.88</v>
       </c>
       <c r="V24" t="n">
-        <v>2.88</v>
+        <v>1.1</v>
       </c>
       <c r="W24" t="n">
-        <v>1.14</v>
+        <v>3.55</v>
       </c>
       <c r="X24" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Z24" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>370</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC24" t="n">
         <v>12</v>
       </c>
-      <c r="AA24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>85</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>13</v>
-      </c>
       <c r="AD24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>11</v>
       </c>
-      <c r="AE24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.2</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Czech 1 Liga</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,123 +3758,123 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bohemians 1905</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mlada Boleslav</t>
+          <t>Bodo Glimt</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.18</v>
+        <v>1.65</v>
       </c>
       <c r="G25" t="n">
-        <v>2.28</v>
+        <v>1.66</v>
       </c>
       <c r="H25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P25" t="n">
         <v>3.4</v>
       </c>
-      <c r="I25" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.1</v>
-      </c>
       <c r="Q25" t="n">
-        <v>1.76</v>
+        <v>1.4</v>
       </c>
       <c r="R25" t="n">
-        <v>1.45</v>
+        <v>2.02</v>
       </c>
       <c r="S25" t="n">
-        <v>2.68</v>
+        <v>1.97</v>
       </c>
       <c r="T25" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="U25" t="n">
-        <v>2.32</v>
+        <v>2.9</v>
       </c>
       <c r="V25" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Y25" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Z25" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AA25" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AB25" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH25" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>19</v>
-      </c>
       <c r="AI25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM25" t="n">
         <v>50</v>
       </c>
-      <c r="AJ25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>75</v>
-      </c>
       <c r="AN25" t="n">
-        <v>14</v>
+        <v>4.9</v>
       </c>
       <c r="AO25" t="n">
         <v>32</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Qarabag FK</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.38</v>
+        <v>1.96</v>
       </c>
       <c r="G26" t="n">
-        <v>1.39</v>
+        <v>2.04</v>
       </c>
       <c r="H26" t="n">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>5.9</v>
       </c>
       <c r="J26" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N26" t="n">
-        <v>5.1</v>
+        <v>2.88</v>
       </c>
       <c r="O26" t="n">
-        <v>1.23</v>
+        <v>1.48</v>
       </c>
       <c r="P26" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.72</v>
+        <v>2.52</v>
       </c>
       <c r="R26" t="n">
-        <v>1.54</v>
+        <v>1.22</v>
       </c>
       <c r="S26" t="n">
-        <v>2.78</v>
+        <v>4.9</v>
       </c>
       <c r="T26" t="n">
         <v>2.06</v>
       </c>
       <c r="U26" t="n">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="V26" t="n">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="W26" t="n">
-        <v>3.55</v>
+        <v>1.96</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
         <v>34</v>
       </c>
-      <c r="Z26" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>400</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>8</v>
-      </c>
       <c r="AG26" t="n">
-        <v>10.5</v>
+        <v>30</v>
       </c>
       <c r="AH26" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>130</v>
+        <v>540</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11</v>
+        <v>900</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="AL26" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bodo Glimt</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.63</v>
+        <v>3.15</v>
       </c>
       <c r="G27" t="n">
-        <v>1.64</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>2.34</v>
       </c>
       <c r="I27" t="n">
-        <v>5.6</v>
+        <v>2.4</v>
       </c>
       <c r="J27" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="M27" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>7.8</v>
+        <v>4.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.42</v>
+        <v>1.78</v>
       </c>
       <c r="R27" t="n">
-        <v>1.97</v>
+        <v>1.47</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>2.96</v>
       </c>
       <c r="T27" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="U27" t="n">
-        <v>2.92</v>
+        <v>2.42</v>
       </c>
       <c r="V27" t="n">
-        <v>1.21</v>
+        <v>1.71</v>
       </c>
       <c r="W27" t="n">
-        <v>2.56</v>
+        <v>1.44</v>
       </c>
       <c r="X27" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="Y27" t="n">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="Z27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>55</v>
       </c>
-      <c r="AA27" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH27" t="n">
+      <c r="AK27" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO27" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="G28" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="H28" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>3.35</v>
       </c>
       <c r="J28" t="n">
-        <v>2.98</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>1.25</v>
+        <v>2.02</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.48</v>
+        <v>1.92</v>
       </c>
       <c r="R28" t="n">
-        <v>1.12</v>
+        <v>1.4</v>
       </c>
       <c r="S28" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="T28" t="n">
-        <v>1.04</v>
+        <v>1.72</v>
       </c>
       <c r="U28" t="n">
-        <v>1.03</v>
+        <v>2.28</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="W28" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="X28" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB28" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AC28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD28" t="n">
         <v>14</v>
       </c>
-      <c r="AD28" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF28" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>30</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>540</v>
+        <v>46</v>
       </c>
       <c r="AJ28" t="n">
-        <v>900</v>
+        <v>36</v>
       </c>
       <c r="AK28" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM28" t="n">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.4</v>
+        <v>1.54</v>
       </c>
       <c r="G29" t="n">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="H29" t="n">
-        <v>2.28</v>
+        <v>6.8</v>
       </c>
       <c r="I29" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U29" t="n">
         <v>2.3</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.42</v>
-      </c>
       <c r="V29" t="n">
-        <v>1.76</v>
+        <v>1.16</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>2.82</v>
       </c>
       <c r="X29" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="Y29" t="n">
-        <v>12.5</v>
+        <v>28</v>
       </c>
       <c r="Z29" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="AA29" t="n">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AB29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH29" t="n">
         <v>19</v>
       </c>
-      <c r="AC29" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG29" t="n">
+      <c r="AI29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>60</v>
-      </c>
       <c r="AK29" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="AM29" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AN29" t="n">
-        <v>28</v>
+        <v>5.9</v>
       </c>
       <c r="AO29" t="n">
-        <v>14.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>UEFA Champions League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,126 +4433,126 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Club Brugge</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R30" t="n">
         <v>2.44</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.39</v>
-      </c>
       <c r="S30" t="n">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="T30" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="U30" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="V30" t="n">
-        <v>1.43</v>
+        <v>1.05</v>
       </c>
       <c r="W30" t="n">
-        <v>1.66</v>
+        <v>6.4</v>
       </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="Y30" t="n">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="Z30" t="n">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="AA30" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>270</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>11</v>
       </c>
-      <c r="AC30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>36</v>
-      </c>
       <c r="AK30" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AM30" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AN30" t="n">
-        <v>19.5</v>
+        <v>2.44</v>
       </c>
       <c r="AO30" t="n">
-        <v>32</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31">
@@ -4573,25 +4573,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.49</v>
+        <v>5.3</v>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H31" t="n">
-        <v>7.6</v>
+        <v>1.63</v>
       </c>
       <c r="I31" t="n">
-        <v>7.8</v>
+        <v>1.64</v>
       </c>
       <c r="J31" t="n">
         <v>4.9</v>
@@ -4600,94 +4600,94 @@
         <v>5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>5.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="P31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="V31" t="n">
         <v>2.56</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.14</v>
-      </c>
       <c r="W31" t="n">
-        <v>3</v>
+        <v>1.22</v>
       </c>
       <c r="X31" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="Y31" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>46</v>
+      </c>
+      <c r="AN31" t="n">
         <v>32</v>
       </c>
-      <c r="Z31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>5.6</v>
-      </c>
       <c r="AO31" t="n">
-        <v>90</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Slavia Prague</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="G32" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="H32" t="n">
-        <v>21</v>
+        <v>8.6</v>
       </c>
       <c r="I32" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="X32" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF32" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="K32" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N32" t="n">
-        <v>11</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W32" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X32" t="n">
-        <v>70</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>120</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>250</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC32" t="n">
+      <c r="AG32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH32" t="n">
         <v>23</v>
       </c>
-      <c r="AD32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>250</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>34</v>
-      </c>
       <c r="AI32" t="n">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK32" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AL32" t="n">
         <v>32</v>
       </c>
       <c r="AM32" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN32" t="n">
-        <v>2.56</v>
+        <v>5.3</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F33" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W33" t="n">
         <v>1.45</v>
       </c>
-      <c r="G33" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N33" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W33" t="n">
-        <v>3.15</v>
-      </c>
       <c r="X33" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="Y33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA33" t="n">
         <v>32</v>
       </c>
-      <c r="Z33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>250</v>
-      </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AC33" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD33" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD33" t="n">
-        <v>29</v>
-      </c>
       <c r="AE33" t="n">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.4</v>
+        <v>23</v>
       </c>
       <c r="AG33" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN33" t="n">
         <v>22</v>
       </c>
-      <c r="AI33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>5.4</v>
-      </c>
       <c r="AO33" t="n">
-        <v>95</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Marseille</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="G34" t="n">
-        <v>5.5</v>
+        <v>2.32</v>
       </c>
       <c r="H34" t="n">
-        <v>1.63</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T34" t="n">
         <v>1.64</v>
       </c>
-      <c r="J34" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K34" t="n">
-        <v>5</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N34" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.48</v>
-      </c>
       <c r="U34" t="n">
-        <v>2.98</v>
+        <v>2.54</v>
       </c>
       <c r="V34" t="n">
-        <v>2.56</v>
+        <v>1.43</v>
       </c>
       <c r="W34" t="n">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="X34" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AA34" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AB34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI34" t="n">
         <v>36</v>
       </c>
-      <c r="AC34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG34" t="n">
+      <c r="AJ34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK34" t="n">
         <v>21</v>
       </c>
-      <c r="AH34" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>50</v>
-      </c>
       <c r="AL34" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AM34" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AN34" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>4.8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>MC Alger</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H35" t="n">
+        <v>11</v>
+      </c>
+      <c r="I35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q35" t="n">
         <v>2.22</v>
       </c>
-      <c r="G35" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P35" t="n">
+      <c r="R35" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T35" t="n">
         <v>2.4</v>
       </c>
-      <c r="Q35" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.63</v>
-      </c>
       <c r="U35" t="n">
-        <v>2.54</v>
+        <v>1.49</v>
       </c>
       <c r="V35" t="n">
-        <v>1.4</v>
+        <v>1.06</v>
       </c>
       <c r="W35" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="X35" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y35" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>42</v>
       </c>
       <c r="AD35" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="AK35" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>11.5</v>
+        <v>26</v>
       </c>
       <c r="AO35" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.1</v>
+        <v>1.28</v>
       </c>
       <c r="G36" t="n">
-        <v>3.15</v>
+        <v>1.29</v>
       </c>
       <c r="H36" t="n">
-        <v>2.46</v>
+        <v>12</v>
       </c>
       <c r="I36" t="n">
-        <v>2.48</v>
+        <v>13</v>
       </c>
       <c r="J36" t="n">
-        <v>3.65</v>
+        <v>7</v>
       </c>
       <c r="K36" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="M36" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>5.2</v>
+        <v>7.8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="P36" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.69</v>
+        <v>1.42</v>
       </c>
       <c r="R36" t="n">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="S36" t="n">
-        <v>2.68</v>
+        <v>2.06</v>
       </c>
       <c r="T36" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="U36" t="n">
-        <v>2.68</v>
+        <v>2.16</v>
       </c>
       <c r="V36" t="n">
-        <v>1.67</v>
+        <v>1.08</v>
       </c>
       <c r="W36" t="n">
-        <v>1.46</v>
+        <v>4.4</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="Z36" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="AA36" t="n">
-        <v>34</v>
+        <v>440</v>
       </c>
       <c r="AB36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC36" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC36" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD36" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AE36" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="AF36" t="n">
-        <v>23</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG36" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="AI36" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AJ36" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="AK36" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AM36" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>20</v>
+        <v>3.6</v>
       </c>
       <c r="AO36" t="n">
-        <v>14</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,79 +5378,79 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MC Alger</t>
+          <t>Carabobo FC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="G37" t="n">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="H37" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="I37" t="n">
-        <v>18</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="L37" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>2.92</v>
+        <v>3.6</v>
       </c>
       <c r="O37" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.22</v>
+        <v>1.89</v>
       </c>
       <c r="R37" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="S37" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="T37" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="U37" t="n">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="V37" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="W37" t="n">
-        <v>3.15</v>
+        <v>2.6</v>
       </c>
       <c r="X37" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y37" t="n">
         <v>24</v>
       </c>
-      <c r="Y37" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z37" t="n">
         <v>1000</v>
       </c>
@@ -5458,34 +5458,34 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC37" t="n">
-        <v>42</v>
+        <v>10.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>70</v>
+        <v>9.4</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL37" t="n">
         <v>1000</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>29</v>
+        <v>9.6</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UEFA Champions League</t>
+          <t>Brazilian Serie A</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.28</v>
+        <v>1.87</v>
       </c>
       <c r="G38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R38" t="n">
         <v>1.29</v>
       </c>
-      <c r="H38" t="n">
+      <c r="S38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X38" t="n">
         <v>12</v>
       </c>
-      <c r="I38" t="n">
-        <v>13</v>
-      </c>
-      <c r="J38" t="n">
-        <v>7</v>
-      </c>
-      <c r="K38" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N38" t="n">
+      <c r="Y38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB38" t="n">
         <v>7.8</v>
       </c>
-      <c r="O38" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S38" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W38" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X38" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>550</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC38" t="n">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="AD38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL38" t="n">
         <v>44</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AM38" t="n">
         <v>150</v>
       </c>
-      <c r="AF38" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>110</v>
-      </c>
       <c r="AN38" t="n">
-        <v>3.45</v>
+        <v>16</v>
       </c>
       <c r="AO38" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>19:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Carabobo FC</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Central Cordoba (SdE)</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.49</v>
+        <v>2.02</v>
       </c>
       <c r="G39" t="n">
-        <v>1.62</v>
+        <v>2.06</v>
       </c>
       <c r="H39" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S39" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="X39" t="n">
         <v>6.8</v>
       </c>
-      <c r="I39" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J39" t="n">
-        <v>4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W39" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X39" t="n">
-        <v>16</v>
-      </c>
       <c r="Y39" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF39" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AG39" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AI39" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AJ39" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AK39" t="n">
-        <v>18.5</v>
+        <v>36</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM39" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AN39" t="n">
-        <v>9.6</v>
+        <v>34</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Venezuelan Primera Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Deportivo Tachira</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="G40" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="I40" t="n">
-        <v>4.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K40" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="L40" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M40" t="n">
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="O40" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P40" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="R40" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T40" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U40" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="V40" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="W40" t="n">
-        <v>2.04</v>
+        <v>2.42</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y40" t="n">
-        <v>14.5</v>
+        <v>22</v>
       </c>
       <c r="Z40" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AE40" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
         <v>10.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AI40" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK40" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL40" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19:30:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Central Cordoba (SdE)</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="G41" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
-        <v>5.2</v>
+        <v>3.35</v>
       </c>
       <c r="I41" t="n">
-        <v>5.7</v>
+        <v>3.45</v>
       </c>
       <c r="J41" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="K41" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.66</v>
+        <v>1.29</v>
       </c>
       <c r="M41" t="n">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>2.34</v>
+        <v>6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.69</v>
+        <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>1.42</v>
+        <v>2.72</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.1</v>
+        <v>1.56</v>
       </c>
       <c r="R41" t="n">
-        <v>1.13</v>
+        <v>1.68</v>
       </c>
       <c r="S41" t="n">
-        <v>7.2</v>
+        <v>2.4</v>
       </c>
       <c r="T41" t="n">
-        <v>2.56</v>
+        <v>1.52</v>
       </c>
       <c r="U41" t="n">
-        <v>1.58</v>
+        <v>2.76</v>
       </c>
       <c r="V41" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="W41" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="X41" t="n">
-        <v>6.8</v>
+        <v>26</v>
       </c>
       <c r="Y41" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Z41" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AA41" t="n">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="AB41" t="n">
-        <v>5.9</v>
+        <v>15</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD41" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AE41" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="AF41" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="AI41" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="AJ41" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AK41" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="AM41" t="n">
-        <v>350</v>
+        <v>55</v>
       </c>
       <c r="AN41" t="n">
-        <v>32</v>
+        <v>10.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>260</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Venezuelan Primera Division</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Deportivo Tachira</t>
+          <t>Pachuca</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.57</v>
+        <v>2.74</v>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>2.92</v>
       </c>
       <c r="H42" t="n">
-        <v>5.6</v>
+        <v>2.64</v>
       </c>
       <c r="I42" t="n">
-        <v>8.4</v>
+        <v>2.82</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K42" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L42" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M42" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O42" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="P42" t="n">
-        <v>1.61</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="R42" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="S42" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="T42" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="U42" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="V42" t="n">
-        <v>1.13</v>
+        <v>1.55</v>
       </c>
       <c r="W42" t="n">
-        <v>2.42</v>
+        <v>1.52</v>
       </c>
       <c r="X42" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Y42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF42" t="n">
         <v>22</v>
       </c>
-      <c r="Z42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG42" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH42" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ42" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="AK42" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM42" t="n">
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Orlando City</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.16</v>
+        <v>6</v>
       </c>
       <c r="G43" t="n">
-        <v>2.22</v>
+        <v>7</v>
       </c>
       <c r="H43" t="n">
-        <v>3.35</v>
+        <v>1.69</v>
       </c>
       <c r="I43" t="n">
-        <v>3.45</v>
+        <v>1.76</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K43" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L43" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="O43" t="n">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="P43" t="n">
-        <v>2.6</v>
+        <v>1.71</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.58</v>
+        <v>2.24</v>
       </c>
       <c r="R43" t="n">
-        <v>1.65</v>
+        <v>1.26</v>
       </c>
       <c r="S43" t="n">
-        <v>2.44</v>
+        <v>4.3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.54</v>
+        <v>2.1</v>
       </c>
       <c r="U43" t="n">
-        <v>2.74</v>
+        <v>1.79</v>
       </c>
       <c r="V43" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="W43" t="n">
-        <v>1.82</v>
+        <v>1.17</v>
       </c>
       <c r="X43" t="n">
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>21</v>
+        <v>8.4</v>
       </c>
       <c r="Z43" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AA43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD43" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AF43" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AH43" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AI43" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="AK43" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="AL43" t="n">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="AM43" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="AN43" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,396 +6323,126 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>23:30:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Pachuca</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="G44" t="n">
-        <v>2.78</v>
+        <v>2.34</v>
       </c>
       <c r="H44" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="J44" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K44" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L44" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="P44" t="n">
-        <v>1.99</v>
+        <v>2.34</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="R44" t="n">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="S44" t="n">
-        <v>3.25</v>
+        <v>2.74</v>
       </c>
       <c r="T44" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="U44" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="V44" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="W44" t="n">
-        <v>1.56</v>
+        <v>1.75</v>
       </c>
       <c r="X44" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD44" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>15</v>
-      </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK44" t="n">
         <v>22</v>
       </c>
-      <c r="AG44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>36</v>
-      </c>
       <c r="AL44" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN44" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AO44" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Queretaro</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Guadalajara</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="G45" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K45" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N45" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="W45" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X45" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>US MLS</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2025-10-22</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>23:30:00</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Portland Timbers</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Real Salt Lake</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K46" t="n">
-        <v>4</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N46" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S46" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U46" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X46" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="G2" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
         <v>6.2</v>
       </c>
       <c r="K2" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -700,34 +700,34 @@
         <v>1.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
         <v>3.45</v>
       </c>
       <c r="T2" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="U2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="W2" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>70</v>
       </c>
       <c r="Z2" t="n">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,40 +736,40 @@
         <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="AF2" t="n">
         <v>6.2</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>980</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="V3" t="n">
         <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="X3" t="n">
         <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC3" t="n">
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H4" t="n">
         <v>2.96</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="K4" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="L4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M4" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="N4" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="O4" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="P4" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="S4" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="T4" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
         <v>1.4</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="I5" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="L5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O5" t="n">
         <v>1.48</v>
       </c>
       <c r="P5" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="R5" t="n">
         <v>1.21</v>
       </c>
       <c r="S5" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T5" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="U5" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="W5" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="X5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
         <v>11.5</v>
       </c>
       <c r="AE5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO5" t="n">
         <v>24</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>170</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17.5</v>
       </c>
     </row>
     <row r="6">
@@ -1210,16 +1210,16 @@
         <v>4.2</v>
       </c>
       <c r="G6" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
         <v>3.7</v>
@@ -1231,34 +1231,34 @@
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W6" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="X6" t="n">
         <v>11.5</v>
@@ -1273,28 +1273,28 @@
         <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>11</v>
       </c>
       <c r="AE6" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="n">
         <v>22</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1303,7 +1303,7 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>210</v>
+        <v>350</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1342,31 +1342,31 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="H7" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="I7" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N7" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O7" t="n">
         <v>1.15</v>
@@ -1375,10 +1375,10 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
         <v>2.14</v>
@@ -1387,40 +1387,40 @@
         <v>1.45</v>
       </c>
       <c r="U7" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
         <v>48</v>
       </c>
       <c r="AA7" t="n">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AC7" t="n">
         <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG7" t="n">
         <v>13.5</v>
@@ -1432,16 +1432,16 @@
         <v>80</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
         <v>11</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.22</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.25</v>
-      </c>
       <c r="J8" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="X8" t="n">
         <v>980</v>
@@ -1540,7 +1540,7 @@
         <v>10.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
         <v>980</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.35</v>
       </c>
-      <c r="G9" t="n">
-        <v>1.37</v>
-      </c>
       <c r="H9" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="K9" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="R9" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="T9" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V9" t="n">
         <v>1.11</v>
       </c>
       <c r="W9" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="X9" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="n">
         <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
         <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
       <c r="AH9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
         <v>12.5</v>
       </c>
-      <c r="AK9" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="H10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
@@ -1780,7 +1780,7 @@
         <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
         <v>1.42</v>
@@ -1795,58 +1795,58 @@
         <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="X10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z10" t="n">
         <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE10" t="n">
         <v>60</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="AJ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK10" t="n">
         <v>20</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
         <v>32</v>
       </c>
       <c r="AM10" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN10" t="n">
         <v>11.5</v>
@@ -1882,31 +1882,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="G11" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="H11" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K11" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O11" t="n">
         <v>1.15</v>
@@ -1915,31 +1915,31 @@
         <v>2.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="R11" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="S11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T11" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="V11" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W11" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="X11" t="n">
         <v>100</v>
       </c>
       <c r="Y11" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,31 +1948,31 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
         <v>60</v>
       </c>
       <c r="AE11" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG11" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AK11" t="n">
         <v>14.5</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G12" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
         <v>4.2</v>
@@ -2041,88 +2041,88 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="Q12" t="n">
         <v>1.56</v>
       </c>
       <c r="R12" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
         <v>2.16</v>
       </c>
       <c r="X12" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL12" t="n">
         <v>55</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
         <v>7.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G13" t="n">
         <v>1.48</v>
@@ -2161,10 +2161,10 @@
         <v>6.8</v>
       </c>
       <c r="I13" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="K13" t="n">
         <v>6.2</v>
@@ -2182,37 +2182,37 @@
         <v>1.12</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q13" t="n">
         <v>1.39</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T13" t="n">
         <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V13" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W13" t="n">
         <v>3.05</v>
       </c>
       <c r="X13" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="Y13" t="n">
         <v>110</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2224,7 +2224,7 @@
         <v>15</v>
       </c>
       <c r="AD13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE13" t="n">
         <v>460</v>
@@ -2233,16 +2233,16 @@
         <v>13.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
         <v>14.5</v>
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="G14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>4.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="R14" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
         <v>38</v>
       </c>
       <c r="AE14" t="n">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="AK14" t="n">
         <v>18</v>
       </c>
       <c r="AL14" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>300</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G15" t="n">
         <v>7.8</v>
       </c>
       <c r="H15" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="I15" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="J15" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.26</v>
@@ -2458,7 +2458,7 @@
         <v>1.47</v>
       </c>
       <c r="R15" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
         <v>2.2</v>
@@ -2470,31 +2470,31 @@
         <v>2.3</v>
       </c>
       <c r="V15" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Y15" t="n">
         <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA15" t="n">
         <v>15</v>
       </c>
       <c r="AB15" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -2503,14 +2503,14 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI15" t="n">
         <v>28</v>
       </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ15" t="n">
         <v>1000</v>
       </c>
@@ -2521,13 +2521,13 @@
         <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="G16" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.24</v>
@@ -2581,55 +2581,55 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O16" t="n">
         <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="R16" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S16" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T16" t="n">
         <v>1.46</v>
       </c>
       <c r="U16" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="V16" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="X16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y16" t="n">
         <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA16" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC16" t="n">
         <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE16" t="n">
         <v>32</v>
@@ -2647,22 +2647,22 @@
         <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -2692,58 +2692,58 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="G17" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="H17" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="I17" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="S17" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V17" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W17" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2758,7 +2758,7 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
         <v>42</v>
@@ -2770,13 +2770,13 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G18" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
         <v>3.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.37</v>
@@ -2851,88 +2851,88 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="U18" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="V18" t="n">
         <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="X18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
         <v>17.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AF18" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK18" t="n">
         <v>34</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AL18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO18" t="n">
         <v>65</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,49 +2962,49 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G19" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H19" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="I19" t="n">
         <v>15.5</v>
       </c>
       <c r="J19" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="K19" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M19" t="n">
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S19" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="U19" t="n">
         <v>1.9</v>
@@ -3013,13 +3013,13 @@
         <v>1.06</v>
       </c>
       <c r="W19" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="X19" t="n">
-        <v>95</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3031,40 +3031,40 @@
         <v>13</v>
       </c>
       <c r="AC19" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="n">
-        <v>180</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG19" t="n">
         <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK19" t="n">
         <v>14.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,61 +3097,61 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G20" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.26</v>
       </c>
       <c r="P20" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R20" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S20" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="U20" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
         <v>21</v>
@@ -3163,46 +3163,46 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
         <v>9.4</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO20" t="n">
-        <v>290</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="G21" t="n">
         <v>3.05</v>
       </c>
       <c r="H21" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="J21" t="n">
         <v>3.65</v>
@@ -3268,19 +3268,19 @@
         <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S21" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U21" t="n">
         <v>2.58</v>
       </c>
       <c r="V21" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="W21" t="n">
         <v>1.48</v>
@@ -3310,10 +3310,10 @@
         <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
         <v>15</v>
@@ -3322,19 +3322,19 @@
         <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AL21" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AM21" t="n">
         <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO21" t="n">
         <v>14.5</v>
@@ -3367,43 +3367,43 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="G22" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H22" t="n">
         <v>6.6</v>
       </c>
       <c r="I22" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K22" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O22" t="n">
         <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="Q22" t="n">
         <v>1.47</v>
       </c>
       <c r="R22" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="S22" t="n">
         <v>2.16</v>
@@ -3412,40 +3412,40 @@
         <v>1.65</v>
       </c>
       <c r="U22" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V22" t="n">
         <v>1.16</v>
       </c>
       <c r="W22" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="X22" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Y22" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="Z22" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC22" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
@@ -3463,7 +3463,7 @@
         <v>15</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
@@ -3505,19 +3505,19 @@
         <v>2.12</v>
       </c>
       <c r="G23" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
         <v>3.9</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
         <v>1.36</v>
@@ -3529,16 +3529,16 @@
         <v>4.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q23" t="n">
         <v>1.76</v>
       </c>
       <c r="R23" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S23" t="n">
         <v>2.92</v>
@@ -3550,52 +3550,52 @@
         <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W23" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="X23" t="n">
         <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC23" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
         <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF23" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI23" t="n">
         <v>46</v>
       </c>
       <c r="AJ23" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
         <v>32</v>
@@ -3607,7 +3607,7 @@
         <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>34</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="G24" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I24" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="J24" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K24" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L24" t="n">
         <v>1.35</v>
@@ -3661,88 +3661,88 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
         <v>1.23</v>
       </c>
       <c r="P24" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S24" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="T24" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U24" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V24" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W24" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z24" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA24" t="n">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AC24" t="n">
         <v>12</v>
       </c>
       <c r="AD24" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="n">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AG24" t="n">
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI24" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK24" t="n">
         <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM24" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN24" t="n">
         <v>5.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>190</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="G25" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="H25" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I25" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J25" t="n">
         <v>4.8</v>
@@ -3790,82 +3790,82 @@
         <v>4.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
         <v>1.13</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R25" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="S25" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="U25" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="V25" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W25" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="X25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z25" t="n">
         <v>55</v>
       </c>
       <c r="AA25" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG25" t="n">
         <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL25" t="n">
         <v>21</v>
@@ -3877,7 +3877,7 @@
         <v>4.9</v>
       </c>
       <c r="AO25" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I26" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.56</v>
@@ -3934,37 +3934,37 @@
         <v>2.88</v>
       </c>
       <c r="O26" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P26" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R26" t="n">
         <v>1.22</v>
       </c>
       <c r="S26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T26" t="n">
         <v>2.06</v>
       </c>
       <c r="U26" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V26" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X26" t="n">
         <v>17.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z26" t="n">
         <v>1000</v>
@@ -3973,37 +3973,37 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>30</v>
+        <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
         <v>540</v>
       </c>
       <c r="AJ26" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AK26" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AM26" t="n">
         <v>220</v>
@@ -4042,70 +4042,70 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H27" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K27" t="n">
         <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M27" t="n">
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.78</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.71</v>
-      </c>
       <c r="W27" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="X27" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB27" t="n">
         <v>15.5</v>
@@ -4114,16 +4114,16 @@
         <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH27" t="n">
         <v>16</v>
@@ -4132,22 +4132,22 @@
         <v>32</v>
       </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK27" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM27" t="n">
         <v>75</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AO27" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="28">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="G28" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L28" t="n">
         <v>1.41</v>
@@ -4210,10 +4210,10 @@
         <v>2.02</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R28" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S28" t="n">
         <v>3.35</v>
@@ -4225,22 +4225,22 @@
         <v>2.28</v>
       </c>
       <c r="V28" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W28" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="X28" t="n">
         <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z28" t="n">
         <v>23</v>
       </c>
       <c r="AA28" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AB28" t="n">
         <v>11</v>
@@ -4264,22 +4264,22 @@
         <v>16.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ28" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM28" t="n">
         <v>85</v>
       </c>
       <c r="AN28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO28" t="n">
         <v>32</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="G29" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H29" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K29" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L29" t="n">
         <v>1.3</v>
@@ -4336,67 +4336,67 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="Q29" t="n">
         <v>1.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="S29" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="T29" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="U29" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="V29" t="n">
         <v>1.16</v>
       </c>
       <c r="W29" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="X29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z29" t="n">
         <v>60</v>
       </c>
       <c r="AA29" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB29" t="n">
         <v>11</v>
       </c>
       <c r="AC29" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="n">
         <v>11</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI29" t="n">
         <v>70</v>
@@ -4414,10 +4414,10 @@
         <v>85</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AO29" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
@@ -4447,97 +4447,97 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.18</v>
       </c>
-      <c r="G30" t="n">
-        <v>1.19</v>
-      </c>
       <c r="H30" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="I30" t="n">
         <v>21</v>
       </c>
       <c r="J30" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="K30" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P30" t="n">
         <v>4.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="R30" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="S30" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="T30" t="n">
         <v>1.83</v>
       </c>
       <c r="U30" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V30" t="n">
         <v>1.05</v>
       </c>
       <c r="W30" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="X30" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Y30" t="n">
         <v>110</v>
       </c>
       <c r="Z30" t="n">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
         <v>24</v>
       </c>
       <c r="AD30" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE30" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK30" t="n">
         <v>12.5</v>
@@ -4549,10 +4549,10 @@
         <v>120</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="AO30" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="G31" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H31" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="I31" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="J31" t="n">
         <v>4.9</v>
@@ -4606,40 +4606,40 @@
         <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O31" t="n">
         <v>1.11</v>
       </c>
       <c r="P31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="R31" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S31" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="T31" t="n">
         <v>1.48</v>
       </c>
       <c r="U31" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="W31" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X31" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y31" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z31" t="n">
         <v>15.5</v>
@@ -4660,34 +4660,34 @@
         <v>14</v>
       </c>
       <c r="AF31" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH31" t="n">
         <v>15.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ31" t="n">
         <v>120</v>
       </c>
       <c r="AK31" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL31" t="n">
         <v>42</v>
       </c>
       <c r="AM31" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AN31" t="n">
         <v>32</v>
       </c>
       <c r="AO31" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="32">
@@ -4726,10 +4726,10 @@
         <v>8.6</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K32" t="n">
         <v>5.5</v>
@@ -4741,19 +4741,19 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q32" t="n">
         <v>1.61</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S32" t="n">
         <v>2.56</v>
@@ -4762,7 +4762,7 @@
         <v>1.88</v>
       </c>
       <c r="U32" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V32" t="n">
         <v>1.12</v>
@@ -4774,13 +4774,13 @@
         <v>24</v>
       </c>
       <c r="Y32" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z32" t="n">
         <v>80</v>
       </c>
       <c r="AA32" t="n">
-        <v>980</v>
+        <v>340</v>
       </c>
       <c r="AB32" t="n">
         <v>10.5</v>
@@ -4798,7 +4798,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG32" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH32" t="n">
         <v>23</v>
@@ -4807,22 +4807,22 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK32" t="n">
         <v>13.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM32" t="n">
         <v>110</v>
       </c>
       <c r="AN32" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO32" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33">
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H33" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I33" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J33" t="n">
         <v>3.7</v>
@@ -4879,31 +4879,31 @@
         <v>5.1</v>
       </c>
       <c r="O33" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R33" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S33" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="T33" t="n">
         <v>1.6</v>
       </c>
       <c r="U33" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V33" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W33" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X33" t="n">
         <v>19.5</v>
@@ -4918,7 +4918,7 @@
         <v>32</v>
       </c>
       <c r="AB33" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC33" t="n">
         <v>8.199999999999999</v>
@@ -4927,25 +4927,25 @@
         <v>11.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
         <v>14</v>
       </c>
       <c r="AI33" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ33" t="n">
         <v>55</v>
       </c>
       <c r="AK33" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL33" t="n">
         <v>34</v>
@@ -4957,7 +4957,7 @@
         <v>22</v>
       </c>
       <c r="AO33" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="34">
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G34" t="n">
         <v>2.3</v>
       </c>
-      <c r="G34" t="n">
-        <v>2.32</v>
-      </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J34" t="n">
         <v>3.8</v>
@@ -5005,43 +5005,43 @@
         <v>3.85</v>
       </c>
       <c r="L34" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M34" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N34" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R34" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="S34" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="T34" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U34" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="V34" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W34" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y34" t="n">
         <v>17.5</v>
@@ -5050,7 +5050,7 @@
         <v>25</v>
       </c>
       <c r="AA34" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB34" t="n">
         <v>13.5</v>
@@ -5089,7 +5089,7 @@
         <v>60</v>
       </c>
       <c r="AN34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO34" t="n">
         <v>22</v>
@@ -5125,16 +5125,16 @@
         <v>1.39</v>
       </c>
       <c r="G35" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H35" t="n">
         <v>11</v>
       </c>
       <c r="I35" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="J35" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K35" t="n">
         <v>4.6</v>
@@ -5143,7 +5143,7 @@
         <v>1.47</v>
       </c>
       <c r="M35" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N35" t="n">
         <v>3.2</v>
@@ -5152,31 +5152,31 @@
         <v>1.42</v>
       </c>
       <c r="P35" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R35" t="n">
         <v>1.26</v>
       </c>
       <c r="S35" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T35" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="U35" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="V35" t="n">
         <v>1.06</v>
       </c>
       <c r="W35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y35" t="n">
         <v>1000</v>
@@ -5188,7 +5188,7 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="AC35" t="n">
         <v>42</v>
@@ -5200,10 +5200,10 @@
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH35" t="n">
         <v>1000</v>
@@ -5212,10 +5212,10 @@
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL35" t="n">
         <v>1000</v>
@@ -5224,7 +5224,7 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5266,43 +5266,43 @@
         <v>12</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J36" t="n">
         <v>7</v>
       </c>
       <c r="K36" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L36" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="O36" t="n">
         <v>1.14</v>
       </c>
       <c r="P36" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R36" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="S36" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T36" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="U36" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V36" t="n">
         <v>1.08</v>
@@ -5314,10 +5314,10 @@
         <v>40</v>
       </c>
       <c r="Y36" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z36" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA36" t="n">
         <v>440</v>
@@ -5326,25 +5326,25 @@
         <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD36" t="n">
         <v>42</v>
       </c>
       <c r="AE36" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG36" t="n">
         <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI36" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ36" t="n">
         <v>11</v>
@@ -5359,10 +5359,10 @@
         <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO36" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5395,19 +5395,19 @@
         <v>1.52</v>
       </c>
       <c r="G37" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="H37" t="n">
         <v>6.8</v>
       </c>
       <c r="I37" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K37" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="L37" t="n">
         <v>1.4</v>
@@ -5416,16 +5416,16 @@
         <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P37" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="R37" t="n">
         <v>1.34</v>
@@ -5434,16 +5434,16 @@
         <v>3.3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U37" t="n">
         <v>1.81</v>
       </c>
       <c r="V37" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W37" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="X37" t="n">
         <v>16</v>
@@ -5452,19 +5452,19 @@
         <v>24</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC37" t="n">
         <v>10.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
@@ -5476,25 +5476,25 @@
         <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK37" t="n">
         <v>18.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5530,7 +5530,7 @@
         <v>1.87</v>
       </c>
       <c r="G38" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
         <v>4.9</v>
@@ -5539,10 +5539,10 @@
         <v>5.2</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K38" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L38" t="n">
         <v>1.47</v>
@@ -5551,13 +5551,13 @@
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P38" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q38" t="n">
         <v>2.2</v>
@@ -5566,40 +5566,40 @@
         <v>1.29</v>
       </c>
       <c r="S38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U38" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V38" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W38" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X38" t="n">
         <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z38" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA38" t="n">
         <v>130</v>
       </c>
       <c r="AB38" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC38" t="n">
         <v>8</v>
       </c>
       <c r="AD38" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE38" t="n">
         <v>75</v>
@@ -5608,7 +5608,7 @@
         <v>10.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH38" t="n">
         <v>22</v>
@@ -5620,19 +5620,19 @@
         <v>20</v>
       </c>
       <c r="AK38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL38" t="n">
         <v>44</v>
       </c>
       <c r="AM38" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN38" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G39" t="n">
         <v>2.06</v>
@@ -5674,40 +5674,40 @@
         <v>5.7</v>
       </c>
       <c r="J39" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K39" t="n">
         <v>3.05</v>
       </c>
-      <c r="K39" t="n">
-        <v>3.1</v>
-      </c>
       <c r="L39" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="M39" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N39" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="O39" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="P39" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R39" t="n">
         <v>1.13</v>
       </c>
       <c r="S39" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="T39" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="U39" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="V39" t="n">
         <v>1.21</v>
@@ -5716,10 +5716,10 @@
         <v>1.94</v>
       </c>
       <c r="X39" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="Y39" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z39" t="n">
         <v>38</v>
@@ -5734,40 +5734,40 @@
         <v>7.8</v>
       </c>
       <c r="AD39" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE39" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG39" t="n">
         <v>12.5</v>
       </c>
       <c r="AH39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>210</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>420</v>
+      </c>
+      <c r="AN39" t="n">
         <v>38</v>
       </c>
-      <c r="AI39" t="n">
-        <v>200</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>460</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>410</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>34</v>
-      </c>
       <c r="AO39" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40">
@@ -5797,64 +5797,64 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="G40" t="n">
         <v>1.7</v>
       </c>
       <c r="H40" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K40" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N40" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P40" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="R40" t="n">
         <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T40" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="U40" t="n">
         <v>1.67</v>
       </c>
       <c r="V40" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W40" t="n">
         <v>2.42</v>
       </c>
       <c r="X40" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z40" t="n">
         <v>1000</v>
@@ -5863,34 +5863,34 @@
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC40" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD40" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK40" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL40" t="n">
         <v>1000</v>
@@ -5932,112 +5932,112 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="G41" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="H41" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="I41" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K41" t="n">
         <v>4.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="R41" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="S41" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="T41" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="U41" t="n">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="V41" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W41" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="X41" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="Y41" t="n">
         <v>20</v>
       </c>
       <c r="Z41" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD41" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE41" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG41" t="n">
         <v>11.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AK41" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AL41" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AO41" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G42" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H42" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="I42" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J42" t="n">
         <v>3.45</v>
       </c>
       <c r="K42" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L42" t="n">
         <v>1.4</v>
@@ -6100,79 +6100,79 @@
         <v>2</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R42" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S42" t="n">
         <v>3.35</v>
       </c>
       <c r="T42" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U42" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V42" t="n">
         <v>1.55</v>
       </c>
       <c r="W42" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X42" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA42" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB42" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD42" t="n">
         <v>14.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF42" t="n">
         <v>22</v>
       </c>
       <c r="AG42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH42" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI42" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ42" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL42" t="n">
         <v>48</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN42" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO42" t="n">
         <v>28</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -6202,88 +6202,88 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H43" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="I43" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J43" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K43" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L43" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M43" t="n">
         <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O43" t="n">
         <v>1.41</v>
       </c>
       <c r="P43" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R43" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S43" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T43" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U43" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V43" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="W43" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X43" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y43" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC43" t="n">
         <v>8.4</v>
       </c>
-      <c r="Z43" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AD43" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
         <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH43" t="n">
         <v>25</v>
@@ -6292,22 +6292,22 @@
         <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AK43" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AL43" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM43" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN43" t="n">
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G44" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H44" t="n">
         <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K44" t="n">
         <v>3.9</v>
@@ -6382,13 +6382,13 @@
         <v>1.61</v>
       </c>
       <c r="U44" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="V44" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W44" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X44" t="n">
         <v>21</v>
@@ -6403,7 +6403,7 @@
         <v>55</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC44" t="n">
         <v>8.800000000000001</v>
@@ -6415,7 +6415,7 @@
         <v>34</v>
       </c>
       <c r="AF44" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG44" t="n">
         <v>11.5</v>
@@ -6427,10 +6427,10 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK44" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL44" t="n">
         <v>32</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-22.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="G2" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="J2" t="n">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="T2" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
+        <v>8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
         <v>4.8</v>
       </c>
-      <c r="X2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>250</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AC2" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AE2" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AI2" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="G3" t="n">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.9</v>
+        <v>2.76</v>
       </c>
       <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
         <v>4.6</v>
       </c>
-      <c r="L3" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="X3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD3" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AH3" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>190</v>
+        <v>770</v>
       </c>
       <c r="AJ3" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,103 +937,103 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y4" t="n">
         <v>3.1</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9.4</v>
-      </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
@@ -1072,91 +1072,91 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="I5" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.65</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.1</v>
       </c>
-      <c r="N5" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.56</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.44</v>
+        <v>10</v>
       </c>
       <c r="R5" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="S5" t="n">
-        <v>4.9</v>
+        <v>50</v>
       </c>
       <c r="T5" t="n">
-        <v>2.12</v>
+        <v>5.3</v>
       </c>
       <c r="U5" t="n">
-        <v>1.65</v>
+        <v>1.18</v>
       </c>
       <c r="V5" t="n">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
       <c r="W5" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="X5" t="n">
-        <v>9.800000000000001</v>
+        <v>3.05</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="Z5" t="n">
         <v>11.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.5</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="n">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="I6" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.49</v>
+        <v>1.87</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="O6" t="n">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>2.76</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.96</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="V6" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="W6" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
         <v>14.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AH6" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL6" t="n">
-        <v>350</v>
+        <v>180</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AO6" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1345,103 +1345,103 @@
         <v>2.4</v>
       </c>
       <c r="G7" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H7" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
         <v>6.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P7" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U7" t="n">
         <v>3</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.94</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W7" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X7" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Z7" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AB7" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AF7" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AJ7" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
         <v>11</v>
@@ -1477,82 +1477,82 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="I8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>10</v>
       </c>
       <c r="L8" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O8" t="n">
         <v>1.12</v>
       </c>
       <c r="P8" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q8" t="n">
         <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="S8" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="T8" t="n">
         <v>1.99</v>
       </c>
       <c r="U8" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V8" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="W8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Z8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA8" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12</v>
       </c>
       <c r="AB8" t="n">
         <v>980</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>3.2</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="G9" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="I9" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="K9" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="O9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.13</v>
       </c>
-      <c r="P9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.11</v>
-      </c>
       <c r="W9" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="X9" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y9" t="n">
         <v>44</v>
       </c>
-      <c r="Y9" t="n">
-        <v>46</v>
-      </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="AB9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC9" t="n">
         <v>14</v>
       </c>
-      <c r="AC9" t="n">
-        <v>15</v>
-      </c>
       <c r="AD9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK9" t="n">
         <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>12.5</v>
       </c>
       <c r="AL9" t="n">
         <v>27</v>
       </c>
       <c r="AM9" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="H10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J10" t="n">
         <v>4.2</v>
       </c>
-      <c r="I10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
@@ -1771,88 +1771,88 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
         <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="W10" t="n">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="X10" t="n">
         <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AA10" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI10" t="n">
         <v>110</v>
       </c>
-      <c r="AB10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>230</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1882,31 +1882,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="G11" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="I11" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="K11" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.26</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.15</v>
@@ -1915,79 +1915,79 @@
         <v>2.92</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="R11" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
         <v>2.18</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="X11" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="Y11" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC11" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>210</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK11" t="n">
         <v>14</v>
       </c>
-      <c r="AD11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="G12" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="H12" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J12" t="n">
         <v>4.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.2</v>
-      </c>
       <c r="K12" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
         <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="S12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="X12" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AI12" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>600</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -2152,73 +2152,73 @@
         </is>
       </c>
       <c r="F13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.43</v>
       </c>
-      <c r="G13" t="n">
-        <v>1.48</v>
-      </c>
       <c r="H13" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="I13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J13" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.12</v>
       </c>
       <c r="P13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R13" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="S13" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="T13" t="n">
         <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="V13" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W13" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="X13" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="Y13" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="Z13" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC13" t="n">
         <v>15</v>
@@ -2227,37 +2227,37 @@
         <v>32</v>
       </c>
       <c r="AE13" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -2287,109 +2287,109 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G14" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.26</v>
       </c>
-      <c r="P14" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W14" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X14" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="Z14" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AA14" t="n">
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AE14" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO14" t="n">
         <v>600</v>
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="G15" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="H15" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="I15" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="K15" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P15" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="X15" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Y15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
         <v>12.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AC15" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD15" t="n">
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF15" t="n">
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM15" t="n">
-        <v>95</v>
+        <v>790</v>
       </c>
       <c r="AN15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="G16" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="J16" t="n">
         <v>4.4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.24</v>
@@ -2581,88 +2581,88 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="S16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T16" t="n">
         <v>1.46</v>
       </c>
       <c r="U16" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="W16" t="n">
-        <v>1.99</v>
+        <v>1.87</v>
       </c>
       <c r="X16" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA16" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
         <v>18.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AG16" t="n">
         <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AN16" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AO16" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,61 +2692,61 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="G17" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S17" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y17" t="n">
         <v>1000</v>
@@ -2758,10 +2758,10 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AC17" t="n">
-        <v>42</v>
+        <v>13.5</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2770,10 +2770,10 @@
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
         <v>1000</v>
@@ -2782,10 +2782,10 @@
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>180</v>
+        <v>15.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2794,7 +2794,7 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AO17" t="n">
         <v>1000</v>
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>2.92</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.47</v>
       </c>
-      <c r="S18" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.37</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
         <v>48</v>
       </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="AF18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH18" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ18" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>65</v>
       </c>
       <c r="AN18" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="H19" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="I19" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="K19" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L19" t="n">
         <v>1.23</v>
@@ -2986,41 +2986,41 @@
         <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P19" t="n">
         <v>3.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R19" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S19" t="n">
         <v>2.02</v>
       </c>
       <c r="T19" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
         <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="X19" t="n">
+        <v>95</v>
+      </c>
+      <c r="Y19" t="n">
         <v>980</v>
       </c>
-      <c r="Y19" t="n">
-        <v>240</v>
-      </c>
       <c r="Z19" t="n">
         <v>1000</v>
       </c>
@@ -3028,10 +3028,10 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="n">
         <v>980</v>
@@ -3040,13 +3040,13 @@
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3055,7 +3055,7 @@
         <v>10</v>
       </c>
       <c r="AK19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL19" t="n">
         <v>70</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,67 +3097,67 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G20" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
         <v>2.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R20" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S20" t="n">
         <v>2.88</v>
       </c>
       <c r="T20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V20" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X20" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Y20" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Z20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3166,43 +3166,43 @@
         <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF20" t="n">
         <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AK20" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM20" t="n">
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21">
@@ -3232,112 +3232,112 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="G21" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="H21" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="I21" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.62</v>
       </c>
-      <c r="R21" t="n">
-        <v>1.59</v>
-      </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="T21" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="U21" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="V21" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W21" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z21" t="n">
         <v>20</v>
       </c>
       <c r="AA21" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AB21" t="n">
         <v>17.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH21" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH21" t="n">
-        <v>15</v>
-      </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AJ21" t="n">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="AK21" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -3367,67 +3367,67 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="G22" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="J22" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R22" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S22" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U22" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V22" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="W22" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="X22" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
         <v>1000</v>
@@ -3436,40 +3436,40 @@
         <v>14</v>
       </c>
       <c r="AC22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD22" t="n">
         <v>44</v>
       </c>
       <c r="AE22" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL22" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,82 +3502,82 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P23" t="n">
         <v>2.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R23" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S23" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T23" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U23" t="n">
         <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
         <v>1.84</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y23" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="n">
         <v>14.5</v>
@@ -3586,28 +3586,28 @@
         <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AN23" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G24" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="J24" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K24" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.35</v>
@@ -3661,88 +3661,88 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q24" t="n">
         <v>1.74</v>
       </c>
       <c r="R24" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="T24" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U24" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V24" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W24" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="X24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Z24" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA24" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="AB24" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC24" t="n">
         <v>12</v>
       </c>
       <c r="AD24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE24" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AF24" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AG24" t="n">
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK24" t="n">
         <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25">
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="G25" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H25" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="I25" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>4.8</v>
@@ -3790,94 +3790,94 @@
         <v>4.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P25" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="R25" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T25" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="U25" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="V25" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W25" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="X25" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y25" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Z25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
         <v>10.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI25" t="n">
         <v>44</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM25" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AO25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G26" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I26" t="n">
         <v>5.3</v>
       </c>
-      <c r="I26" t="n">
-        <v>5.5</v>
-      </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L26" t="n">
         <v>1.56</v>
@@ -3931,16 +3931,16 @@
         <v>1.12</v>
       </c>
       <c r="N26" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O26" t="n">
         <v>1.49</v>
       </c>
       <c r="P26" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="R26" t="n">
         <v>1.22</v>
@@ -3949,67 +3949,67 @@
         <v>5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U26" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V26" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X26" t="n">
-        <v>17.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y26" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA26" t="n">
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC26" t="n">
         <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG26" t="n">
         <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AI26" t="n">
         <v>540</v>
       </c>
       <c r="AJ26" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL26" t="n">
         <v>450</v>
       </c>
       <c r="AM26" t="n">
-        <v>220</v>
+        <v>790</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G27" t="n">
         <v>3.4</v>
       </c>
-      <c r="G27" t="n">
-        <v>3.55</v>
-      </c>
       <c r="H27" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="I27" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J27" t="n">
         <v>3.7</v>
@@ -4066,61 +4066,61 @@
         <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O27" t="n">
         <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R27" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T27" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U27" t="n">
         <v>2.36</v>
       </c>
       <c r="V27" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W27" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="X27" t="n">
         <v>17.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
         <v>11</v>
       </c>
       <c r="AE27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>14.5</v>
@@ -4129,25 +4129,25 @@
         <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ27" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL27" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM27" t="n">
         <v>75</v>
       </c>
       <c r="AN27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO27" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="28">
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G28" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
@@ -4189,10 +4189,10 @@
         <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K28" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L28" t="n">
         <v>1.41</v>
@@ -4201,37 +4201,37 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="R28" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T28" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="U28" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V28" t="n">
         <v>1.44</v>
       </c>
       <c r="W28" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X28" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
         <v>13.5</v>
@@ -4264,7 +4264,7 @@
         <v>16.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ28" t="n">
         <v>34</v>
@@ -4276,13 +4276,13 @@
         <v>38</v>
       </c>
       <c r="AM28" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN28" t="n">
         <v>18.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="G29" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="I29" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="J29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
         <v>5.1</v>
@@ -4339,7 +4339,7 @@
         <v>5.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P29" t="n">
         <v>2.6</v>
@@ -4348,22 +4348,22 @@
         <v>1.6</v>
       </c>
       <c r="R29" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S29" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="T29" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U29" t="n">
         <v>2.24</v>
       </c>
       <c r="V29" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W29" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="X29" t="n">
         <v>24</v>
@@ -4372,10 +4372,10 @@
         <v>30</v>
       </c>
       <c r="Z29" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA29" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="AB29" t="n">
         <v>11</v>
@@ -4384,40 +4384,40 @@
         <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
         <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL29" t="n">
         <v>26</v>
       </c>
       <c r="AM29" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AO29" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -4447,67 +4447,67 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="G30" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J30" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="K30" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.07</v>
       </c>
       <c r="P30" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="R30" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S30" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="T30" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U30" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V30" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W30" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="X30" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y30" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="Z30" t="n">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
@@ -4516,13 +4516,13 @@
         <v>21</v>
       </c>
       <c r="AC30" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AD30" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
@@ -4531,13 +4531,13 @@
         <v>13.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AI30" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
         <v>12.5</v>
@@ -4546,13 +4546,13 @@
         <v>30</v>
       </c>
       <c r="AM30" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="AO30" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="G31" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H31" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="I31" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="J31" t="n">
         <v>4.9</v>
@@ -4600,46 +4600,46 @@
         <v>5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M31" t="n">
         <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P31" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R31" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="S31" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T31" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="U31" t="n">
         <v>3</v>
       </c>
       <c r="V31" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="W31" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X31" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z31" t="n">
         <v>15.5</v>
@@ -4654,22 +4654,22 @@
         <v>13</v>
       </c>
       <c r="AD31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH31" t="n">
         <v>15.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
         <v>120</v>
@@ -4681,13 +4681,13 @@
         <v>42</v>
       </c>
       <c r="AM31" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AN31" t="n">
         <v>32</v>
       </c>
       <c r="AO31" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="G32" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="H32" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J32" t="n">
         <v>5.4</v>
@@ -4741,46 +4741,46 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O32" t="n">
         <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R32" t="n">
         <v>1.61</v>
       </c>
-      <c r="R32" t="n">
-        <v>1.63</v>
-      </c>
       <c r="S32" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U32" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V32" t="n">
         <v>1.12</v>
       </c>
       <c r="W32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X32" t="n">
         <v>24</v>
       </c>
       <c r="Y32" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z32" t="n">
         <v>80</v>
       </c>
       <c r="AA32" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AB32" t="n">
         <v>10.5</v>
@@ -4789,40 +4789,40 @@
         <v>12</v>
       </c>
       <c r="AD32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE32" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG32" t="n">
         <v>10</v>
       </c>
       <c r="AH32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK32" t="n">
         <v>13.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AM32" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
         <v>5.2</v>
       </c>
       <c r="AO32" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
@@ -4855,19 +4855,19 @@
         <v>3.2</v>
       </c>
       <c r="G33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I33" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K33" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.75</v>
       </c>
       <c r="L33" t="n">
         <v>1.34</v>
@@ -4882,40 +4882,40 @@
         <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q33" t="n">
         <v>1.71</v>
       </c>
       <c r="R33" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S33" t="n">
         <v>2.74</v>
       </c>
       <c r="T33" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U33" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V33" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W33" t="n">
         <v>1.44</v>
       </c>
       <c r="X33" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="n">
         <v>13.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB33" t="n">
         <v>16.5</v>
@@ -4933,19 +4933,19 @@
         <v>24</v>
       </c>
       <c r="AG33" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
         <v>14</v>
       </c>
       <c r="AI33" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ33" t="n">
         <v>55</v>
       </c>
       <c r="AK33" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL33" t="n">
         <v>34</v>
@@ -4954,10 +4954,10 @@
         <v>60</v>
       </c>
       <c r="AN33" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J34" t="n">
         <v>3.8</v>
@@ -5008,7 +5008,7 @@
         <v>1.32</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N34" t="n">
         <v>5.4</v>
@@ -5017,28 +5017,28 @@
         <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R34" t="n">
         <v>1.62</v>
       </c>
       <c r="S34" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T34" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U34" t="n">
         <v>2.58</v>
       </c>
       <c r="V34" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W34" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X34" t="n">
         <v>21</v>
@@ -5047,22 +5047,22 @@
         <v>17.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA34" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB34" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD34" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE34" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF34" t="n">
         <v>17</v>
@@ -5074,7 +5074,7 @@
         <v>14</v>
       </c>
       <c r="AI34" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ34" t="n">
         <v>30</v>
@@ -5083,16 +5083,16 @@
         <v>21</v>
       </c>
       <c r="AL34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM34" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN34" t="n">
         <v>12</v>
       </c>
       <c r="AO34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
@@ -5122,109 +5122,109 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="G35" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="H35" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J35" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="K35" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="P35" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="R35" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S35" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T35" t="n">
-        <v>2.46</v>
+        <v>2.84</v>
       </c>
       <c r="U35" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="V35" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="W35" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="X35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>210</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>640</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AK35" t="n">
         <v>24</v>
       </c>
-      <c r="Y35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>65</v>
-      </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I36" t="n">
         <v>12</v>
-      </c>
-      <c r="I36" t="n">
-        <v>12.5</v>
       </c>
       <c r="J36" t="n">
         <v>7</v>
@@ -5281,76 +5281,76 @@
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P36" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R36" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S36" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="T36" t="n">
         <v>1.86</v>
       </c>
       <c r="U36" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V36" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W36" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="X36" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Y36" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z36" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA36" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
         <v>16</v>
       </c>
       <c r="AD36" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE36" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF36" t="n">
         <v>9.4</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI36" t="n">
         <v>120</v>
       </c>
       <c r="AJ36" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL36" t="n">
         <v>28</v>
@@ -5359,10 +5359,10 @@
         <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -5392,64 +5392,64 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="G37" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="H37" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="I37" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K37" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P37" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="R37" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S37" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U37" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V37" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W37" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="X37" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z37" t="n">
         <v>170</v>
@@ -5461,7 +5461,7 @@
         <v>8</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD37" t="n">
         <v>55</v>
@@ -5470,22 +5470,22 @@
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG37" t="n">
         <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL37" t="n">
         <v>150</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5530,16 +5530,16 @@
         <v>1.87</v>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H38" t="n">
         <v>4.9</v>
       </c>
       <c r="I38" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K38" t="n">
         <v>3.8</v>
@@ -5569,25 +5569,25 @@
         <v>4.2</v>
       </c>
       <c r="T38" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V38" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W38" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X38" t="n">
         <v>12</v>
       </c>
       <c r="Y38" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA38" t="n">
         <v>130</v>
@@ -5608,7 +5608,7 @@
         <v>10.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH38" t="n">
         <v>22</v>
@@ -5632,7 +5632,7 @@
         <v>15.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="G39" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
         <v>5.3</v>
       </c>
-      <c r="I39" t="n">
-        <v>5.7</v>
-      </c>
       <c r="J39" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K39" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
         <v>1.76</v>
@@ -5689,85 +5689,85 @@
         <v>2.22</v>
       </c>
       <c r="O39" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="P39" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="R39" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="S39" t="n">
         <v>8</v>
       </c>
       <c r="T39" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="U39" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="V39" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W39" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="X39" t="n">
         <v>6.4</v>
       </c>
       <c r="Y39" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA39" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AB39" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE39" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF39" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG39" t="n">
         <v>12.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI39" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AJ39" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AK39" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AL39" t="n">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="AM39" t="n">
-        <v>420</v>
+        <v>980</v>
       </c>
       <c r="AN39" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO39" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40">
@@ -5797,112 +5797,112 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="H40" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I40" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L40" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="O40" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P40" t="n">
         <v>1.68</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R40" t="n">
         <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T40" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="U40" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V40" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W40" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="X40" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB40" t="n">
         <v>7.2</v>
       </c>
       <c r="AC40" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD40" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF40" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG40" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ40" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN40" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41">
@@ -5932,112 +5932,112 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="G41" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="H41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I41" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.3</v>
       </c>
       <c r="J41" t="n">
         <v>3.85</v>
       </c>
       <c r="K41" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L41" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O41" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P41" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="R41" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S41" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="T41" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="U41" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="V41" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W41" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="X41" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="Y41" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB41" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC41" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD41" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF41" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG41" t="n">
         <v>11.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ41" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK41" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN41" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO41" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="42">
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="G42" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="H42" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="I42" t="n">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="J42" t="n">
         <v>3.45</v>
@@ -6091,16 +6091,16 @@
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O42" t="n">
         <v>1.31</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R42" t="n">
         <v>1.39</v>
@@ -6109,28 +6109,28 @@
         <v>3.35</v>
       </c>
       <c r="T42" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U42" t="n">
         <v>2.2</v>
       </c>
       <c r="V42" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="W42" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="X42" t="n">
         <v>15.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
         <v>12.5</v>
@@ -6139,40 +6139,40 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD42" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AE42" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI42" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
         <v>110</v>
       </c>
       <c r="AN42" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="G43" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="I43" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="J43" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K43" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L43" t="n">
         <v>1.48</v>
@@ -6229,19 +6229,19 @@
         <v>3.25</v>
       </c>
       <c r="O43" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P43" t="n">
         <v>1.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R43" t="n">
         <v>1.27</v>
       </c>
       <c r="S43" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T43" t="n">
         <v>2.08</v>
@@ -6250,52 +6250,52 @@
         <v>1.81</v>
       </c>
       <c r="V43" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="W43" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X43" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z43" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA43" t="n">
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD43" t="n">
         <v>10.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG43" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AH43" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ43" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AK43" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL43" t="n">
         <v>130</v>
@@ -6307,7 +6307,7 @@
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
@@ -6337,19 +6337,19 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G44" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I44" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J44" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K44" t="n">
         <v>3.9</v>
@@ -6376,7 +6376,7 @@
         <v>1.54</v>
       </c>
       <c r="S44" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="T44" t="n">
         <v>1.61</v>
@@ -6385,10 +6385,10 @@
         <v>2.52</v>
       </c>
       <c r="V44" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W44" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X44" t="n">
         <v>21</v>
@@ -6397,13 +6397,13 @@
         <v>16.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA44" t="n">
         <v>55</v>
       </c>
       <c r="AB44" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
         <v>8.800000000000001</v>
@@ -6415,7 +6415,7 @@
         <v>34</v>
       </c>
       <c r="AF44" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG44" t="n">
         <v>11.5</v>
@@ -6427,10 +6427,10 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK44" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL44" t="n">
         <v>32</v>
@@ -6442,7 +6442,7 @@
         <v>13</v>
       </c>
       <c r="AO44" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
